--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewtait/Documents/projects/LearningTree/decision_analysis/load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34B9833-3624-184C-BF74-833A89FE1AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08295DA8-CD1D-ED48-A8F0-C68D8CDE74B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30420" yWindow="5980" windowWidth="27240" windowHeight="16440" xr2:uid="{0F019118-33F6-6048-BCF9-F6B10611FD35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>minimum</t>
   </si>
@@ -62,24 +62,6 @@
     <t>total delay</t>
   </si>
   <si>
-    <t>simulation</t>
-  </si>
-  <si>
-    <t>minimum delay</t>
-  </si>
-  <si>
-    <t>maximum delay</t>
-  </si>
-  <si>
-    <t>median delay</t>
-  </si>
-  <si>
-    <t>mean delay</t>
-  </si>
-  <si>
-    <t>95th percentile</t>
-  </si>
-  <si>
     <t>bins</t>
   </si>
   <si>
@@ -90,6 +72,27 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>sample #</t>
+  </si>
+  <si>
+    <t>minimum duration</t>
+  </si>
+  <si>
+    <t>maximum duration</t>
+  </si>
+  <si>
+    <t>median duration</t>
+  </si>
+  <si>
+    <t>mean duration</t>
+  </si>
+  <si>
+    <t>95th percentile duration</t>
+  </si>
+  <si>
+    <t>total duration</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -868,20 +871,20 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I1">
         <f ca="1">F5</f>
-        <v>16.236455442249394</v>
+        <v>16.699317870808944</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -899,15 +902,15 @@
       </c>
       <c r="E2">
         <f ca="1">RAND()</f>
-        <v>0.88432750061491783</v>
+        <v>0.75700061488860371</v>
       </c>
       <c r="F2">
         <f ca="1">IF(E2&lt;(C2-B2)/(D2-B2),B2+SQRT(E2*(D2-B2)*(C2-B2)),D2-SQRT((1-E2)*(D2-B2)*(D2-C2)))</f>
-        <v>6.3338247435392727</v>
+        <v>5.5850496397081972</v>
       </c>
       <c r="L2">
         <f ca="1">I1</f>
-        <v>16.236455442249394</v>
+        <v>16.699317870808944</v>
       </c>
       <c r="N2">
         <v>5</v>
@@ -928,25 +931,25 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E4" ca="1" si="0">RAND()</f>
-        <v>0.29184506347717798</v>
+        <v>0.61025995286249735</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" ca="1" si="1">IF(E3&lt;(C3-B3)/(D3-B3),B3+SQRT(E3*(D3-B3)*(C3-B3)),D3-SQRT((1-E3)*(D3-B3)*(D3-C3)))</f>
-        <v>3.291988469122217</v>
+        <v>4.351354903261849</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1">
         <f>MIN(L3:L1002)</f>
-        <v>7.4591034379005654</v>
+        <v>7.6115109162177115</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
         <f t="dataTable" ref="L3:L1002" dt2D="0" dtr="0" r1="G1" ca="1"/>
-        <v>9.4317778988397336</v>
+        <v>17.143077493067139</v>
       </c>
       <c r="N3">
         <v>6</v>
@@ -967,24 +970,24 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70860072564197796</v>
+        <v>0.75617811228351361</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6106422295879064</v>
+        <v>6.7629133278388984</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <f>MAX(L3:L1002)</f>
-        <v>20.213807312699188</v>
+        <v>20.289005011219398</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>16.130356080147305</v>
+        <v>15.103896104575597</v>
       </c>
       <c r="N4">
         <v>7</v>
@@ -992,7 +995,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B2:B4)</f>
@@ -1009,20 +1012,20 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>16.236455442249394</v>
+        <v>16.699317870808944</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1">
         <f>MEDIAN(L3:L1002)</f>
-        <v>14.519077327532454</v>
+        <v>14.447871150038985</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5">
-        <v>16.837622166258654</v>
+        <v>13.959795599908631</v>
       </c>
       <c r="N5">
         <v>8</v>
@@ -1030,17 +1033,17 @@
     </row>
     <row r="6" spans="1:14">
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1">
         <f>AVERAGE(L3:L1002)</f>
-        <v>14.381898312595212</v>
+        <v>14.429227216387003</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>17.236519614612977</v>
+        <v>14.155377555122204</v>
       </c>
       <c r="N6">
         <v>9</v>
@@ -1048,17 +1051,17 @@
     </row>
     <row r="7" spans="1:14">
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1">
         <f>_xlfn.PERCENTILE.INC(L3:L1002, 0.95)</f>
-        <v>17.812803867849368</v>
+        <v>17.954144284891822</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>9.610957240975722</v>
+        <v>12.794771063879455</v>
       </c>
       <c r="N7">
         <v>10</v>
@@ -1069,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>10.729782046151129</v>
+        <v>17.515621760384242</v>
       </c>
       <c r="N8">
         <v>11</v>
@@ -1080,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>15.332565652202339</v>
+        <v>12.380332358798098</v>
       </c>
       <c r="N9">
         <v>12</v>
@@ -1091,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>15.052033337517912</v>
+        <v>15.554668106946366</v>
       </c>
       <c r="N10">
         <v>13</v>
@@ -1102,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>12.866178346991548</v>
+        <v>12.4533903261518</v>
       </c>
       <c r="N11">
         <v>14</v>
@@ -1113,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>15.245949032702129</v>
+        <v>16.096602442100092</v>
       </c>
       <c r="N12">
         <v>15</v>
@@ -1124,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="L13">
-        <v>10.5537650282721</v>
+        <v>15.876219128401026</v>
       </c>
       <c r="N13">
         <v>16</v>
@@ -1135,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>17.464465393687803</v>
+        <v>12.239835582191466</v>
       </c>
       <c r="N14">
         <v>17</v>
@@ -1146,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="L15">
-        <v>14.704400282414953</v>
+        <v>16.316094595686856</v>
       </c>
       <c r="N15">
         <v>18</v>
@@ -1157,7 +1160,7 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>10.298369706356596</v>
+        <v>11.477547502117437</v>
       </c>
       <c r="N16">
         <v>19</v>
@@ -1168,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="L17">
-        <v>11.78398305383976</v>
+        <v>15.365867094796805</v>
       </c>
       <c r="N17">
         <v>20</v>
@@ -1179,7 +1182,7 @@
         <v>16</v>
       </c>
       <c r="L18">
-        <v>13.930949151748095</v>
+        <v>17.005348909326671</v>
       </c>
       <c r="N18">
         <v>21</v>
@@ -1190,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="L19">
-        <v>14.714747113690994</v>
+        <v>14.740422900985777</v>
       </c>
       <c r="N19">
         <v>22</v>
@@ -1201,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="L20">
-        <v>17.811833292828759</v>
+        <v>16.115304844408044</v>
       </c>
       <c r="N20">
         <v>23</v>
@@ -1212,7 +1215,7 @@
         <v>19</v>
       </c>
       <c r="L21">
-        <v>16.729998111565099</v>
+        <v>9.5852509962403527</v>
       </c>
     </row>
     <row r="22" spans="11:14">
@@ -1220,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <v>16.341464231365833</v>
+        <v>15.218337402574241</v>
       </c>
     </row>
     <row r="23" spans="11:14">
@@ -1228,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="L23">
-        <v>14.33955359047809</v>
+        <v>15.731631640523503</v>
       </c>
     </row>
     <row r="24" spans="11:14">
@@ -1236,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="L24">
-        <v>14.255353440100027</v>
+        <v>12.981319531221148</v>
       </c>
     </row>
     <row r="25" spans="11:14">
@@ -1244,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="L25">
-        <v>14.220988395519253</v>
+        <v>15.525875272554305</v>
       </c>
     </row>
     <row r="26" spans="11:14">
@@ -1252,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="L26">
-        <v>11.805240747395398</v>
+        <v>13.643929300190806</v>
       </c>
     </row>
     <row r="27" spans="11:14">
@@ -1260,7 +1263,7 @@
         <v>25</v>
       </c>
       <c r="L27">
-        <v>15.336851272093915</v>
+        <v>11.589870886847795</v>
       </c>
     </row>
     <row r="28" spans="11:14">
@@ -1268,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="L28">
-        <v>14.351746145037659</v>
+        <v>18.10389691721636</v>
       </c>
     </row>
     <row r="29" spans="11:14">
@@ -1276,7 +1279,7 @@
         <v>27</v>
       </c>
       <c r="L29">
-        <v>15.00530855138631</v>
+        <v>10.703535324474226</v>
       </c>
     </row>
     <row r="30" spans="11:14">
@@ -1284,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="L30">
-        <v>9.7940875581000686</v>
+        <v>12.284294051129729</v>
       </c>
     </row>
     <row r="31" spans="11:14">
@@ -1292,7 +1295,7 @@
         <v>29</v>
       </c>
       <c r="L31">
-        <v>15.670211092529973</v>
+        <v>15.970626313764637</v>
       </c>
     </row>
     <row r="32" spans="11:14">
@@ -1300,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="L32">
-        <v>13.230816284533475</v>
+        <v>12.788765009902605</v>
       </c>
     </row>
     <row r="33" spans="11:12">
@@ -1308,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="L33">
-        <v>19.069362545398597</v>
+        <v>12.011781071493985</v>
       </c>
     </row>
     <row r="34" spans="11:12">
@@ -1316,7 +1319,7 @@
         <v>32</v>
       </c>
       <c r="L34">
-        <v>18.458881224757949</v>
+        <v>13.15510395207027</v>
       </c>
     </row>
     <row r="35" spans="11:12">
@@ -1324,7 +1327,7 @@
         <v>33</v>
       </c>
       <c r="L35">
-        <v>15.578068256518925</v>
+        <v>17.479501495827503</v>
       </c>
     </row>
     <row r="36" spans="11:12">
@@ -1332,7 +1335,7 @@
         <v>34</v>
       </c>
       <c r="L36">
-        <v>16.394085564469879</v>
+        <v>13.124479905614542</v>
       </c>
     </row>
     <row r="37" spans="11:12">
@@ -1340,7 +1343,7 @@
         <v>35</v>
       </c>
       <c r="L37">
-        <v>13.679565340256897</v>
+        <v>12.70602053439308</v>
       </c>
     </row>
     <row r="38" spans="11:12">
@@ -1348,7 +1351,7 @@
         <v>36</v>
       </c>
       <c r="L38">
-        <v>18.419750959731314</v>
+        <v>13.501858369448113</v>
       </c>
     </row>
     <row r="39" spans="11:12">
@@ -1356,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="L39">
-        <v>15.41615968557484</v>
+        <v>12.071417357701346</v>
       </c>
     </row>
     <row r="40" spans="11:12">
@@ -1364,7 +1367,7 @@
         <v>38</v>
       </c>
       <c r="L40">
-        <v>13.900335827464637</v>
+        <v>12.509462795173599</v>
       </c>
     </row>
     <row r="41" spans="11:12">
@@ -1372,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="L41">
-        <v>17.312238079547591</v>
+        <v>13.70485146458039</v>
       </c>
     </row>
     <row r="42" spans="11:12">
@@ -1380,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>10.757351529438024</v>
+        <v>15.951842100357174</v>
       </c>
     </row>
     <row r="43" spans="11:12">
@@ -1388,7 +1391,7 @@
         <v>41</v>
       </c>
       <c r="L43">
-        <v>15.941453971750231</v>
+        <v>13.185626058128548</v>
       </c>
     </row>
     <row r="44" spans="11:12">
@@ -1396,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="L44">
-        <v>16.36427432008206</v>
+        <v>12.367394903150782</v>
       </c>
     </row>
     <row r="45" spans="11:12">
@@ -1404,7 +1407,7 @@
         <v>43</v>
       </c>
       <c r="L45">
-        <v>15.457861262875017</v>
+        <v>12.435940658279627</v>
       </c>
     </row>
     <row r="46" spans="11:12">
@@ -1412,7 +1415,7 @@
         <v>44</v>
       </c>
       <c r="L46">
-        <v>15.883617307756817</v>
+        <v>14.906134175720277</v>
       </c>
     </row>
     <row r="47" spans="11:12">
@@ -1420,7 +1423,7 @@
         <v>45</v>
       </c>
       <c r="L47">
-        <v>12.904983297857006</v>
+        <v>11.446962222873381</v>
       </c>
     </row>
     <row r="48" spans="11:12">
@@ -1428,7 +1431,7 @@
         <v>46</v>
       </c>
       <c r="L48">
-        <v>18.325503759133728</v>
+        <v>12.352405683828666</v>
       </c>
     </row>
     <row r="49" spans="11:12">
@@ -1436,7 +1439,7 @@
         <v>47</v>
       </c>
       <c r="L49">
-        <v>16.561268683789017</v>
+        <v>17.737099498484124</v>
       </c>
     </row>
     <row r="50" spans="11:12">
@@ -1444,7 +1447,7 @@
         <v>48</v>
       </c>
       <c r="L50">
-        <v>13.746086456084535</v>
+        <v>7.6115109162177115</v>
       </c>
     </row>
     <row r="51" spans="11:12">
@@ -1452,7 +1455,7 @@
         <v>49</v>
       </c>
       <c r="L51">
-        <v>13.52017016000933</v>
+        <v>15.822277853427535</v>
       </c>
     </row>
     <row r="52" spans="11:12">
@@ -1460,7 +1463,7 @@
         <v>50</v>
       </c>
       <c r="L52">
-        <v>15.194353362580687</v>
+        <v>16.435638862192384</v>
       </c>
     </row>
     <row r="53" spans="11:12">
@@ -1468,7 +1471,7 @@
         <v>51</v>
       </c>
       <c r="L53">
-        <v>12.264292424310934</v>
+        <v>12.732772409142981</v>
       </c>
     </row>
     <row r="54" spans="11:12">
@@ -1476,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="L54">
-        <v>17.284549786273605</v>
+        <v>14.175452698416784</v>
       </c>
     </row>
     <row r="55" spans="11:12">
@@ -1484,7 +1487,7 @@
         <v>53</v>
       </c>
       <c r="L55">
-        <v>14.379497944012108</v>
+        <v>12.93161861068093</v>
       </c>
     </row>
     <row r="56" spans="11:12">
@@ -1492,7 +1495,7 @@
         <v>54</v>
       </c>
       <c r="L56">
-        <v>11.931021889044107</v>
+        <v>13.003754524543091</v>
       </c>
     </row>
     <row r="57" spans="11:12">
@@ -1500,7 +1503,7 @@
         <v>55</v>
       </c>
       <c r="L57">
-        <v>18.345172362691446</v>
+        <v>11.584099214375703</v>
       </c>
     </row>
     <row r="58" spans="11:12">
@@ -1508,7 +1511,7 @@
         <v>56</v>
       </c>
       <c r="L58">
-        <v>14.389345833231879</v>
+        <v>16.373592761060966</v>
       </c>
     </row>
     <row r="59" spans="11:12">
@@ -1516,7 +1519,7 @@
         <v>57</v>
       </c>
       <c r="L59">
-        <v>15.360833697001642</v>
+        <v>19.081504000069202</v>
       </c>
     </row>
     <row r="60" spans="11:12">
@@ -1524,7 +1527,7 @@
         <v>58</v>
       </c>
       <c r="L60">
-        <v>14.770536968837192</v>
+        <v>18.071685181934285</v>
       </c>
     </row>
     <row r="61" spans="11:12">
@@ -1532,7 +1535,7 @@
         <v>59</v>
       </c>
       <c r="L61">
-        <v>11.743209051626849</v>
+        <v>16.031176609593899</v>
       </c>
     </row>
     <row r="62" spans="11:12">
@@ -1540,7 +1543,7 @@
         <v>60</v>
       </c>
       <c r="L62">
-        <v>15.807680006319636</v>
+        <v>9.1069204902500829</v>
       </c>
     </row>
     <row r="63" spans="11:12">
@@ -1548,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="L63">
-        <v>12.831116028091463</v>
+        <v>16.445799363253503</v>
       </c>
     </row>
     <row r="64" spans="11:12">
@@ -1556,7 +1559,7 @@
         <v>62</v>
       </c>
       <c r="L64">
-        <v>16.677588356903179</v>
+        <v>12.407866725848246</v>
       </c>
     </row>
     <row r="65" spans="11:12">
@@ -1564,7 +1567,7 @@
         <v>63</v>
       </c>
       <c r="L65">
-        <v>19.072525490375153</v>
+        <v>16.872526107521519</v>
       </c>
     </row>
     <row r="66" spans="11:12">
@@ -1572,7 +1575,7 @@
         <v>64</v>
       </c>
       <c r="L66">
-        <v>17.577639817976554</v>
+        <v>13.584952867875105</v>
       </c>
     </row>
     <row r="67" spans="11:12">
@@ -1580,7 +1583,7 @@
         <v>65</v>
       </c>
       <c r="L67">
-        <v>14.37838657443346</v>
+        <v>15.177422824206825</v>
       </c>
     </row>
     <row r="68" spans="11:12">
@@ -1588,7 +1591,7 @@
         <v>66</v>
       </c>
       <c r="L68">
-        <v>15.831362312815239</v>
+        <v>12.163631282762537</v>
       </c>
     </row>
     <row r="69" spans="11:12">
@@ -1596,7 +1599,7 @@
         <v>67</v>
       </c>
       <c r="L69">
-        <v>9.7342475399758719</v>
+        <v>17.861717753638416</v>
       </c>
     </row>
     <row r="70" spans="11:12">
@@ -1604,7 +1607,7 @@
         <v>68</v>
       </c>
       <c r="L70">
-        <v>16.617701485412368</v>
+        <v>10.159347198681608</v>
       </c>
     </row>
     <row r="71" spans="11:12">
@@ -1612,7 +1615,7 @@
         <v>69</v>
       </c>
       <c r="L71">
-        <v>11.540622003166574</v>
+        <v>17.246786333884714</v>
       </c>
     </row>
     <row r="72" spans="11:12">
@@ -1620,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="L72">
-        <v>15.360313660167517</v>
+        <v>14.130061079369685</v>
       </c>
     </row>
     <row r="73" spans="11:12">
@@ -1628,7 +1631,7 @@
         <v>71</v>
       </c>
       <c r="L73">
-        <v>15.565265229837891</v>
+        <v>13.33163320547896</v>
       </c>
     </row>
     <row r="74" spans="11:12">
@@ -1636,7 +1639,7 @@
         <v>72</v>
       </c>
       <c r="L74">
-        <v>17.29236842032828</v>
+        <v>19.516916231066247</v>
       </c>
     </row>
     <row r="75" spans="11:12">
@@ -1644,7 +1647,7 @@
         <v>73</v>
       </c>
       <c r="L75">
-        <v>15.704186535621254</v>
+        <v>15.237831958530434</v>
       </c>
     </row>
     <row r="76" spans="11:12">
@@ -1652,7 +1655,7 @@
         <v>74</v>
       </c>
       <c r="L76">
-        <v>9.8967470707839471</v>
+        <v>12.255190124775904</v>
       </c>
     </row>
     <row r="77" spans="11:12">
@@ -1660,7 +1663,7 @@
         <v>75</v>
       </c>
       <c r="L77">
-        <v>14.220906150212034</v>
+        <v>11.683845368490594</v>
       </c>
     </row>
     <row r="78" spans="11:12">
@@ -1668,7 +1671,7 @@
         <v>76</v>
       </c>
       <c r="L78">
-        <v>15.734765445658308</v>
+        <v>12.114741626052178</v>
       </c>
     </row>
     <row r="79" spans="11:12">
@@ -1676,7 +1679,7 @@
         <v>77</v>
       </c>
       <c r="L79">
-        <v>13.482741657596073</v>
+        <v>15.765959000422674</v>
       </c>
     </row>
     <row r="80" spans="11:12">
@@ -1684,7 +1687,7 @@
         <v>78</v>
       </c>
       <c r="L80">
-        <v>12.487774906662889</v>
+        <v>13.991176962121397</v>
       </c>
     </row>
     <row r="81" spans="11:12">
@@ -1692,7 +1695,7 @@
         <v>79</v>
       </c>
       <c r="L81">
-        <v>8.1237294090321051</v>
+        <v>11.612053750519649</v>
       </c>
     </row>
     <row r="82" spans="11:12">
@@ -1700,7 +1703,7 @@
         <v>80</v>
       </c>
       <c r="L82">
-        <v>14.800311324631402</v>
+        <v>14.54831154621178</v>
       </c>
     </row>
     <row r="83" spans="11:12">
@@ -1708,7 +1711,7 @@
         <v>81</v>
       </c>
       <c r="L83">
-        <v>11.53281746370978</v>
+        <v>13.957686116902247</v>
       </c>
     </row>
     <row r="84" spans="11:12">
@@ -1716,7 +1719,7 @@
         <v>82</v>
       </c>
       <c r="L84">
-        <v>13.780618330146314</v>
+        <v>17.654145257692917</v>
       </c>
     </row>
     <row r="85" spans="11:12">
@@ -1724,7 +1727,7 @@
         <v>83</v>
       </c>
       <c r="L85">
-        <v>13.240477584246621</v>
+        <v>14.399012535109081</v>
       </c>
     </row>
     <row r="86" spans="11:12">
@@ -1732,7 +1735,7 @@
         <v>84</v>
       </c>
       <c r="L86">
-        <v>17.188982649657184</v>
+        <v>13.840072680046003</v>
       </c>
     </row>
     <row r="87" spans="11:12">
@@ -1740,7 +1743,7 @@
         <v>85</v>
       </c>
       <c r="L87">
-        <v>13.908205086447456</v>
+        <v>12.818758179858888</v>
       </c>
     </row>
     <row r="88" spans="11:12">
@@ -1748,7 +1751,7 @@
         <v>86</v>
       </c>
       <c r="L88">
-        <v>10.785673069461078</v>
+        <v>16.038060389044794</v>
       </c>
     </row>
     <row r="89" spans="11:12">
@@ -1756,7 +1759,7 @@
         <v>87</v>
       </c>
       <c r="L89">
-        <v>15.554159778655215</v>
+        <v>13.539462392725643</v>
       </c>
     </row>
     <row r="90" spans="11:12">
@@ -1764,7 +1767,7 @@
         <v>88</v>
       </c>
       <c r="L90">
-        <v>17.498183581975805</v>
+        <v>12.540004608825923</v>
       </c>
     </row>
     <row r="91" spans="11:12">
@@ -1772,7 +1775,7 @@
         <v>89</v>
       </c>
       <c r="L91">
-        <v>14.6004545415816</v>
+        <v>14.791109558381084</v>
       </c>
     </row>
     <row r="92" spans="11:12">
@@ -1780,7 +1783,7 @@
         <v>90</v>
       </c>
       <c r="L92">
-        <v>16.577653780696618</v>
+        <v>8.8280261033190239</v>
       </c>
     </row>
     <row r="93" spans="11:12">
@@ -1788,7 +1791,7 @@
         <v>91</v>
       </c>
       <c r="L93">
-        <v>12.358667715063744</v>
+        <v>13.914977939463595</v>
       </c>
     </row>
     <row r="94" spans="11:12">
@@ -1796,7 +1799,7 @@
         <v>92</v>
       </c>
       <c r="L94">
-        <v>15.419156785452447</v>
+        <v>13.202386053403396</v>
       </c>
     </row>
     <row r="95" spans="11:12">
@@ -1804,7 +1807,7 @@
         <v>93</v>
       </c>
       <c r="L95">
-        <v>13.429948195630358</v>
+        <v>12.040240391952882</v>
       </c>
     </row>
     <row r="96" spans="11:12">
@@ -1812,7 +1815,7 @@
         <v>94</v>
       </c>
       <c r="L96">
-        <v>16.35256017050094</v>
+        <v>11.077173471076243</v>
       </c>
     </row>
     <row r="97" spans="11:12">
@@ -1820,7 +1823,7 @@
         <v>95</v>
       </c>
       <c r="L97">
-        <v>12.575382878844016</v>
+        <v>12.279416325046473</v>
       </c>
     </row>
     <row r="98" spans="11:12">
@@ -1828,7 +1831,7 @@
         <v>96</v>
       </c>
       <c r="L98">
-        <v>10.772677125568396</v>
+        <v>16.973633584978689</v>
       </c>
     </row>
     <row r="99" spans="11:12">
@@ -1836,7 +1839,7 @@
         <v>97</v>
       </c>
       <c r="L99">
-        <v>18.690679764897702</v>
+        <v>14.498122785093475</v>
       </c>
     </row>
     <row r="100" spans="11:12">
@@ -1844,7 +1847,7 @@
         <v>98</v>
       </c>
       <c r="L100">
-        <v>13.461051715181744</v>
+        <v>11.587666410098123</v>
       </c>
     </row>
     <row r="101" spans="11:12">
@@ -1852,7 +1855,7 @@
         <v>99</v>
       </c>
       <c r="L101">
-        <v>16.039872031335676</v>
+        <v>16.731799259246614</v>
       </c>
     </row>
     <row r="102" spans="11:12">
@@ -1860,7 +1863,7 @@
         <v>100</v>
       </c>
       <c r="L102">
-        <v>9.2442610423544096</v>
+        <v>14.725397507134229</v>
       </c>
     </row>
     <row r="103" spans="11:12">
@@ -1868,7 +1871,7 @@
         <v>101</v>
       </c>
       <c r="L103">
-        <v>14.554226406224622</v>
+        <v>13.293111418210678</v>
       </c>
     </row>
     <row r="104" spans="11:12">
@@ -1876,7 +1879,7 @@
         <v>102</v>
       </c>
       <c r="L104">
-        <v>12.006869827244323</v>
+        <v>13.191326712157498</v>
       </c>
     </row>
     <row r="105" spans="11:12">
@@ -1884,7 +1887,7 @@
         <v>103</v>
       </c>
       <c r="L105">
-        <v>16.29573191239863</v>
+        <v>14.509292942464459</v>
       </c>
     </row>
     <row r="106" spans="11:12">
@@ -1892,7 +1895,7 @@
         <v>104</v>
       </c>
       <c r="L106">
-        <v>15.453023721659665</v>
+        <v>15.806417860123016</v>
       </c>
     </row>
     <row r="107" spans="11:12">
@@ -1900,7 +1903,7 @@
         <v>105</v>
       </c>
       <c r="L107">
-        <v>10.518263732259296</v>
+        <v>20.227089880064398</v>
       </c>
     </row>
     <row r="108" spans="11:12">
@@ -1908,7 +1911,7 @@
         <v>106</v>
       </c>
       <c r="L108">
-        <v>15.553698306316276</v>
+        <v>13.255790475480168</v>
       </c>
     </row>
     <row r="109" spans="11:12">
@@ -1916,7 +1919,7 @@
         <v>107</v>
       </c>
       <c r="L109">
-        <v>15.983123408827039</v>
+        <v>11.216460538578685</v>
       </c>
     </row>
     <row r="110" spans="11:12">
@@ -1924,7 +1927,7 @@
         <v>108</v>
       </c>
       <c r="L110">
-        <v>14.750671363028349</v>
+        <v>12.702118213750449</v>
       </c>
     </row>
     <row r="111" spans="11:12">
@@ -1932,7 +1935,7 @@
         <v>109</v>
       </c>
       <c r="L111">
-        <v>12.159059643430751</v>
+        <v>12.550551248391871</v>
       </c>
     </row>
     <row r="112" spans="11:12">
@@ -1940,7 +1943,7 @@
         <v>110</v>
       </c>
       <c r="L112">
-        <v>16.049258674418333</v>
+        <v>14.054673861232668</v>
       </c>
     </row>
     <row r="113" spans="11:12">
@@ -1948,7 +1951,7 @@
         <v>111</v>
       </c>
       <c r="L113">
-        <v>11.063930103250872</v>
+        <v>13.593976370396405</v>
       </c>
     </row>
     <row r="114" spans="11:12">
@@ -1956,7 +1959,7 @@
         <v>112</v>
       </c>
       <c r="L114">
-        <v>13.933735232925368</v>
+        <v>14.448880743184739</v>
       </c>
     </row>
     <row r="115" spans="11:12">
@@ -1964,7 +1967,7 @@
         <v>113</v>
       </c>
       <c r="L115">
-        <v>18.188459842764651</v>
+        <v>13.848554168374555</v>
       </c>
     </row>
     <row r="116" spans="11:12">
@@ -1972,7 +1975,7 @@
         <v>114</v>
       </c>
       <c r="L116">
-        <v>17.052277351466415</v>
+        <v>14.665007134782254</v>
       </c>
     </row>
     <row r="117" spans="11:12">
@@ -1980,7 +1983,7 @@
         <v>115</v>
       </c>
       <c r="L117">
-        <v>15.207561517075936</v>
+        <v>14.02474852648132</v>
       </c>
     </row>
     <row r="118" spans="11:12">
@@ -1988,7 +1991,7 @@
         <v>116</v>
       </c>
       <c r="L118">
-        <v>10.869214102562831</v>
+        <v>15.934607624186317</v>
       </c>
     </row>
     <row r="119" spans="11:12">
@@ -1996,7 +1999,7 @@
         <v>117</v>
       </c>
       <c r="L119">
-        <v>14.143013673594801</v>
+        <v>16.522142774951242</v>
       </c>
     </row>
     <row r="120" spans="11:12">
@@ -2004,7 +2007,7 @@
         <v>118</v>
       </c>
       <c r="L120">
-        <v>16.235202310722158</v>
+        <v>14.707242217789215</v>
       </c>
     </row>
     <row r="121" spans="11:12">
@@ -2012,7 +2015,7 @@
         <v>119</v>
       </c>
       <c r="L121">
-        <v>16.43657952576773</v>
+        <v>14.61584309543758</v>
       </c>
     </row>
     <row r="122" spans="11:12">
@@ -2020,7 +2023,7 @@
         <v>120</v>
       </c>
       <c r="L122">
-        <v>15.724052918824436</v>
+        <v>11.87926577584205</v>
       </c>
     </row>
     <row r="123" spans="11:12">
@@ -2028,7 +2031,7 @@
         <v>121</v>
       </c>
       <c r="L123">
-        <v>13.442067086171209</v>
+        <v>14.144950211136928</v>
       </c>
     </row>
     <row r="124" spans="11:12">
@@ -2036,7 +2039,7 @@
         <v>122</v>
       </c>
       <c r="L124">
-        <v>15.18948705528096</v>
+        <v>13.267472324089727</v>
       </c>
     </row>
     <row r="125" spans="11:12">
@@ -2044,7 +2047,7 @@
         <v>123</v>
       </c>
       <c r="L125">
-        <v>12.040154139898796</v>
+        <v>15.811709778090218</v>
       </c>
     </row>
     <row r="126" spans="11:12">
@@ -2052,7 +2055,7 @@
         <v>124</v>
       </c>
       <c r="L126">
-        <v>10.994578285485789</v>
+        <v>13.570885888889512</v>
       </c>
     </row>
     <row r="127" spans="11:12">
@@ -2060,7 +2063,7 @@
         <v>125</v>
       </c>
       <c r="L127">
-        <v>15.599369220253051</v>
+        <v>17.694678497498991</v>
       </c>
     </row>
     <row r="128" spans="11:12">
@@ -2068,7 +2071,7 @@
         <v>126</v>
       </c>
       <c r="L128">
-        <v>12.132194078485423</v>
+        <v>16.616913595797715</v>
       </c>
     </row>
     <row r="129" spans="11:12">
@@ -2076,7 +2079,7 @@
         <v>127</v>
       </c>
       <c r="L129">
-        <v>15.095119259110893</v>
+        <v>14.311818240327085</v>
       </c>
     </row>
     <row r="130" spans="11:12">
@@ -2084,7 +2087,7 @@
         <v>128</v>
       </c>
       <c r="L130">
-        <v>16.496890654219762</v>
+        <v>18.978924424597096</v>
       </c>
     </row>
     <row r="131" spans="11:12">
@@ -2092,7 +2095,7 @@
         <v>129</v>
       </c>
       <c r="L131">
-        <v>12.099684525947247</v>
+        <v>14.422091924491443</v>
       </c>
     </row>
     <row r="132" spans="11:12">
@@ -2100,7 +2103,7 @@
         <v>130</v>
       </c>
       <c r="L132">
-        <v>11.215021813045354</v>
+        <v>16.450881481734104</v>
       </c>
     </row>
     <row r="133" spans="11:12">
@@ -2108,7 +2111,7 @@
         <v>131</v>
       </c>
       <c r="L133">
-        <v>15.365194036546638</v>
+        <v>14.194058330568454</v>
       </c>
     </row>
     <row r="134" spans="11:12">
@@ -2116,7 +2119,7 @@
         <v>132</v>
       </c>
       <c r="L134">
-        <v>15.102208410507263</v>
+        <v>13.422194397642048</v>
       </c>
     </row>
     <row r="135" spans="11:12">
@@ -2124,7 +2127,7 @@
         <v>133</v>
       </c>
       <c r="L135">
-        <v>15.586938495677828</v>
+        <v>15.005788226002474</v>
       </c>
     </row>
     <row r="136" spans="11:12">
@@ -2132,7 +2135,7 @@
         <v>134</v>
       </c>
       <c r="L136">
-        <v>13.259796503516139</v>
+        <v>10.995302649841507</v>
       </c>
     </row>
     <row r="137" spans="11:12">
@@ -2140,7 +2143,7 @@
         <v>135</v>
       </c>
       <c r="L137">
-        <v>16.213696356740876</v>
+        <v>12.598416790814891</v>
       </c>
     </row>
     <row r="138" spans="11:12">
@@ -2148,7 +2151,7 @@
         <v>136</v>
       </c>
       <c r="L138">
-        <v>13.690154306625878</v>
+        <v>14.712637459594973</v>
       </c>
     </row>
     <row r="139" spans="11:12">
@@ -2156,7 +2159,7 @@
         <v>137</v>
       </c>
       <c r="L139">
-        <v>15.028283023069239</v>
+        <v>14.934570555685761</v>
       </c>
     </row>
     <row r="140" spans="11:12">
@@ -2164,7 +2167,7 @@
         <v>138</v>
       </c>
       <c r="L140">
-        <v>9.6394127476639664</v>
+        <v>12.45962967248682</v>
       </c>
     </row>
     <row r="141" spans="11:12">
@@ -2172,7 +2175,7 @@
         <v>139</v>
       </c>
       <c r="L141">
-        <v>13.358521275505243</v>
+        <v>15.278374663507355</v>
       </c>
     </row>
     <row r="142" spans="11:12">
@@ -2180,7 +2183,7 @@
         <v>140</v>
       </c>
       <c r="L142">
-        <v>13.929616824812273</v>
+        <v>15.664856887258223</v>
       </c>
     </row>
     <row r="143" spans="11:12">
@@ -2188,7 +2191,7 @@
         <v>141</v>
       </c>
       <c r="L143">
-        <v>16.154223015629526</v>
+        <v>12.655227822876498</v>
       </c>
     </row>
     <row r="144" spans="11:12">
@@ -2196,7 +2199,7 @@
         <v>142</v>
       </c>
       <c r="L144">
-        <v>15.224183385092763</v>
+        <v>12.229732351747543</v>
       </c>
     </row>
     <row r="145" spans="11:12">
@@ -2204,7 +2207,7 @@
         <v>143</v>
       </c>
       <c r="L145">
-        <v>15.972307970049533</v>
+        <v>14.113227091981155</v>
       </c>
     </row>
     <row r="146" spans="11:12">
@@ -2212,7 +2215,7 @@
         <v>144</v>
       </c>
       <c r="L146">
-        <v>12.125415103993246</v>
+        <v>10.571886307656497</v>
       </c>
     </row>
     <row r="147" spans="11:12">
@@ -2220,7 +2223,7 @@
         <v>145</v>
       </c>
       <c r="L147">
-        <v>12.652651013094403</v>
+        <v>13.434120423187741</v>
       </c>
     </row>
     <row r="148" spans="11:12">
@@ -2228,7 +2231,7 @@
         <v>146</v>
       </c>
       <c r="L148">
-        <v>13.770592522226647</v>
+        <v>14.653183316534324</v>
       </c>
     </row>
     <row r="149" spans="11:12">
@@ -2236,7 +2239,7 @@
         <v>147</v>
       </c>
       <c r="L149">
-        <v>12.874411831163309</v>
+        <v>15.680673976747004</v>
       </c>
     </row>
     <row r="150" spans="11:12">
@@ -2244,7 +2247,7 @@
         <v>148</v>
       </c>
       <c r="L150">
-        <v>12.182971373437878</v>
+        <v>14.320208294806024</v>
       </c>
     </row>
     <row r="151" spans="11:12">
@@ -2252,7 +2255,7 @@
         <v>149</v>
       </c>
       <c r="L151">
-        <v>12.642999559798508</v>
+        <v>10.984425402292642</v>
       </c>
     </row>
     <row r="152" spans="11:12">
@@ -2260,7 +2263,7 @@
         <v>150</v>
       </c>
       <c r="L152">
-        <v>18.863893642605664</v>
+        <v>15.420748859305824</v>
       </c>
     </row>
     <row r="153" spans="11:12">
@@ -2268,7 +2271,7 @@
         <v>151</v>
       </c>
       <c r="L153">
-        <v>12.400004540035271</v>
+        <v>15.485521647017318</v>
       </c>
     </row>
     <row r="154" spans="11:12">
@@ -2276,7 +2279,7 @@
         <v>152</v>
       </c>
       <c r="L154">
-        <v>14.023926484844619</v>
+        <v>14.764048743743576</v>
       </c>
     </row>
     <row r="155" spans="11:12">
@@ -2284,7 +2287,7 @@
         <v>153</v>
       </c>
       <c r="L155">
-        <v>17.993425939544068</v>
+        <v>17.701801245413268</v>
       </c>
     </row>
     <row r="156" spans="11:12">
@@ -2292,7 +2295,7 @@
         <v>154</v>
       </c>
       <c r="L156">
-        <v>11.267169443810543</v>
+        <v>12.408551017308451</v>
       </c>
     </row>
     <row r="157" spans="11:12">
@@ -2300,7 +2303,7 @@
         <v>155</v>
       </c>
       <c r="L157">
-        <v>17.634464150361374</v>
+        <v>19.320755420252883</v>
       </c>
     </row>
     <row r="158" spans="11:12">
@@ -2308,7 +2311,7 @@
         <v>156</v>
       </c>
       <c r="L158">
-        <v>10.787718451627129</v>
+        <v>16.303467483889861</v>
       </c>
     </row>
     <row r="159" spans="11:12">
@@ -2316,7 +2319,7 @@
         <v>157</v>
       </c>
       <c r="L159">
-        <v>10.24081998225498</v>
+        <v>11.903089194461781</v>
       </c>
     </row>
     <row r="160" spans="11:12">
@@ -2324,7 +2327,7 @@
         <v>158</v>
       </c>
       <c r="L160">
-        <v>14.202353481644518</v>
+        <v>18.295840904527346</v>
       </c>
     </row>
     <row r="161" spans="11:12">
@@ -2332,7 +2335,7 @@
         <v>159</v>
       </c>
       <c r="L161">
-        <v>15.938366527162533</v>
+        <v>15.053565042362283</v>
       </c>
     </row>
     <row r="162" spans="11:12">
@@ -2340,7 +2343,7 @@
         <v>160</v>
       </c>
       <c r="L162">
-        <v>13.897495122672661</v>
+        <v>11.342040517159742</v>
       </c>
     </row>
     <row r="163" spans="11:12">
@@ -2348,7 +2351,7 @@
         <v>161</v>
       </c>
       <c r="L163">
-        <v>15.565529869957462</v>
+        <v>15.25889736905323</v>
       </c>
     </row>
     <row r="164" spans="11:12">
@@ -2356,7 +2359,7 @@
         <v>162</v>
       </c>
       <c r="L164">
-        <v>18.474826646683045</v>
+        <v>14.018392519084884</v>
       </c>
     </row>
     <row r="165" spans="11:12">
@@ -2364,7 +2367,7 @@
         <v>163</v>
       </c>
       <c r="L165">
-        <v>14.630801788433658</v>
+        <v>13.483022185179465</v>
       </c>
     </row>
     <row r="166" spans="11:12">
@@ -2372,7 +2375,7 @@
         <v>164</v>
       </c>
       <c r="L166">
-        <v>16.33096002435023</v>
+        <v>12.163284509257952</v>
       </c>
     </row>
     <row r="167" spans="11:12">
@@ -2380,7 +2383,7 @@
         <v>165</v>
       </c>
       <c r="L167">
-        <v>12.422349601165818</v>
+        <v>15.860918333097633</v>
       </c>
     </row>
     <row r="168" spans="11:12">
@@ -2388,7 +2391,7 @@
         <v>166</v>
       </c>
       <c r="L168">
-        <v>12.907233203114558</v>
+        <v>16.474156807848807</v>
       </c>
     </row>
     <row r="169" spans="11:12">
@@ -2396,7 +2399,7 @@
         <v>167</v>
       </c>
       <c r="L169">
-        <v>15.358702220840467</v>
+        <v>11.073808048879622</v>
       </c>
     </row>
     <row r="170" spans="11:12">
@@ -2404,7 +2407,7 @@
         <v>168</v>
       </c>
       <c r="L170">
-        <v>11.160027402485444</v>
+        <v>14.570088449334872</v>
       </c>
     </row>
     <row r="171" spans="11:12">
@@ -2412,7 +2415,7 @@
         <v>169</v>
       </c>
       <c r="L171">
-        <v>14.707902232899794</v>
+        <v>13.113849187512844</v>
       </c>
     </row>
     <row r="172" spans="11:12">
@@ -2420,7 +2423,7 @@
         <v>170</v>
       </c>
       <c r="L172">
-        <v>13.10609532199617</v>
+        <v>12.886954330442421</v>
       </c>
     </row>
     <row r="173" spans="11:12">
@@ -2428,7 +2431,7 @@
         <v>171</v>
       </c>
       <c r="L173">
-        <v>15.488978436719563</v>
+        <v>14.837471911418799</v>
       </c>
     </row>
     <row r="174" spans="11:12">
@@ -2436,7 +2439,7 @@
         <v>172</v>
       </c>
       <c r="L174">
-        <v>11.289426987911487</v>
+        <v>18.456470007125759</v>
       </c>
     </row>
     <row r="175" spans="11:12">
@@ -2444,7 +2447,7 @@
         <v>173</v>
       </c>
       <c r="L175">
-        <v>15.412646085061029</v>
+        <v>13.127428938266675</v>
       </c>
     </row>
     <row r="176" spans="11:12">
@@ -2452,7 +2455,7 @@
         <v>174</v>
       </c>
       <c r="L176">
-        <v>15.951514604300785</v>
+        <v>12.50661396599258</v>
       </c>
     </row>
     <row r="177" spans="11:12">
@@ -2460,7 +2463,7 @@
         <v>175</v>
       </c>
       <c r="L177">
-        <v>14.565238072538998</v>
+        <v>15.982666293014018</v>
       </c>
     </row>
     <row r="178" spans="11:12">
@@ -2468,7 +2471,7 @@
         <v>176</v>
       </c>
       <c r="L178">
-        <v>12.438350211138133</v>
+        <v>18.632580311906533</v>
       </c>
     </row>
     <row r="179" spans="11:12">
@@ -2476,7 +2479,7 @@
         <v>177</v>
       </c>
       <c r="L179">
-        <v>17.86775586023932</v>
+        <v>14.448379463540125</v>
       </c>
     </row>
     <row r="180" spans="11:12">
@@ -2484,7 +2487,7 @@
         <v>178</v>
       </c>
       <c r="L180">
-        <v>10.268812018633657</v>
+        <v>17.164740464853733</v>
       </c>
     </row>
     <row r="181" spans="11:12">
@@ -2492,7 +2495,7 @@
         <v>179</v>
       </c>
       <c r="L181">
-        <v>13.632206297569496</v>
+        <v>15.51160281525188</v>
       </c>
     </row>
     <row r="182" spans="11:12">
@@ -2500,7 +2503,7 @@
         <v>180</v>
       </c>
       <c r="L182">
-        <v>17.378101081421121</v>
+        <v>16.424961133258133</v>
       </c>
     </row>
     <row r="183" spans="11:12">
@@ -2508,7 +2511,7 @@
         <v>181</v>
       </c>
       <c r="L183">
-        <v>14.688823300549386</v>
+        <v>14.306159797026424</v>
       </c>
     </row>
     <row r="184" spans="11:12">
@@ -2516,7 +2519,7 @@
         <v>182</v>
       </c>
       <c r="L184">
-        <v>12.376418254012599</v>
+        <v>14.754836069302215</v>
       </c>
     </row>
     <row r="185" spans="11:12">
@@ -2524,7 +2527,7 @@
         <v>183</v>
       </c>
       <c r="L185">
-        <v>19.445928459067623</v>
+        <v>16.550684054199696</v>
       </c>
     </row>
     <row r="186" spans="11:12">
@@ -2532,7 +2535,7 @@
         <v>184</v>
       </c>
       <c r="L186">
-        <v>16.938894128665751</v>
+        <v>15.338273495954677</v>
       </c>
     </row>
     <row r="187" spans="11:12">
@@ -2540,7 +2543,7 @@
         <v>185</v>
       </c>
       <c r="L187">
-        <v>13.669200074316805</v>
+        <v>12.549915768041416</v>
       </c>
     </row>
     <row r="188" spans="11:12">
@@ -2548,7 +2551,7 @@
         <v>186</v>
       </c>
       <c r="L188">
-        <v>13.473976529362632</v>
+        <v>17.176891207593542</v>
       </c>
     </row>
     <row r="189" spans="11:12">
@@ -2556,7 +2559,7 @@
         <v>187</v>
       </c>
       <c r="L189">
-        <v>12.080360851657966</v>
+        <v>10.941413305225446</v>
       </c>
     </row>
     <row r="190" spans="11:12">
@@ -2564,7 +2567,7 @@
         <v>188</v>
       </c>
       <c r="L190">
-        <v>12.531487033397527</v>
+        <v>11.168473048177319</v>
       </c>
     </row>
     <row r="191" spans="11:12">
@@ -2572,7 +2575,7 @@
         <v>189</v>
       </c>
       <c r="L191">
-        <v>15.780473731256372</v>
+        <v>17.720585148234225</v>
       </c>
     </row>
     <row r="192" spans="11:12">
@@ -2580,7 +2583,7 @@
         <v>190</v>
       </c>
       <c r="L192">
-        <v>17.960801655989833</v>
+        <v>17.417488348382953</v>
       </c>
     </row>
     <row r="193" spans="11:12">
@@ -2588,7 +2591,7 @@
         <v>191</v>
       </c>
       <c r="L193">
-        <v>17.153439429323285</v>
+        <v>13.155144116761477</v>
       </c>
     </row>
     <row r="194" spans="11:12">
@@ -2596,7 +2599,7 @@
         <v>192</v>
       </c>
       <c r="L194">
-        <v>11.949705914724706</v>
+        <v>14.391702239965582</v>
       </c>
     </row>
     <row r="195" spans="11:12">
@@ -2604,7 +2607,7 @@
         <v>193</v>
       </c>
       <c r="L195">
-        <v>15.146728011395791</v>
+        <v>14.269301616891752</v>
       </c>
     </row>
     <row r="196" spans="11:12">
@@ -2612,7 +2615,7 @@
         <v>194</v>
       </c>
       <c r="L196">
-        <v>16.00018417330336</v>
+        <v>13.957325368538118</v>
       </c>
     </row>
     <row r="197" spans="11:12">
@@ -2620,7 +2623,7 @@
         <v>195</v>
       </c>
       <c r="L197">
-        <v>11.14470391117985</v>
+        <v>12.69314195447668</v>
       </c>
     </row>
     <row r="198" spans="11:12">
@@ -2628,7 +2631,7 @@
         <v>196</v>
       </c>
       <c r="L198">
-        <v>12.502583242019906</v>
+        <v>14.54975968439993</v>
       </c>
     </row>
     <row r="199" spans="11:12">
@@ -2636,7 +2639,7 @@
         <v>197</v>
       </c>
       <c r="L199">
-        <v>13.272535643653072</v>
+        <v>16.414269665670965</v>
       </c>
     </row>
     <row r="200" spans="11:12">
@@ -2644,7 +2647,7 @@
         <v>198</v>
       </c>
       <c r="L200">
-        <v>15.619181197231017</v>
+        <v>14.672536636652932</v>
       </c>
     </row>
     <row r="201" spans="11:12">
@@ -2652,7 +2655,7 @@
         <v>199</v>
       </c>
       <c r="L201">
-        <v>16.571980730124693</v>
+        <v>13.844590901303704</v>
       </c>
     </row>
     <row r="202" spans="11:12">
@@ -2660,7 +2663,7 @@
         <v>200</v>
       </c>
       <c r="L202">
-        <v>17.144230896595726</v>
+        <v>9.9818906696986254</v>
       </c>
     </row>
     <row r="203" spans="11:12">
@@ -2668,7 +2671,7 @@
         <v>201</v>
       </c>
       <c r="L203">
-        <v>12.652371522060584</v>
+        <v>13.806322556554505</v>
       </c>
     </row>
     <row r="204" spans="11:12">
@@ -2676,7 +2679,7 @@
         <v>202</v>
       </c>
       <c r="L204">
-        <v>12.387285733034542</v>
+        <v>10.725744760306885</v>
       </c>
     </row>
     <row r="205" spans="11:12">
@@ -2684,7 +2687,7 @@
         <v>203</v>
       </c>
       <c r="L205">
-        <v>16.15769078292125</v>
+        <v>12.991606198662334</v>
       </c>
     </row>
     <row r="206" spans="11:12">
@@ -2692,7 +2695,7 @@
         <v>204</v>
       </c>
       <c r="L206">
-        <v>16.043172348472282</v>
+        <v>16.19556949122531</v>
       </c>
     </row>
     <row r="207" spans="11:12">
@@ -2700,7 +2703,7 @@
         <v>205</v>
       </c>
       <c r="L207">
-        <v>12.10045945059678</v>
+        <v>13.319685543028978</v>
       </c>
     </row>
     <row r="208" spans="11:12">
@@ -2708,7 +2711,7 @@
         <v>206</v>
       </c>
       <c r="L208">
-        <v>10.590724401722806</v>
+        <v>12.020110565425433</v>
       </c>
     </row>
     <row r="209" spans="11:12">
@@ -2716,7 +2719,7 @@
         <v>207</v>
       </c>
       <c r="L209">
-        <v>16.121790967704346</v>
+        <v>13.508653477814159</v>
       </c>
     </row>
     <row r="210" spans="11:12">
@@ -2724,7 +2727,7 @@
         <v>208</v>
       </c>
       <c r="L210">
-        <v>16.172059670247613</v>
+        <v>16.774122902491651</v>
       </c>
     </row>
     <row r="211" spans="11:12">
@@ -2732,7 +2735,7 @@
         <v>209</v>
       </c>
       <c r="L211">
-        <v>10.539982618402242</v>
+        <v>15.06092835004568</v>
       </c>
     </row>
     <row r="212" spans="11:12">
@@ -2740,7 +2743,7 @@
         <v>210</v>
       </c>
       <c r="L212">
-        <v>16.539437294429987</v>
+        <v>16.019111226558586</v>
       </c>
     </row>
     <row r="213" spans="11:12">
@@ -2748,7 +2751,7 @@
         <v>211</v>
       </c>
       <c r="L213">
-        <v>14.382726983209222</v>
+        <v>13.438923374366411</v>
       </c>
     </row>
     <row r="214" spans="11:12">
@@ -2756,7 +2759,7 @@
         <v>212</v>
       </c>
       <c r="L214">
-        <v>16.448671787958443</v>
+        <v>15.137104755874551</v>
       </c>
     </row>
     <row r="215" spans="11:12">
@@ -2764,7 +2767,7 @@
         <v>213</v>
       </c>
       <c r="L215">
-        <v>14.924327957290711</v>
+        <v>13.300335886229636</v>
       </c>
     </row>
     <row r="216" spans="11:12">
@@ -2772,7 +2775,7 @@
         <v>214</v>
       </c>
       <c r="L216">
-        <v>14.336596651103264</v>
+        <v>14.106303672355502</v>
       </c>
     </row>
     <row r="217" spans="11:12">
@@ -2780,7 +2783,7 @@
         <v>215</v>
       </c>
       <c r="L217">
-        <v>17.63147631686644</v>
+        <v>15.14355650645992</v>
       </c>
     </row>
     <row r="218" spans="11:12">
@@ -2788,7 +2791,7 @@
         <v>216</v>
       </c>
       <c r="L218">
-        <v>10.694919979472893</v>
+        <v>11.932412029073443</v>
       </c>
     </row>
     <row r="219" spans="11:12">
@@ -2796,7 +2799,7 @@
         <v>217</v>
       </c>
       <c r="L219">
-        <v>10.435715730243908</v>
+        <v>17.471881021754715</v>
       </c>
     </row>
     <row r="220" spans="11:12">
@@ -2804,7 +2807,7 @@
         <v>218</v>
       </c>
       <c r="L220">
-        <v>16.940278672745571</v>
+        <v>15.15480395185827</v>
       </c>
     </row>
     <row r="221" spans="11:12">
@@ -2812,7 +2815,7 @@
         <v>219</v>
       </c>
       <c r="L221">
-        <v>14.532477407882663</v>
+        <v>10.983193723235273</v>
       </c>
     </row>
     <row r="222" spans="11:12">
@@ -2820,7 +2823,7 @@
         <v>220</v>
       </c>
       <c r="L222">
-        <v>16.850315668663153</v>
+        <v>15.761091858531103</v>
       </c>
     </row>
     <row r="223" spans="11:12">
@@ -2828,7 +2831,7 @@
         <v>221</v>
       </c>
       <c r="L223">
-        <v>17.46635337275686</v>
+        <v>12.81646010652428</v>
       </c>
     </row>
     <row r="224" spans="11:12">
@@ -2836,7 +2839,7 @@
         <v>222</v>
       </c>
       <c r="L224">
-        <v>17.931755980078371</v>
+        <v>15.370375166220326</v>
       </c>
     </row>
     <row r="225" spans="11:12">
@@ -2844,7 +2847,7 @@
         <v>223</v>
       </c>
       <c r="L225">
-        <v>16.751683820898478</v>
+        <v>13.059977345963892</v>
       </c>
     </row>
     <row r="226" spans="11:12">
@@ -2852,7 +2855,7 @@
         <v>224</v>
       </c>
       <c r="L226">
-        <v>12.311943566624926</v>
+        <v>11.6696090204181</v>
       </c>
     </row>
     <row r="227" spans="11:12">
@@ -2860,7 +2863,7 @@
         <v>225</v>
       </c>
       <c r="L227">
-        <v>14.835975275575418</v>
+        <v>17.946451901328196</v>
       </c>
     </row>
     <row r="228" spans="11:12">
@@ -2868,7 +2871,7 @@
         <v>226</v>
       </c>
       <c r="L228">
-        <v>16.771632035824801</v>
+        <v>14.057931350402441</v>
       </c>
     </row>
     <row r="229" spans="11:12">
@@ -2876,7 +2879,7 @@
         <v>227</v>
       </c>
       <c r="L229">
-        <v>16.588849911143939</v>
+        <v>14.431070471756595</v>
       </c>
     </row>
     <row r="230" spans="11:12">
@@ -2884,7 +2887,7 @@
         <v>228</v>
       </c>
       <c r="L230">
-        <v>15.363746654671566</v>
+        <v>12.01396153318333</v>
       </c>
     </row>
     <row r="231" spans="11:12">
@@ -2892,7 +2895,7 @@
         <v>229</v>
       </c>
       <c r="L231">
-        <v>12.756802833046724</v>
+        <v>17.242991121858875</v>
       </c>
     </row>
     <row r="232" spans="11:12">
@@ -2900,7 +2903,7 @@
         <v>230</v>
       </c>
       <c r="L232">
-        <v>14.932281046405834</v>
+        <v>12.461227361721075</v>
       </c>
     </row>
     <row r="233" spans="11:12">
@@ -2908,7 +2911,7 @@
         <v>231</v>
       </c>
       <c r="L233">
-        <v>12.047560809301253</v>
+        <v>11.825430614471326</v>
       </c>
     </row>
     <row r="234" spans="11:12">
@@ -2916,7 +2919,7 @@
         <v>232</v>
       </c>
       <c r="L234">
-        <v>17.674003602367932</v>
+        <v>9.4363881365233038</v>
       </c>
     </row>
     <row r="235" spans="11:12">
@@ -2924,7 +2927,7 @@
         <v>233</v>
       </c>
       <c r="L235">
-        <v>13.680708127360258</v>
+        <v>18.233524098128548</v>
       </c>
     </row>
     <row r="236" spans="11:12">
@@ -2932,7 +2935,7 @@
         <v>234</v>
       </c>
       <c r="L236">
-        <v>15.348482353412134</v>
+        <v>13.15445444960897</v>
       </c>
     </row>
     <row r="237" spans="11:12">
@@ -2940,7 +2943,7 @@
         <v>235</v>
       </c>
       <c r="L237">
-        <v>16.653422710523206</v>
+        <v>17.166768807592426</v>
       </c>
     </row>
     <row r="238" spans="11:12">
@@ -2948,7 +2951,7 @@
         <v>236</v>
       </c>
       <c r="L238">
-        <v>15.173868206967324</v>
+        <v>13.319695161586759</v>
       </c>
     </row>
     <row r="239" spans="11:12">
@@ -2956,7 +2959,7 @@
         <v>237</v>
       </c>
       <c r="L239">
-        <v>13.468091330067633</v>
+        <v>14.233155842042496</v>
       </c>
     </row>
     <row r="240" spans="11:12">
@@ -2964,7 +2967,7 @@
         <v>238</v>
       </c>
       <c r="L240">
-        <v>14.584057175517332</v>
+        <v>15.635174519081918</v>
       </c>
     </row>
     <row r="241" spans="11:12">
@@ -2972,7 +2975,7 @@
         <v>239</v>
       </c>
       <c r="L241">
-        <v>11.298075310816632</v>
+        <v>13.504480795377386</v>
       </c>
     </row>
     <row r="242" spans="11:12">
@@ -2980,7 +2983,7 @@
         <v>240</v>
       </c>
       <c r="L242">
-        <v>18.251075437864333</v>
+        <v>12.377496166650317</v>
       </c>
     </row>
     <row r="243" spans="11:12">
@@ -2988,7 +2991,7 @@
         <v>241</v>
       </c>
       <c r="L243">
-        <v>14.11990362615278</v>
+        <v>12.83751744798178</v>
       </c>
     </row>
     <row r="244" spans="11:12">
@@ -2996,7 +2999,7 @@
         <v>242</v>
       </c>
       <c r="L244">
-        <v>9.8578923199069983</v>
+        <v>14.596327422032317</v>
       </c>
     </row>
     <row r="245" spans="11:12">
@@ -3004,7 +3007,7 @@
         <v>243</v>
       </c>
       <c r="L245">
-        <v>12.504851020013861</v>
+        <v>15.710274515098927</v>
       </c>
     </row>
     <row r="246" spans="11:12">
@@ -3012,7 +3015,7 @@
         <v>244</v>
       </c>
       <c r="L246">
-        <v>13.60446419987589</v>
+        <v>14.789102262450704</v>
       </c>
     </row>
     <row r="247" spans="11:12">
@@ -3020,7 +3023,7 @@
         <v>245</v>
       </c>
       <c r="L247">
-        <v>15.537443956561196</v>
+        <v>15.652627398243959</v>
       </c>
     </row>
     <row r="248" spans="11:12">
@@ -3028,7 +3031,7 @@
         <v>246</v>
       </c>
       <c r="L248">
-        <v>16.452605126985397</v>
+        <v>14.528898850679045</v>
       </c>
     </row>
     <row r="249" spans="11:12">
@@ -3036,7 +3039,7 @@
         <v>247</v>
       </c>
       <c r="L249">
-        <v>12.734970004906987</v>
+        <v>16.366854150554953</v>
       </c>
     </row>
     <row r="250" spans="11:12">
@@ -3044,7 +3047,7 @@
         <v>248</v>
       </c>
       <c r="L250">
-        <v>10.967081287938607</v>
+        <v>13.245066634036171</v>
       </c>
     </row>
     <row r="251" spans="11:12">
@@ -3052,7 +3055,7 @@
         <v>249</v>
       </c>
       <c r="L251">
-        <v>15.702219328610379</v>
+        <v>14.370794575067617</v>
       </c>
     </row>
     <row r="252" spans="11:12">
@@ -3060,7 +3063,7 @@
         <v>250</v>
       </c>
       <c r="L252">
-        <v>10.666685059252069</v>
+        <v>15.9688057152471</v>
       </c>
     </row>
     <row r="253" spans="11:12">
@@ -3068,7 +3071,7 @@
         <v>251</v>
       </c>
       <c r="L253">
-        <v>9.180797638270338</v>
+        <v>13.980835708864065</v>
       </c>
     </row>
     <row r="254" spans="11:12">
@@ -3076,7 +3079,7 @@
         <v>252</v>
       </c>
       <c r="L254">
-        <v>12.793085891368149</v>
+        <v>12.575314006309098</v>
       </c>
     </row>
     <row r="255" spans="11:12">
@@ -3084,7 +3087,7 @@
         <v>253</v>
       </c>
       <c r="L255">
-        <v>18.038475518493513</v>
+        <v>17.69831838042824</v>
       </c>
     </row>
     <row r="256" spans="11:12">
@@ -3092,7 +3095,7 @@
         <v>254</v>
       </c>
       <c r="L256">
-        <v>14.203905104442494</v>
+        <v>14.877464182537352</v>
       </c>
     </row>
     <row r="257" spans="11:12">
@@ -3100,7 +3103,7 @@
         <v>255</v>
       </c>
       <c r="L257">
-        <v>14.463768122845444</v>
+        <v>14.204996070214335</v>
       </c>
     </row>
     <row r="258" spans="11:12">
@@ -3108,7 +3111,7 @@
         <v>256</v>
       </c>
       <c r="L258">
-        <v>12.381747298307403</v>
+        <v>14.107985968353212</v>
       </c>
     </row>
     <row r="259" spans="11:12">
@@ -3116,7 +3119,7 @@
         <v>257</v>
       </c>
       <c r="L259">
-        <v>16.831896338422609</v>
+        <v>13.164320958567124</v>
       </c>
     </row>
     <row r="260" spans="11:12">
@@ -3124,7 +3127,7 @@
         <v>258</v>
       </c>
       <c r="L260">
-        <v>13.919217295332869</v>
+        <v>12.346530682169496</v>
       </c>
     </row>
     <row r="261" spans="11:12">
@@ -3132,7 +3135,7 @@
         <v>259</v>
       </c>
       <c r="L261">
-        <v>15.754390251436611</v>
+        <v>11.692989782858042</v>
       </c>
     </row>
     <row r="262" spans="11:12">
@@ -3140,7 +3143,7 @@
         <v>260</v>
       </c>
       <c r="L262">
-        <v>15.603819284797503</v>
+        <v>18.630128847175499</v>
       </c>
     </row>
     <row r="263" spans="11:12">
@@ -3148,7 +3151,7 @@
         <v>261</v>
       </c>
       <c r="L263">
-        <v>9.1597965830938008</v>
+        <v>15.428973525502332</v>
       </c>
     </row>
     <row r="264" spans="11:12">
@@ -3156,7 +3159,7 @@
         <v>262</v>
       </c>
       <c r="L264">
-        <v>15.06263424521438</v>
+        <v>16.482991954193334</v>
       </c>
     </row>
     <row r="265" spans="11:12">
@@ -3164,7 +3167,7 @@
         <v>263</v>
       </c>
       <c r="L265">
-        <v>14.183187696267245</v>
+        <v>11.377735594566662</v>
       </c>
     </row>
     <row r="266" spans="11:12">
@@ -3172,7 +3175,7 @@
         <v>264</v>
       </c>
       <c r="L266">
-        <v>14.417644811931298</v>
+        <v>16.272749830145386</v>
       </c>
     </row>
     <row r="267" spans="11:12">
@@ -3180,7 +3183,7 @@
         <v>265</v>
       </c>
       <c r="L267">
-        <v>14.187250442957318</v>
+        <v>12.309510576128783</v>
       </c>
     </row>
     <row r="268" spans="11:12">
@@ -3188,7 +3191,7 @@
         <v>266</v>
       </c>
       <c r="L268">
-        <v>13.487445344408734</v>
+        <v>17.856759263943324</v>
       </c>
     </row>
     <row r="269" spans="11:12">
@@ -3196,7 +3199,7 @@
         <v>267</v>
       </c>
       <c r="L269">
-        <v>13.711050938376122</v>
+        <v>12.047869410182031</v>
       </c>
     </row>
     <row r="270" spans="11:12">
@@ -3204,7 +3207,7 @@
         <v>268</v>
       </c>
       <c r="L270">
-        <v>16.039707420002117</v>
+        <v>9.4756553910966996</v>
       </c>
     </row>
     <row r="271" spans="11:12">
@@ -3212,7 +3215,7 @@
         <v>269</v>
       </c>
       <c r="L271">
-        <v>12.517371290360948</v>
+        <v>18.484698295789126</v>
       </c>
     </row>
     <row r="272" spans="11:12">
@@ -3220,7 +3223,7 @@
         <v>270</v>
       </c>
       <c r="L272">
-        <v>13.531918835426733</v>
+        <v>14.069225939664607</v>
       </c>
     </row>
     <row r="273" spans="11:12">
@@ -3228,7 +3231,7 @@
         <v>271</v>
       </c>
       <c r="L273">
-        <v>12.650947517256984</v>
+        <v>18.122697212943152</v>
       </c>
     </row>
     <row r="274" spans="11:12">
@@ -3236,7 +3239,7 @@
         <v>272</v>
       </c>
       <c r="L274">
-        <v>15.419310745295828</v>
+        <v>12.392921397733812</v>
       </c>
     </row>
     <row r="275" spans="11:12">
@@ -3244,7 +3247,7 @@
         <v>273</v>
       </c>
       <c r="L275">
-        <v>11.410049952331565</v>
+        <v>12.578619731314681</v>
       </c>
     </row>
     <row r="276" spans="11:12">
@@ -3252,7 +3255,7 @@
         <v>274</v>
       </c>
       <c r="L276">
-        <v>11.546107724986275</v>
+        <v>15.691459051307548</v>
       </c>
     </row>
     <row r="277" spans="11:12">
@@ -3260,7 +3263,7 @@
         <v>275</v>
       </c>
       <c r="L277">
-        <v>16.15924861294511</v>
+        <v>14.065147486846701</v>
       </c>
     </row>
     <row r="278" spans="11:12">
@@ -3268,7 +3271,7 @@
         <v>276</v>
       </c>
       <c r="L278">
-        <v>14.030106567498102</v>
+        <v>16.938165211315923</v>
       </c>
     </row>
     <row r="279" spans="11:12">
@@ -3276,7 +3279,7 @@
         <v>277</v>
       </c>
       <c r="L279">
-        <v>17.574159968881656</v>
+        <v>15.17419216302458</v>
       </c>
     </row>
     <row r="280" spans="11:12">
@@ -3284,7 +3287,7 @@
         <v>278</v>
       </c>
       <c r="L280">
-        <v>15.126354100826703</v>
+        <v>16.210808000136538</v>
       </c>
     </row>
     <row r="281" spans="11:12">
@@ -3292,7 +3295,7 @@
         <v>279</v>
       </c>
       <c r="L281">
-        <v>19.031699267872888</v>
+        <v>17.526427130903141</v>
       </c>
     </row>
     <row r="282" spans="11:12">
@@ -3300,7 +3303,7 @@
         <v>280</v>
       </c>
       <c r="L282">
-        <v>16.281056498925039</v>
+        <v>13.92591738942858</v>
       </c>
     </row>
     <row r="283" spans="11:12">
@@ -3308,7 +3311,7 @@
         <v>281</v>
       </c>
       <c r="L283">
-        <v>12.830629030186842</v>
+        <v>18.018918934293016</v>
       </c>
     </row>
     <row r="284" spans="11:12">
@@ -3316,7 +3319,7 @@
         <v>282</v>
       </c>
       <c r="L284">
-        <v>10.638618572780121</v>
+        <v>14.59610804402949</v>
       </c>
     </row>
     <row r="285" spans="11:12">
@@ -3324,7 +3327,7 @@
         <v>283</v>
       </c>
       <c r="L285">
-        <v>13.641946092413747</v>
+        <v>12.701346444570611</v>
       </c>
     </row>
     <row r="286" spans="11:12">
@@ -3332,7 +3335,7 @@
         <v>284</v>
       </c>
       <c r="L286">
-        <v>16.241776354300868</v>
+        <v>18.038542548259997</v>
       </c>
     </row>
     <row r="287" spans="11:12">
@@ -3340,7 +3343,7 @@
         <v>285</v>
       </c>
       <c r="L287">
-        <v>15.414530996358494</v>
+        <v>14.403485607242025</v>
       </c>
     </row>
     <row r="288" spans="11:12">
@@ -3348,7 +3351,7 @@
         <v>286</v>
       </c>
       <c r="L288">
-        <v>12.093308927059766</v>
+        <v>14.995665630113225</v>
       </c>
     </row>
     <row r="289" spans="11:12">
@@ -3356,7 +3359,7 @@
         <v>287</v>
       </c>
       <c r="L289">
-        <v>12.819521600323625</v>
+        <v>15.324303217127031</v>
       </c>
     </row>
     <row r="290" spans="11:12">
@@ -3364,7 +3367,7 @@
         <v>288</v>
       </c>
       <c r="L290">
-        <v>9.9599268799524321</v>
+        <v>15.254696371931519</v>
       </c>
     </row>
     <row r="291" spans="11:12">
@@ -3372,7 +3375,7 @@
         <v>289</v>
       </c>
       <c r="L291">
-        <v>16.395294846944701</v>
+        <v>10.950533667444846</v>
       </c>
     </row>
     <row r="292" spans="11:12">
@@ -3380,7 +3383,7 @@
         <v>290</v>
       </c>
       <c r="L292">
-        <v>19.567849846273067</v>
+        <v>13.738576184263549</v>
       </c>
     </row>
     <row r="293" spans="11:12">
@@ -3388,7 +3391,7 @@
         <v>291</v>
       </c>
       <c r="L293">
-        <v>13.155875430822139</v>
+        <v>13.020425683517743</v>
       </c>
     </row>
     <row r="294" spans="11:12">
@@ -3396,7 +3399,7 @@
         <v>292</v>
       </c>
       <c r="L294">
-        <v>16.958163215123374</v>
+        <v>14.837517263645104</v>
       </c>
     </row>
     <row r="295" spans="11:12">
@@ -3404,7 +3407,7 @@
         <v>293</v>
       </c>
       <c r="L295">
-        <v>13.976463739247107</v>
+        <v>13.148425251702244</v>
       </c>
     </row>
     <row r="296" spans="11:12">
@@ -3412,7 +3415,7 @@
         <v>294</v>
       </c>
       <c r="L296">
-        <v>18.064209275455102</v>
+        <v>14.614691087957993</v>
       </c>
     </row>
     <row r="297" spans="11:12">
@@ -3420,7 +3423,7 @@
         <v>295</v>
       </c>
       <c r="L297">
-        <v>17.768460255037446</v>
+        <v>15.434485173750272</v>
       </c>
     </row>
     <row r="298" spans="11:12">
@@ -3428,7 +3431,7 @@
         <v>296</v>
       </c>
       <c r="L298">
-        <v>12.665772457011249</v>
+        <v>14.047960624143176</v>
       </c>
     </row>
     <row r="299" spans="11:12">
@@ -3436,7 +3439,7 @@
         <v>297</v>
       </c>
       <c r="L299">
-        <v>10.747748170377129</v>
+        <v>10.851001844801866</v>
       </c>
     </row>
     <row r="300" spans="11:12">
@@ -3444,7 +3447,7 @@
         <v>298</v>
       </c>
       <c r="L300">
-        <v>16.513588985406198</v>
+        <v>13.835230589741965</v>
       </c>
     </row>
     <row r="301" spans="11:12">
@@ -3452,7 +3455,7 @@
         <v>299</v>
       </c>
       <c r="L301">
-        <v>12.35839846617035</v>
+        <v>16.336798167558971</v>
       </c>
     </row>
     <row r="302" spans="11:12">
@@ -3460,7 +3463,7 @@
         <v>300</v>
       </c>
       <c r="L302">
-        <v>17.881426354460093</v>
+        <v>13.435347436391968</v>
       </c>
     </row>
     <row r="303" spans="11:12">
@@ -3468,7 +3471,7 @@
         <v>301</v>
       </c>
       <c r="L303">
-        <v>14.312286175890545</v>
+        <v>14.550269457088934</v>
       </c>
     </row>
     <row r="304" spans="11:12">
@@ -3476,7 +3479,7 @@
         <v>302</v>
       </c>
       <c r="L304">
-        <v>16.551359844271545</v>
+        <v>15.336356898252941</v>
       </c>
     </row>
     <row r="305" spans="11:12">
@@ -3484,7 +3487,7 @@
         <v>303</v>
       </c>
       <c r="L305">
-        <v>13.30572709381879</v>
+        <v>15.009952699927183</v>
       </c>
     </row>
     <row r="306" spans="11:12">
@@ -3492,7 +3495,7 @@
         <v>304</v>
       </c>
       <c r="L306">
-        <v>16.067043183446319</v>
+        <v>11.798007206125018</v>
       </c>
     </row>
     <row r="307" spans="11:12">
@@ -3500,7 +3503,7 @@
         <v>305</v>
       </c>
       <c r="L307">
-        <v>16.79050322338756</v>
+        <v>17.269161499521701</v>
       </c>
     </row>
     <row r="308" spans="11:12">
@@ -3508,7 +3511,7 @@
         <v>306</v>
       </c>
       <c r="L308">
-        <v>13.091298472249427</v>
+        <v>12.437740979014286</v>
       </c>
     </row>
     <row r="309" spans="11:12">
@@ -3516,7 +3519,7 @@
         <v>307</v>
       </c>
       <c r="L309">
-        <v>11.628812455185251</v>
+        <v>14.535112240468465</v>
       </c>
     </row>
     <row r="310" spans="11:12">
@@ -3524,7 +3527,7 @@
         <v>308</v>
       </c>
       <c r="L310">
-        <v>15.670956973041058</v>
+        <v>14.2341277155824</v>
       </c>
     </row>
     <row r="311" spans="11:12">
@@ -3532,7 +3535,7 @@
         <v>309</v>
       </c>
       <c r="L311">
-        <v>12.99110675157443</v>
+        <v>14.722782583823275</v>
       </c>
     </row>
     <row r="312" spans="11:12">
@@ -3540,7 +3543,7 @@
         <v>310</v>
       </c>
       <c r="L312">
-        <v>13.37800552740956</v>
+        <v>17.033452906595553</v>
       </c>
     </row>
     <row r="313" spans="11:12">
@@ -3548,7 +3551,7 @@
         <v>311</v>
       </c>
       <c r="L313">
-        <v>16.377399644495021</v>
+        <v>15.01827444619687</v>
       </c>
     </row>
     <row r="314" spans="11:12">
@@ -3556,7 +3559,7 @@
         <v>312</v>
       </c>
       <c r="L314">
-        <v>14.780209634505182</v>
+        <v>16.589828852006256</v>
       </c>
     </row>
     <row r="315" spans="11:12">
@@ -3564,7 +3567,7 @@
         <v>313</v>
       </c>
       <c r="L315">
-        <v>18.605872658247335</v>
+        <v>17.044531781808061</v>
       </c>
     </row>
     <row r="316" spans="11:12">
@@ -3572,7 +3575,7 @@
         <v>314</v>
       </c>
       <c r="L316">
-        <v>13.558167801806476</v>
+        <v>15.345711380249686</v>
       </c>
     </row>
     <row r="317" spans="11:12">
@@ -3580,7 +3583,7 @@
         <v>315</v>
       </c>
       <c r="L317">
-        <v>15.350008077796193</v>
+        <v>16.060887437379918</v>
       </c>
     </row>
     <row r="318" spans="11:12">
@@ -3588,7 +3591,7 @@
         <v>316</v>
       </c>
       <c r="L318">
-        <v>13.405071658040882</v>
+        <v>12.742896196099721</v>
       </c>
     </row>
     <row r="319" spans="11:12">
@@ -3596,7 +3599,7 @@
         <v>317</v>
       </c>
       <c r="L319">
-        <v>12.629261750258976</v>
+        <v>15.399209830773016</v>
       </c>
     </row>
     <row r="320" spans="11:12">
@@ -3604,7 +3607,7 @@
         <v>318</v>
       </c>
       <c r="L320">
-        <v>14.648461900063669</v>
+        <v>12.850683767734656</v>
       </c>
     </row>
     <row r="321" spans="11:12">
@@ -3612,7 +3615,7 @@
         <v>319</v>
       </c>
       <c r="L321">
-        <v>12.79425772992764</v>
+        <v>16.568116578911599</v>
       </c>
     </row>
     <row r="322" spans="11:12">
@@ -3620,7 +3623,7 @@
         <v>320</v>
       </c>
       <c r="L322">
-        <v>11.430648503886127</v>
+        <v>13.832328458626161</v>
       </c>
     </row>
     <row r="323" spans="11:12">
@@ -3628,7 +3631,7 @@
         <v>321</v>
       </c>
       <c r="L323">
-        <v>10.320451595476559</v>
+        <v>16.521303104303026</v>
       </c>
     </row>
     <row r="324" spans="11:12">
@@ -3636,7 +3639,7 @@
         <v>322</v>
       </c>
       <c r="L324">
-        <v>14.82761815025872</v>
+        <v>15.599623404937834</v>
       </c>
     </row>
     <row r="325" spans="11:12">
@@ -3644,7 +3647,7 @@
         <v>323</v>
       </c>
       <c r="L325">
-        <v>14.851241285868229</v>
+        <v>14.14814119171009</v>
       </c>
     </row>
     <row r="326" spans="11:12">
@@ -3652,7 +3655,7 @@
         <v>324</v>
       </c>
       <c r="L326">
-        <v>13.599053374920508</v>
+        <v>15.047836531475854</v>
       </c>
     </row>
     <row r="327" spans="11:12">
@@ -3660,7 +3663,7 @@
         <v>325</v>
       </c>
       <c r="L327">
-        <v>13.46758858470375</v>
+        <v>13.559017893531784</v>
       </c>
     </row>
     <row r="328" spans="11:12">
@@ -3668,7 +3671,7 @@
         <v>326</v>
       </c>
       <c r="L328">
-        <v>14.326088419976525</v>
+        <v>9.9269249105131898</v>
       </c>
     </row>
     <row r="329" spans="11:12">
@@ -3676,7 +3679,7 @@
         <v>327</v>
       </c>
       <c r="L329">
-        <v>12.19234423350308</v>
+        <v>13.225115593523867</v>
       </c>
     </row>
     <row r="330" spans="11:12">
@@ -3684,7 +3687,7 @@
         <v>328</v>
       </c>
       <c r="L330">
-        <v>17.549858267873752</v>
+        <v>12.495477978377755</v>
       </c>
     </row>
     <row r="331" spans="11:12">
@@ -3692,7 +3695,7 @@
         <v>329</v>
       </c>
       <c r="L331">
-        <v>15.481063790061386</v>
+        <v>14.149812179177225</v>
       </c>
     </row>
     <row r="332" spans="11:12">
@@ -3700,7 +3703,7 @@
         <v>330</v>
       </c>
       <c r="L332">
-        <v>11.122244655008299</v>
+        <v>17.421123226953661</v>
       </c>
     </row>
     <row r="333" spans="11:12">
@@ -3708,7 +3711,7 @@
         <v>331</v>
       </c>
       <c r="L333">
-        <v>16.681921733905057</v>
+        <v>15.474674962966571</v>
       </c>
     </row>
     <row r="334" spans="11:12">
@@ -3716,7 +3719,7 @@
         <v>332</v>
       </c>
       <c r="L334">
-        <v>16.446837347348385</v>
+        <v>16.573046655118308</v>
       </c>
     </row>
     <row r="335" spans="11:12">
@@ -3724,7 +3727,7 @@
         <v>333</v>
       </c>
       <c r="L335">
-        <v>15.46809460016684</v>
+        <v>18.288070406722895</v>
       </c>
     </row>
     <row r="336" spans="11:12">
@@ -3732,7 +3735,7 @@
         <v>334</v>
       </c>
       <c r="L336">
-        <v>16.037895756263204</v>
+        <v>12.386140056857064</v>
       </c>
     </row>
     <row r="337" spans="11:12">
@@ -3740,7 +3743,7 @@
         <v>335</v>
       </c>
       <c r="L337">
-        <v>13.021727360135008</v>
+        <v>15.354325354364182</v>
       </c>
     </row>
     <row r="338" spans="11:12">
@@ -3748,7 +3751,7 @@
         <v>336</v>
       </c>
       <c r="L338">
-        <v>18.808803083197198</v>
+        <v>13.604025763506812</v>
       </c>
     </row>
     <row r="339" spans="11:12">
@@ -3756,7 +3759,7 @@
         <v>337</v>
       </c>
       <c r="L339">
-        <v>14.889136611362268</v>
+        <v>17.111161665234356</v>
       </c>
     </row>
     <row r="340" spans="11:12">
@@ -3764,7 +3767,7 @@
         <v>338</v>
       </c>
       <c r="L340">
-        <v>13.696495728588268</v>
+        <v>14.912427058133311</v>
       </c>
     </row>
     <row r="341" spans="11:12">
@@ -3772,7 +3775,7 @@
         <v>339</v>
       </c>
       <c r="L341">
-        <v>13.170749956520936</v>
+        <v>16.737824069798311</v>
       </c>
     </row>
     <row r="342" spans="11:12">
@@ -3780,7 +3783,7 @@
         <v>340</v>
       </c>
       <c r="L342">
-        <v>16.847503710596207</v>
+        <v>15.627967543598189</v>
       </c>
     </row>
     <row r="343" spans="11:12">
@@ -3788,7 +3791,7 @@
         <v>341</v>
       </c>
       <c r="L343">
-        <v>17.559656718747178</v>
+        <v>14.881912969656362</v>
       </c>
     </row>
     <row r="344" spans="11:12">
@@ -3796,7 +3799,7 @@
         <v>342</v>
       </c>
       <c r="L344">
-        <v>14.288950859729699</v>
+        <v>12.540530832539861</v>
       </c>
     </row>
     <row r="345" spans="11:12">
@@ -3804,7 +3807,7 @@
         <v>343</v>
       </c>
       <c r="L345">
-        <v>11.881691298923199</v>
+        <v>14.621118728495293</v>
       </c>
     </row>
     <row r="346" spans="11:12">
@@ -3812,7 +3815,7 @@
         <v>344</v>
       </c>
       <c r="L346">
-        <v>16.849158684697557</v>
+        <v>13.097718535936691</v>
       </c>
     </row>
     <row r="347" spans="11:12">
@@ -3820,7 +3823,7 @@
         <v>345</v>
       </c>
       <c r="L347">
-        <v>14.717357369382707</v>
+        <v>14.16957285879392</v>
       </c>
     </row>
     <row r="348" spans="11:12">
@@ -3828,7 +3831,7 @@
         <v>346</v>
       </c>
       <c r="L348">
-        <v>14.6176763062905</v>
+        <v>12.891478920406794</v>
       </c>
     </row>
     <row r="349" spans="11:12">
@@ -3836,7 +3839,7 @@
         <v>347</v>
       </c>
       <c r="L349">
-        <v>16.798165023445435</v>
+        <v>17.400144339679215</v>
       </c>
     </row>
     <row r="350" spans="11:12">
@@ -3844,7 +3847,7 @@
         <v>348</v>
       </c>
       <c r="L350">
-        <v>13.843353210389346</v>
+        <v>10.367050058463256</v>
       </c>
     </row>
     <row r="351" spans="11:12">
@@ -3852,7 +3855,7 @@
         <v>349</v>
       </c>
       <c r="L351">
-        <v>17.261055176367023</v>
+        <v>14.720461513799876</v>
       </c>
     </row>
     <row r="352" spans="11:12">
@@ -3860,7 +3863,7 @@
         <v>350</v>
       </c>
       <c r="L352">
-        <v>15.511975387987853</v>
+        <v>11.806850692703186</v>
       </c>
     </row>
     <row r="353" spans="11:12">
@@ -3868,7 +3871,7 @@
         <v>351</v>
       </c>
       <c r="L353">
-        <v>12.809208349014758</v>
+        <v>16.665561254521574</v>
       </c>
     </row>
     <row r="354" spans="11:12">
@@ -3876,7 +3879,7 @@
         <v>352</v>
       </c>
       <c r="L354">
-        <v>16.164628575658703</v>
+        <v>13.834328261254429</v>
       </c>
     </row>
     <row r="355" spans="11:12">
@@ -3884,7 +3887,7 @@
         <v>353</v>
       </c>
       <c r="L355">
-        <v>11.848239139480093</v>
+        <v>12.241861700750345</v>
       </c>
     </row>
     <row r="356" spans="11:12">
@@ -3892,7 +3895,7 @@
         <v>354</v>
       </c>
       <c r="L356">
-        <v>16.478296398106806</v>
+        <v>17.591835211676454</v>
       </c>
     </row>
     <row r="357" spans="11:12">
@@ -3900,7 +3903,7 @@
         <v>355</v>
       </c>
       <c r="L357">
-        <v>17.896331481557748</v>
+        <v>13.918925809356249</v>
       </c>
     </row>
     <row r="358" spans="11:12">
@@ -3908,7 +3911,7 @@
         <v>356</v>
       </c>
       <c r="L358">
-        <v>11.166828459743741</v>
+        <v>10.814876517749793</v>
       </c>
     </row>
     <row r="359" spans="11:12">
@@ -3916,7 +3919,7 @@
         <v>357</v>
       </c>
       <c r="L359">
-        <v>9.7422771158157566</v>
+        <v>11.561832062009417</v>
       </c>
     </row>
     <row r="360" spans="11:12">
@@ -3924,7 +3927,7 @@
         <v>358</v>
       </c>
       <c r="L360">
-        <v>10.757606054285418</v>
+        <v>10.252589733423529</v>
       </c>
     </row>
     <row r="361" spans="11:12">
@@ -3932,7 +3935,7 @@
         <v>359</v>
       </c>
       <c r="L361">
-        <v>10.263691564109878</v>
+        <v>14.951648340933243</v>
       </c>
     </row>
     <row r="362" spans="11:12">
@@ -3940,7 +3943,7 @@
         <v>360</v>
       </c>
       <c r="L362">
-        <v>16.76182130049164</v>
+        <v>15.428199198322162</v>
       </c>
     </row>
     <row r="363" spans="11:12">
@@ -3948,7 +3951,7 @@
         <v>361</v>
       </c>
       <c r="L363">
-        <v>14.999934471502993</v>
+        <v>14.132903894118453</v>
       </c>
     </row>
     <row r="364" spans="11:12">
@@ -3956,7 +3959,7 @@
         <v>362</v>
       </c>
       <c r="L364">
-        <v>12.686854132409525</v>
+        <v>11.8986201625398</v>
       </c>
     </row>
     <row r="365" spans="11:12">
@@ -3964,7 +3967,7 @@
         <v>363</v>
       </c>
       <c r="L365">
-        <v>15.373851501990938</v>
+        <v>9.7225637881814286</v>
       </c>
     </row>
     <row r="366" spans="11:12">
@@ -3972,7 +3975,7 @@
         <v>364</v>
       </c>
       <c r="L366">
-        <v>15.053211817401053</v>
+        <v>11.561942277505088</v>
       </c>
     </row>
     <row r="367" spans="11:12">
@@ -3980,7 +3983,7 @@
         <v>365</v>
       </c>
       <c r="L367">
-        <v>13.970362799169814</v>
+        <v>16.167606186192458</v>
       </c>
     </row>
     <row r="368" spans="11:12">
@@ -3988,7 +3991,7 @@
         <v>366</v>
       </c>
       <c r="L368">
-        <v>13.960766082567961</v>
+        <v>14.191710992353389</v>
       </c>
     </row>
     <row r="369" spans="11:12">
@@ -3996,7 +3999,7 @@
         <v>367</v>
       </c>
       <c r="L369">
-        <v>13.778923014691649</v>
+        <v>14.727979087134564</v>
       </c>
     </row>
     <row r="370" spans="11:12">
@@ -4004,7 +4007,7 @@
         <v>368</v>
       </c>
       <c r="L370">
-        <v>11.783473859411075</v>
+        <v>16.453699546375596</v>
       </c>
     </row>
     <row r="371" spans="11:12">
@@ -4012,7 +4015,7 @@
         <v>369</v>
       </c>
       <c r="L371">
-        <v>12.636230585840913</v>
+        <v>11.184489754923266</v>
       </c>
     </row>
     <row r="372" spans="11:12">
@@ -4020,7 +4023,7 @@
         <v>370</v>
       </c>
       <c r="L372">
-        <v>15.01433586809077</v>
+        <v>15.323499478772765</v>
       </c>
     </row>
     <row r="373" spans="11:12">
@@ -4028,7 +4031,7 @@
         <v>371</v>
       </c>
       <c r="L373">
-        <v>15.242740521021648</v>
+        <v>14.219017284769064</v>
       </c>
     </row>
     <row r="374" spans="11:12">
@@ -4036,7 +4039,7 @@
         <v>372</v>
       </c>
       <c r="L374">
-        <v>13.297997043011783</v>
+        <v>15.038421934460796</v>
       </c>
     </row>
     <row r="375" spans="11:12">
@@ -4044,7 +4047,7 @@
         <v>373</v>
       </c>
       <c r="L375">
-        <v>11.750373410911038</v>
+        <v>14.311965115086769</v>
       </c>
     </row>
     <row r="376" spans="11:12">
@@ -4052,7 +4055,7 @@
         <v>374</v>
       </c>
       <c r="L376">
-        <v>16.809342694777886</v>
+        <v>16.163694736662642</v>
       </c>
     </row>
     <row r="377" spans="11:12">
@@ -4060,7 +4063,7 @@
         <v>375</v>
       </c>
       <c r="L377">
-        <v>13.202967739971337</v>
+        <v>15.441791100744695</v>
       </c>
     </row>
     <row r="378" spans="11:12">
@@ -4068,7 +4071,7 @@
         <v>376</v>
       </c>
       <c r="L378">
-        <v>16.659771171196091</v>
+        <v>16.247672562053786</v>
       </c>
     </row>
     <row r="379" spans="11:12">
@@ -4076,7 +4079,7 @@
         <v>377</v>
       </c>
       <c r="L379">
-        <v>17.831244793240998</v>
+        <v>13.829687458731978</v>
       </c>
     </row>
     <row r="380" spans="11:12">
@@ -4084,7 +4087,7 @@
         <v>378</v>
       </c>
       <c r="L380">
-        <v>13.846331054768637</v>
+        <v>10.666255924521982</v>
       </c>
     </row>
     <row r="381" spans="11:12">
@@ -4092,7 +4095,7 @@
         <v>379</v>
       </c>
       <c r="L381">
-        <v>14.196435174008677</v>
+        <v>13.682992678656376</v>
       </c>
     </row>
     <row r="382" spans="11:12">
@@ -4100,7 +4103,7 @@
         <v>380</v>
       </c>
       <c r="L382">
-        <v>17.537044078324339</v>
+        <v>14.080547957652175</v>
       </c>
     </row>
     <row r="383" spans="11:12">
@@ -4108,7 +4111,7 @@
         <v>381</v>
       </c>
       <c r="L383">
-        <v>11.747441474714771</v>
+        <v>15.627987989040607</v>
       </c>
     </row>
     <row r="384" spans="11:12">
@@ -4116,7 +4119,7 @@
         <v>382</v>
       </c>
       <c r="L384">
-        <v>12.348593082349769</v>
+        <v>15.48651615612202</v>
       </c>
     </row>
     <row r="385" spans="11:12">
@@ -4124,7 +4127,7 @@
         <v>383</v>
       </c>
       <c r="L385">
-        <v>19.009566178318053</v>
+        <v>13.727999992319059</v>
       </c>
     </row>
     <row r="386" spans="11:12">
@@ -4132,7 +4135,7 @@
         <v>384</v>
       </c>
       <c r="L386">
-        <v>15.902614752092695</v>
+        <v>16.872796625536687</v>
       </c>
     </row>
     <row r="387" spans="11:12">
@@ -4140,7 +4143,7 @@
         <v>385</v>
       </c>
       <c r="L387">
-        <v>12.572164255586291</v>
+        <v>16.897655846308613</v>
       </c>
     </row>
     <row r="388" spans="11:12">
@@ -4148,7 +4151,7 @@
         <v>386</v>
       </c>
       <c r="L388">
-        <v>14.282049929034535</v>
+        <v>12.501066018199714</v>
       </c>
     </row>
     <row r="389" spans="11:12">
@@ -4156,7 +4159,7 @@
         <v>387</v>
       </c>
       <c r="L389">
-        <v>12.900792527206438</v>
+        <v>14.532789562489434</v>
       </c>
     </row>
     <row r="390" spans="11:12">
@@ -4164,7 +4167,7 @@
         <v>388</v>
       </c>
       <c r="L390">
-        <v>17.553499499726925</v>
+        <v>14.458047811954772</v>
       </c>
     </row>
     <row r="391" spans="11:12">
@@ -4172,7 +4175,7 @@
         <v>389</v>
       </c>
       <c r="L391">
-        <v>14.433321375267713</v>
+        <v>14.88909733302027</v>
       </c>
     </row>
     <row r="392" spans="11:12">
@@ -4180,7 +4183,7 @@
         <v>390</v>
       </c>
       <c r="L392">
-        <v>14.712347139838519</v>
+        <v>9.4343923771702585</v>
       </c>
     </row>
     <row r="393" spans="11:12">
@@ -4188,7 +4191,7 @@
         <v>391</v>
       </c>
       <c r="L393">
-        <v>16.478863284996176</v>
+        <v>18.010552608602577</v>
       </c>
     </row>
     <row r="394" spans="11:12">
@@ -4196,7 +4199,7 @@
         <v>392</v>
       </c>
       <c r="L394">
-        <v>17.658079364757526</v>
+        <v>12.9133008164851</v>
       </c>
     </row>
     <row r="395" spans="11:12">
@@ -4204,7 +4207,7 @@
         <v>393</v>
       </c>
       <c r="L395">
-        <v>17.279001451553505</v>
+        <v>16.339213544260332</v>
       </c>
     </row>
     <row r="396" spans="11:12">
@@ -4212,7 +4215,7 @@
         <v>394</v>
       </c>
       <c r="L396">
-        <v>16.107689939288793</v>
+        <v>11.707205496794053</v>
       </c>
     </row>
     <row r="397" spans="11:12">
@@ -4220,7 +4223,7 @@
         <v>395</v>
       </c>
       <c r="L397">
-        <v>17.143175435571624</v>
+        <v>14.449185718588303</v>
       </c>
     </row>
     <row r="398" spans="11:12">
@@ -4228,7 +4231,7 @@
         <v>396</v>
       </c>
       <c r="L398">
-        <v>14.893619315486788</v>
+        <v>17.547596066683347</v>
       </c>
     </row>
     <row r="399" spans="11:12">
@@ -4236,7 +4239,7 @@
         <v>397</v>
       </c>
       <c r="L399">
-        <v>15.251011424998424</v>
+        <v>11.080180601236258</v>
       </c>
     </row>
     <row r="400" spans="11:12">
@@ -4244,7 +4247,7 @@
         <v>398</v>
       </c>
       <c r="L400">
-        <v>13.311181543880261</v>
+        <v>15.173517702318197</v>
       </c>
     </row>
     <row r="401" spans="11:12">
@@ -4252,7 +4255,7 @@
         <v>399</v>
       </c>
       <c r="L401">
-        <v>13.478163021245045</v>
+        <v>12.302163333894072</v>
       </c>
     </row>
     <row r="402" spans="11:12">
@@ -4260,7 +4263,7 @@
         <v>400</v>
       </c>
       <c r="L402">
-        <v>9.6384947917854689</v>
+        <v>15.395860530413433</v>
       </c>
     </row>
     <row r="403" spans="11:12">
@@ -4268,7 +4271,7 @@
         <v>401</v>
       </c>
       <c r="L403">
-        <v>9.1207179799989326</v>
+        <v>12.780373277750304</v>
       </c>
     </row>
     <row r="404" spans="11:12">
@@ -4276,7 +4279,7 @@
         <v>402</v>
       </c>
       <c r="L404">
-        <v>14.90865616908615</v>
+        <v>11.042340329524947</v>
       </c>
     </row>
     <row r="405" spans="11:12">
@@ -4284,7 +4287,7 @@
         <v>403</v>
       </c>
       <c r="L405">
-        <v>13.555821326497002</v>
+        <v>14.629850290022562</v>
       </c>
     </row>
     <row r="406" spans="11:12">
@@ -4292,7 +4295,7 @@
         <v>404</v>
       </c>
       <c r="L406">
-        <v>11.107171039399404</v>
+        <v>17.012142851940595</v>
       </c>
     </row>
     <row r="407" spans="11:12">
@@ -4300,7 +4303,7 @@
         <v>405</v>
       </c>
       <c r="L407">
-        <v>11.813632608686758</v>
+        <v>15.941103662800728</v>
       </c>
     </row>
     <row r="408" spans="11:12">
@@ -4308,7 +4311,7 @@
         <v>406</v>
       </c>
       <c r="L408">
-        <v>13.152688750641362</v>
+        <v>12.137243422079807</v>
       </c>
     </row>
     <row r="409" spans="11:12">
@@ -4316,7 +4319,7 @@
         <v>407</v>
       </c>
       <c r="L409">
-        <v>17.683982667938348</v>
+        <v>16.056864711919051</v>
       </c>
     </row>
     <row r="410" spans="11:12">
@@ -4324,7 +4327,7 @@
         <v>408</v>
       </c>
       <c r="L410">
-        <v>17.058575384844112</v>
+        <v>9.9697974182452498</v>
       </c>
     </row>
     <row r="411" spans="11:12">
@@ -4332,7 +4335,7 @@
         <v>409</v>
       </c>
       <c r="L411">
-        <v>10.861940434759175</v>
+        <v>16.123243719462312</v>
       </c>
     </row>
     <row r="412" spans="11:12">
@@ -4340,7 +4343,7 @@
         <v>410</v>
       </c>
       <c r="L412">
-        <v>18.180878026796357</v>
+        <v>14.950688097775583</v>
       </c>
     </row>
     <row r="413" spans="11:12">
@@ -4348,7 +4351,7 @@
         <v>411</v>
       </c>
       <c r="L413">
-        <v>13.794849400272637</v>
+        <v>17.953367213226734</v>
       </c>
     </row>
     <row r="414" spans="11:12">
@@ -4356,7 +4359,7 @@
         <v>412</v>
       </c>
       <c r="L414">
-        <v>11.840409446021216</v>
+        <v>14.261998021487814</v>
       </c>
     </row>
     <row r="415" spans="11:12">
@@ -4364,7 +4367,7 @@
         <v>413</v>
       </c>
       <c r="L415">
-        <v>13.455804434196217</v>
+        <v>13.909787816110772</v>
       </c>
     </row>
     <row r="416" spans="11:12">
@@ -4372,7 +4375,7 @@
         <v>414</v>
       </c>
       <c r="L416">
-        <v>15.777329439865554</v>
+        <v>14.26838071470485</v>
       </c>
     </row>
     <row r="417" spans="11:12">
@@ -4380,7 +4383,7 @@
         <v>415</v>
       </c>
       <c r="L417">
-        <v>12.339650436006966</v>
+        <v>14.578348071194208</v>
       </c>
     </row>
     <row r="418" spans="11:12">
@@ -4388,7 +4391,7 @@
         <v>416</v>
       </c>
       <c r="L418">
-        <v>10.517675932290931</v>
+        <v>16.673265585944335</v>
       </c>
     </row>
     <row r="419" spans="11:12">
@@ -4396,7 +4399,7 @@
         <v>417</v>
       </c>
       <c r="L419">
-        <v>14.523495379768175</v>
+        <v>13.067549118804063</v>
       </c>
     </row>
     <row r="420" spans="11:12">
@@ -4404,7 +4407,7 @@
         <v>418</v>
       </c>
       <c r="L420">
-        <v>13.733067295392665</v>
+        <v>13.746296507944367</v>
       </c>
     </row>
     <row r="421" spans="11:12">
@@ -4412,7 +4415,7 @@
         <v>419</v>
       </c>
       <c r="L421">
-        <v>15.641991067232338</v>
+        <v>13.32181741456351</v>
       </c>
     </row>
     <row r="422" spans="11:12">
@@ -4420,7 +4423,7 @@
         <v>420</v>
       </c>
       <c r="L422">
-        <v>18.63072785636718</v>
+        <v>15.592797525626708</v>
       </c>
     </row>
     <row r="423" spans="11:12">
@@ -4428,7 +4431,7 @@
         <v>421</v>
       </c>
       <c r="L423">
-        <v>11.882851017366935</v>
+        <v>12.247047527727572</v>
       </c>
     </row>
     <row r="424" spans="11:12">
@@ -4436,7 +4439,7 @@
         <v>422</v>
       </c>
       <c r="L424">
-        <v>14.564393044313125</v>
+        <v>14.419177390043233</v>
       </c>
     </row>
     <row r="425" spans="11:12">
@@ -4444,7 +4447,7 @@
         <v>423</v>
       </c>
       <c r="L425">
-        <v>15.878303525937469</v>
+        <v>17.62664746724862</v>
       </c>
     </row>
     <row r="426" spans="11:12">
@@ -4452,7 +4455,7 @@
         <v>424</v>
       </c>
       <c r="L426">
-        <v>13.085127002301128</v>
+        <v>10.117737509959817</v>
       </c>
     </row>
     <row r="427" spans="11:12">
@@ -4460,7 +4463,7 @@
         <v>425</v>
       </c>
       <c r="L427">
-        <v>11.740184731127799</v>
+        <v>12.723457260077071</v>
       </c>
     </row>
     <row r="428" spans="11:12">
@@ -4468,7 +4471,7 @@
         <v>426</v>
       </c>
       <c r="L428">
-        <v>13.192900287912806</v>
+        <v>18.587577621419044</v>
       </c>
     </row>
     <row r="429" spans="11:12">
@@ -4476,7 +4479,7 @@
         <v>427</v>
       </c>
       <c r="L429">
-        <v>13.024592470998847</v>
+        <v>13.696657318021316</v>
       </c>
     </row>
     <row r="430" spans="11:12">
@@ -4484,7 +4487,7 @@
         <v>428</v>
       </c>
       <c r="L430">
-        <v>12.710905259985827</v>
+        <v>16.195420920462059</v>
       </c>
     </row>
     <row r="431" spans="11:12">
@@ -4492,7 +4495,7 @@
         <v>429</v>
       </c>
       <c r="L431">
-        <v>15.487760887507157</v>
+        <v>19.562210501534501</v>
       </c>
     </row>
     <row r="432" spans="11:12">
@@ -4500,7 +4503,7 @@
         <v>430</v>
       </c>
       <c r="L432">
-        <v>17.49905334615077</v>
+        <v>18.146509579083904</v>
       </c>
     </row>
     <row r="433" spans="11:12">
@@ -4508,7 +4511,7 @@
         <v>431</v>
       </c>
       <c r="L433">
-        <v>15.414585226301956</v>
+        <v>14.210247508485882</v>
       </c>
     </row>
     <row r="434" spans="11:12">
@@ -4516,7 +4519,7 @@
         <v>432</v>
       </c>
       <c r="L434">
-        <v>13.358498832906097</v>
+        <v>14.814267246932605</v>
       </c>
     </row>
     <row r="435" spans="11:12">
@@ -4524,7 +4527,7 @@
         <v>433</v>
       </c>
       <c r="L435">
-        <v>14.615957418356325</v>
+        <v>11.452865827240037</v>
       </c>
     </row>
     <row r="436" spans="11:12">
@@ -4532,7 +4535,7 @@
         <v>434</v>
       </c>
       <c r="L436">
-        <v>14.973155504922081</v>
+        <v>16.165654611303651</v>
       </c>
     </row>
     <row r="437" spans="11:12">
@@ -4540,7 +4543,7 @@
         <v>435</v>
       </c>
       <c r="L437">
-        <v>15.61517110670643</v>
+        <v>16.761752519784501</v>
       </c>
     </row>
     <row r="438" spans="11:12">
@@ -4548,7 +4551,7 @@
         <v>436</v>
       </c>
       <c r="L438">
-        <v>15.658628271218298</v>
+        <v>10.750631355299889</v>
       </c>
     </row>
     <row r="439" spans="11:12">
@@ -4556,7 +4559,7 @@
         <v>437</v>
       </c>
       <c r="L439">
-        <v>13.628325723796237</v>
+        <v>16.093067495462051</v>
       </c>
     </row>
     <row r="440" spans="11:12">
@@ -4564,7 +4567,7 @@
         <v>438</v>
       </c>
       <c r="L440">
-        <v>14.491268100203552</v>
+        <v>16.530143010223071</v>
       </c>
     </row>
     <row r="441" spans="11:12">
@@ -4572,7 +4575,7 @@
         <v>439</v>
       </c>
       <c r="L441">
-        <v>12.441727437109448</v>
+        <v>12.311273954862239</v>
       </c>
     </row>
     <row r="442" spans="11:12">
@@ -4580,7 +4583,7 @@
         <v>440</v>
       </c>
       <c r="L442">
-        <v>15.36025970777759</v>
+        <v>16.888886757277014</v>
       </c>
     </row>
     <row r="443" spans="11:12">
@@ -4588,7 +4591,7 @@
         <v>441</v>
       </c>
       <c r="L443">
-        <v>13.479490345018625</v>
+        <v>13.800260233542689</v>
       </c>
     </row>
     <row r="444" spans="11:12">
@@ -4596,7 +4599,7 @@
         <v>442</v>
       </c>
       <c r="L444">
-        <v>13.386700702509161</v>
+        <v>14.172319954747527</v>
       </c>
     </row>
     <row r="445" spans="11:12">
@@ -4604,7 +4607,7 @@
         <v>443</v>
       </c>
       <c r="L445">
-        <v>13.32642005336492</v>
+        <v>10.815911704492784</v>
       </c>
     </row>
     <row r="446" spans="11:12">
@@ -4612,7 +4615,7 @@
         <v>444</v>
       </c>
       <c r="L446">
-        <v>13.95867168566304</v>
+        <v>15.671489853286481</v>
       </c>
     </row>
     <row r="447" spans="11:12">
@@ -4620,7 +4623,7 @@
         <v>445</v>
       </c>
       <c r="L447">
-        <v>12.794210316665383</v>
+        <v>12.952510874789041</v>
       </c>
     </row>
     <row r="448" spans="11:12">
@@ -4628,7 +4631,7 @@
         <v>446</v>
       </c>
       <c r="L448">
-        <v>14.288965634444324</v>
+        <v>13.014124377299808</v>
       </c>
     </row>
     <row r="449" spans="11:12">
@@ -4636,7 +4639,7 @@
         <v>447</v>
       </c>
       <c r="L449">
-        <v>14.93673004522676</v>
+        <v>15.304432991901525</v>
       </c>
     </row>
     <row r="450" spans="11:12">
@@ -4644,7 +4647,7 @@
         <v>448</v>
       </c>
       <c r="L450">
-        <v>11.371696434099105</v>
+        <v>12.531336936346472</v>
       </c>
     </row>
     <row r="451" spans="11:12">
@@ -4652,7 +4655,7 @@
         <v>449</v>
       </c>
       <c r="L451">
-        <v>12.755178322560978</v>
+        <v>16.471801735495688</v>
       </c>
     </row>
     <row r="452" spans="11:12">
@@ -4660,7 +4663,7 @@
         <v>450</v>
       </c>
       <c r="L452">
-        <v>14.774143802453267</v>
+        <v>11.606747590898429</v>
       </c>
     </row>
     <row r="453" spans="11:12">
@@ -4668,7 +4671,7 @@
         <v>451</v>
       </c>
       <c r="L453">
-        <v>11.938866250109987</v>
+        <v>11.454229219480165</v>
       </c>
     </row>
     <row r="454" spans="11:12">
@@ -4676,7 +4679,7 @@
         <v>452</v>
       </c>
       <c r="L454">
-        <v>10.826976449327411</v>
+        <v>16.85050863292097</v>
       </c>
     </row>
     <row r="455" spans="11:12">
@@ -4684,7 +4687,7 @@
         <v>453</v>
       </c>
       <c r="L455">
-        <v>16.530355957525181</v>
+        <v>11.14858477534025</v>
       </c>
     </row>
     <row r="456" spans="11:12">
@@ -4692,7 +4695,7 @@
         <v>454</v>
       </c>
       <c r="L456">
-        <v>15.882073052549291</v>
+        <v>14.576827424773931</v>
       </c>
     </row>
     <row r="457" spans="11:12">
@@ -4700,7 +4703,7 @@
         <v>455</v>
       </c>
       <c r="L457">
-        <v>14.371335095688996</v>
+        <v>14.577199558269845</v>
       </c>
     </row>
     <row r="458" spans="11:12">
@@ -4708,7 +4711,7 @@
         <v>456</v>
       </c>
       <c r="L458">
-        <v>15.178295947106839</v>
+        <v>16.848834483886428</v>
       </c>
     </row>
     <row r="459" spans="11:12">
@@ -4716,7 +4719,7 @@
         <v>457</v>
       </c>
       <c r="L459">
-        <v>15.629203485894328</v>
+        <v>15.12786389025176</v>
       </c>
     </row>
     <row r="460" spans="11:12">
@@ -4724,7 +4727,7 @@
         <v>458</v>
       </c>
       <c r="L460">
-        <v>12.25014631340151</v>
+        <v>9.1894094543953742</v>
       </c>
     </row>
     <row r="461" spans="11:12">
@@ -4732,7 +4735,7 @@
         <v>459</v>
       </c>
       <c r="L461">
-        <v>15.47413713654462</v>
+        <v>18.93832669273004</v>
       </c>
     </row>
     <row r="462" spans="11:12">
@@ -4740,7 +4743,7 @@
         <v>460</v>
       </c>
       <c r="L462">
-        <v>16.210786385682805</v>
+        <v>13.255900731473277</v>
       </c>
     </row>
     <row r="463" spans="11:12">
@@ -4748,7 +4751,7 @@
         <v>461</v>
       </c>
       <c r="L463">
-        <v>13.078658329278014</v>
+        <v>15.601369866189206</v>
       </c>
     </row>
     <row r="464" spans="11:12">
@@ -4756,7 +4759,7 @@
         <v>462</v>
       </c>
       <c r="L464">
-        <v>15.672924449171022</v>
+        <v>12.395601707585417</v>
       </c>
     </row>
     <row r="465" spans="11:12">
@@ -4764,7 +4767,7 @@
         <v>463</v>
       </c>
       <c r="L465">
-        <v>13.572902652205869</v>
+        <v>16.287685375635672</v>
       </c>
     </row>
     <row r="466" spans="11:12">
@@ -4772,7 +4775,7 @@
         <v>464</v>
       </c>
       <c r="L466">
-        <v>18.989909266975108</v>
+        <v>15.276173620221332</v>
       </c>
     </row>
     <row r="467" spans="11:12">
@@ -4780,7 +4783,7 @@
         <v>465</v>
       </c>
       <c r="L467">
-        <v>13.97977136986141</v>
+        <v>18.744267344666511</v>
       </c>
     </row>
     <row r="468" spans="11:12">
@@ -4788,7 +4791,7 @@
         <v>466</v>
       </c>
       <c r="L468">
-        <v>11.322928299499283</v>
+        <v>11.594700599290292</v>
       </c>
     </row>
     <row r="469" spans="11:12">
@@ -4796,7 +4799,7 @@
         <v>467</v>
       </c>
       <c r="L469">
-        <v>15.439378912345195</v>
+        <v>18.365057886571932</v>
       </c>
     </row>
     <row r="470" spans="11:12">
@@ -4804,7 +4807,7 @@
         <v>468</v>
       </c>
       <c r="L470">
-        <v>12.859719174167594</v>
+        <v>12.972889413107193</v>
       </c>
     </row>
     <row r="471" spans="11:12">
@@ -4812,7 +4815,7 @@
         <v>469</v>
       </c>
       <c r="L471">
-        <v>17.0544197070233</v>
+        <v>15.499826506684935</v>
       </c>
     </row>
     <row r="472" spans="11:12">
@@ -4820,7 +4823,7 @@
         <v>470</v>
       </c>
       <c r="L472">
-        <v>12.618928564317319</v>
+        <v>12.093214932037421</v>
       </c>
     </row>
     <row r="473" spans="11:12">
@@ -4828,7 +4831,7 @@
         <v>471</v>
       </c>
       <c r="L473">
-        <v>17.387766965244399</v>
+        <v>12.507970039043077</v>
       </c>
     </row>
     <row r="474" spans="11:12">
@@ -4836,7 +4839,7 @@
         <v>472</v>
       </c>
       <c r="L474">
-        <v>15.683596815753713</v>
+        <v>13.243918803911011</v>
       </c>
     </row>
     <row r="475" spans="11:12">
@@ -4844,7 +4847,7 @@
         <v>473</v>
       </c>
       <c r="L475">
-        <v>13.951382354723798</v>
+        <v>17.871791829956209</v>
       </c>
     </row>
     <row r="476" spans="11:12">
@@ -4852,7 +4855,7 @@
         <v>474</v>
       </c>
       <c r="L476">
-        <v>12.03143100573093</v>
+        <v>17.711285988060538</v>
       </c>
     </row>
     <row r="477" spans="11:12">
@@ -4860,7 +4863,7 @@
         <v>475</v>
       </c>
       <c r="L477">
-        <v>16.488221977946175</v>
+        <v>12.8711687707975</v>
       </c>
     </row>
     <row r="478" spans="11:12">
@@ -4868,7 +4871,7 @@
         <v>476</v>
       </c>
       <c r="L478">
-        <v>13.093956507813228</v>
+        <v>11.406078907139872</v>
       </c>
     </row>
     <row r="479" spans="11:12">
@@ -4876,7 +4879,7 @@
         <v>477</v>
       </c>
       <c r="L479">
-        <v>11.54937578182032</v>
+        <v>18.770374833580718</v>
       </c>
     </row>
     <row r="480" spans="11:12">
@@ -4884,7 +4887,7 @@
         <v>478</v>
       </c>
       <c r="L480">
-        <v>15.769845788435465</v>
+        <v>13.866118796361906</v>
       </c>
     </row>
     <row r="481" spans="11:12">
@@ -4892,7 +4895,7 @@
         <v>479</v>
       </c>
       <c r="L481">
-        <v>11.282038495714808</v>
+        <v>14.901415732779153</v>
       </c>
     </row>
     <row r="482" spans="11:12">
@@ -4900,7 +4903,7 @@
         <v>480</v>
       </c>
       <c r="L482">
-        <v>14.920839213898685</v>
+        <v>13.180177939196888</v>
       </c>
     </row>
     <row r="483" spans="11:12">
@@ -4908,7 +4911,7 @@
         <v>481</v>
       </c>
       <c r="L483">
-        <v>14.023055235658838</v>
+        <v>19.453093899279267</v>
       </c>
     </row>
     <row r="484" spans="11:12">
@@ -4916,7 +4919,7 @@
         <v>482</v>
       </c>
       <c r="L484">
-        <v>13.113158600418295</v>
+        <v>14.103250131820147</v>
       </c>
     </row>
     <row r="485" spans="11:12">
@@ -4924,7 +4927,7 @@
         <v>483</v>
       </c>
       <c r="L485">
-        <v>20.099003408174351</v>
+        <v>11.984874647661396</v>
       </c>
     </row>
     <row r="486" spans="11:12">
@@ -4932,7 +4935,7 @@
         <v>484</v>
       </c>
       <c r="L486">
-        <v>12.926406067266672</v>
+        <v>16.57620803160075</v>
       </c>
     </row>
     <row r="487" spans="11:12">
@@ -4940,7 +4943,7 @@
         <v>485</v>
       </c>
       <c r="L487">
-        <v>10.790632608720056</v>
+        <v>16.677367438272004</v>
       </c>
     </row>
     <row r="488" spans="11:12">
@@ -4948,7 +4951,7 @@
         <v>486</v>
       </c>
       <c r="L488">
-        <v>14.434110039387869</v>
+        <v>15.570508819911193</v>
       </c>
     </row>
     <row r="489" spans="11:12">
@@ -4956,7 +4959,7 @@
         <v>487</v>
       </c>
       <c r="L489">
-        <v>10.771674273517577</v>
+        <v>17.267807022127624</v>
       </c>
     </row>
     <row r="490" spans="11:12">
@@ -4964,7 +4967,7 @@
         <v>488</v>
       </c>
       <c r="L490">
-        <v>17.006844821175171</v>
+        <v>11.207520399650111</v>
       </c>
     </row>
     <row r="491" spans="11:12">
@@ -4972,7 +4975,7 @@
         <v>489</v>
       </c>
       <c r="L491">
-        <v>13.226064026096441</v>
+        <v>19.233154606808014</v>
       </c>
     </row>
     <row r="492" spans="11:12">
@@ -4980,7 +4983,7 @@
         <v>490</v>
       </c>
       <c r="L492">
-        <v>15.012281439593913</v>
+        <v>14.208511137782978</v>
       </c>
     </row>
     <row r="493" spans="11:12">
@@ -4988,7 +4991,7 @@
         <v>491</v>
       </c>
       <c r="L493">
-        <v>12.10359855994227</v>
+        <v>15.897229946940508</v>
       </c>
     </row>
     <row r="494" spans="11:12">
@@ -4996,7 +4999,7 @@
         <v>492</v>
       </c>
       <c r="L494">
-        <v>15.546847520436234</v>
+        <v>13.60824367749391</v>
       </c>
     </row>
     <row r="495" spans="11:12">
@@ -5004,7 +5007,7 @@
         <v>493</v>
       </c>
       <c r="L495">
-        <v>15.465240657278905</v>
+        <v>16.599325076673846</v>
       </c>
     </row>
     <row r="496" spans="11:12">
@@ -5012,7 +5015,7 @@
         <v>494</v>
       </c>
       <c r="L496">
-        <v>17.064348912595705</v>
+        <v>13.4111335792951</v>
       </c>
     </row>
     <row r="497" spans="11:12">
@@ -5020,7 +5023,7 @@
         <v>495</v>
       </c>
       <c r="L497">
-        <v>11.178631815015594</v>
+        <v>10.315705552384447</v>
       </c>
     </row>
     <row r="498" spans="11:12">
@@ -5028,7 +5031,7 @@
         <v>496</v>
       </c>
       <c r="L498">
-        <v>12.919637069563885</v>
+        <v>14.996134392533948</v>
       </c>
     </row>
     <row r="499" spans="11:12">
@@ -5036,7 +5039,7 @@
         <v>497</v>
       </c>
       <c r="L499">
-        <v>11.165500273563485</v>
+        <v>17.629279719803431</v>
       </c>
     </row>
     <row r="500" spans="11:12">
@@ -5044,7 +5047,7 @@
         <v>498</v>
       </c>
       <c r="L500">
-        <v>14.040993880841878</v>
+        <v>14.204160664800664</v>
       </c>
     </row>
     <row r="501" spans="11:12">
@@ -5052,7 +5055,7 @@
         <v>499</v>
       </c>
       <c r="L501">
-        <v>14.573138793072285</v>
+        <v>13.592944933169562</v>
       </c>
     </row>
     <row r="502" spans="11:12">
@@ -5060,7 +5063,7 @@
         <v>500</v>
       </c>
       <c r="L502">
-        <v>13.345183057496872</v>
+        <v>16.163685221921984</v>
       </c>
     </row>
     <row r="503" spans="11:12">
@@ -5068,7 +5071,7 @@
         <v>501</v>
       </c>
       <c r="L503">
-        <v>15.718174439953708</v>
+        <v>14.067621942902431</v>
       </c>
     </row>
     <row r="504" spans="11:12">
@@ -5076,7 +5079,7 @@
         <v>502</v>
       </c>
       <c r="L504">
-        <v>13.464265487837967</v>
+        <v>16.358528636102733</v>
       </c>
     </row>
     <row r="505" spans="11:12">
@@ -5084,7 +5087,7 @@
         <v>503</v>
       </c>
       <c r="L505">
-        <v>17.0989027528273</v>
+        <v>12.933938841708525</v>
       </c>
     </row>
     <row r="506" spans="11:12">
@@ -5092,7 +5095,7 @@
         <v>504</v>
       </c>
       <c r="L506">
-        <v>15.698517651417211</v>
+        <v>11.892824033592955</v>
       </c>
     </row>
     <row r="507" spans="11:12">
@@ -5100,7 +5103,7 @@
         <v>505</v>
       </c>
       <c r="L507">
-        <v>16.244148920491988</v>
+        <v>15.412290974067806</v>
       </c>
     </row>
     <row r="508" spans="11:12">
@@ -5108,7 +5111,7 @@
         <v>506</v>
       </c>
       <c r="L508">
-        <v>17.066380140285425</v>
+        <v>15.943981773485518</v>
       </c>
     </row>
     <row r="509" spans="11:12">
@@ -5116,7 +5119,7 @@
         <v>507</v>
       </c>
       <c r="L509">
-        <v>13.93230042270328</v>
+        <v>9.7742660783236097</v>
       </c>
     </row>
     <row r="510" spans="11:12">
@@ -5124,7 +5127,7 @@
         <v>508</v>
       </c>
       <c r="L510">
-        <v>20.213807312699188</v>
+        <v>12.364537926230881</v>
       </c>
     </row>
     <row r="511" spans="11:12">
@@ -5132,7 +5135,7 @@
         <v>509</v>
       </c>
       <c r="L511">
-        <v>15.073950443769391</v>
+        <v>13.317882234906397</v>
       </c>
     </row>
     <row r="512" spans="11:12">
@@ -5140,7 +5143,7 @@
         <v>510</v>
       </c>
       <c r="L512">
-        <v>13.238597710577867</v>
+        <v>15.564736519560771</v>
       </c>
     </row>
     <row r="513" spans="11:12">
@@ -5148,7 +5151,7 @@
         <v>511</v>
       </c>
       <c r="L513">
-        <v>12.708893662674267</v>
+        <v>14.325055220177369</v>
       </c>
     </row>
     <row r="514" spans="11:12">
@@ -5156,7 +5159,7 @@
         <v>512</v>
       </c>
       <c r="L514">
-        <v>13.84003093796273</v>
+        <v>18.220912303342864</v>
       </c>
     </row>
     <row r="515" spans="11:12">
@@ -5164,7 +5167,7 @@
         <v>513</v>
       </c>
       <c r="L515">
-        <v>19.01199327961201</v>
+        <v>19.459933773537333</v>
       </c>
     </row>
     <row r="516" spans="11:12">
@@ -5172,7 +5175,7 @@
         <v>514</v>
       </c>
       <c r="L516">
-        <v>15.756170357532746</v>
+        <v>14.418499473863818</v>
       </c>
     </row>
     <row r="517" spans="11:12">
@@ -5180,7 +5183,7 @@
         <v>515</v>
       </c>
       <c r="L517">
-        <v>15.365122735759696</v>
+        <v>16.598236087819743</v>
       </c>
     </row>
     <row r="518" spans="11:12">
@@ -5188,7 +5191,7 @@
         <v>516</v>
       </c>
       <c r="L518">
-        <v>11.109289921858128</v>
+        <v>17.773391669975567</v>
       </c>
     </row>
     <row r="519" spans="11:12">
@@ -5196,7 +5199,7 @@
         <v>517</v>
       </c>
       <c r="L519">
-        <v>11.607114706440194</v>
+        <v>13.253324005552543</v>
       </c>
     </row>
     <row r="520" spans="11:12">
@@ -5204,7 +5207,7 @@
         <v>518</v>
       </c>
       <c r="L520">
-        <v>13.454871610193351</v>
+        <v>9.5679398497119799</v>
       </c>
     </row>
     <row r="521" spans="11:12">
@@ -5212,7 +5215,7 @@
         <v>519</v>
       </c>
       <c r="L521">
-        <v>10.880759886979739</v>
+        <v>15.52278481814923</v>
       </c>
     </row>
     <row r="522" spans="11:12">
@@ -5220,7 +5223,7 @@
         <v>520</v>
       </c>
       <c r="L522">
-        <v>14.961701184246435</v>
+        <v>14.016648336178495</v>
       </c>
     </row>
     <row r="523" spans="11:12">
@@ -5228,7 +5231,7 @@
         <v>521</v>
       </c>
       <c r="L523">
-        <v>9.9773827414312724</v>
+        <v>14.399228948263914</v>
       </c>
     </row>
     <row r="524" spans="11:12">
@@ -5236,7 +5239,7 @@
         <v>522</v>
       </c>
       <c r="L524">
-        <v>16.070991449261793</v>
+        <v>13.459694129826424</v>
       </c>
     </row>
     <row r="525" spans="11:12">
@@ -5244,7 +5247,7 @@
         <v>523</v>
       </c>
       <c r="L525">
-        <v>12.990611865772639</v>
+        <v>18.619352294361978</v>
       </c>
     </row>
     <row r="526" spans="11:12">
@@ -5252,7 +5255,7 @@
         <v>524</v>
       </c>
       <c r="L526">
-        <v>15.156730354247749</v>
+        <v>11.803974535671575</v>
       </c>
     </row>
     <row r="527" spans="11:12">
@@ -5260,7 +5263,7 @@
         <v>525</v>
       </c>
       <c r="L527">
-        <v>14.510307525207441</v>
+        <v>17.219747603662853</v>
       </c>
     </row>
     <row r="528" spans="11:12">
@@ -5268,7 +5271,7 @@
         <v>526</v>
       </c>
       <c r="L528">
-        <v>12.319185104250487</v>
+        <v>14.983341709979925</v>
       </c>
     </row>
     <row r="529" spans="11:12">
@@ -5276,7 +5279,7 @@
         <v>527</v>
       </c>
       <c r="L529">
-        <v>14.336432908730796</v>
+        <v>13.31508482438629</v>
       </c>
     </row>
     <row r="530" spans="11:12">
@@ -5284,7 +5287,7 @@
         <v>528</v>
       </c>
       <c r="L530">
-        <v>16.405316919510422</v>
+        <v>18.954061833814254</v>
       </c>
     </row>
     <row r="531" spans="11:12">
@@ -5292,7 +5295,7 @@
         <v>529</v>
       </c>
       <c r="L531">
-        <v>14.655729390801593</v>
+        <v>14.761510528353041</v>
       </c>
     </row>
     <row r="532" spans="11:12">
@@ -5300,7 +5303,7 @@
         <v>530</v>
       </c>
       <c r="L532">
-        <v>11.830229831596016</v>
+        <v>16.329826538313302</v>
       </c>
     </row>
     <row r="533" spans="11:12">
@@ -5308,7 +5311,7 @@
         <v>531</v>
       </c>
       <c r="L533">
-        <v>16.714281134798227</v>
+        <v>15.832673958967796</v>
       </c>
     </row>
     <row r="534" spans="11:12">
@@ -5316,7 +5319,7 @@
         <v>532</v>
       </c>
       <c r="L534">
-        <v>15.959923206238196</v>
+        <v>13.830490430776589</v>
       </c>
     </row>
     <row r="535" spans="11:12">
@@ -5324,7 +5327,7 @@
         <v>533</v>
       </c>
       <c r="L535">
-        <v>11.407779427941616</v>
+        <v>12.026989969802102</v>
       </c>
     </row>
     <row r="536" spans="11:12">
@@ -5332,7 +5335,7 @@
         <v>534</v>
       </c>
       <c r="L536">
-        <v>15.75913393556508</v>
+        <v>12.120326693077327</v>
       </c>
     </row>
     <row r="537" spans="11:12">
@@ -5340,7 +5343,7 @@
         <v>535</v>
       </c>
       <c r="L537">
-        <v>13.224598020418558</v>
+        <v>11.707541554558469</v>
       </c>
     </row>
     <row r="538" spans="11:12">
@@ -5348,7 +5351,7 @@
         <v>536</v>
       </c>
       <c r="L538">
-        <v>12.443241521521905</v>
+        <v>14.937130465035402</v>
       </c>
     </row>
     <row r="539" spans="11:12">
@@ -5356,7 +5359,7 @@
         <v>537</v>
       </c>
       <c r="L539">
-        <v>12.654294399523508</v>
+        <v>12.980309681766411</v>
       </c>
     </row>
     <row r="540" spans="11:12">
@@ -5364,7 +5367,7 @@
         <v>538</v>
       </c>
       <c r="L540">
-        <v>10.955546589102864</v>
+        <v>13.701560482985256</v>
       </c>
     </row>
     <row r="541" spans="11:12">
@@ -5372,7 +5375,7 @@
         <v>539</v>
       </c>
       <c r="L541">
-        <v>15.406760691847692</v>
+        <v>12.03848618883346</v>
       </c>
     </row>
     <row r="542" spans="11:12">
@@ -5380,7 +5383,7 @@
         <v>540</v>
       </c>
       <c r="L542">
-        <v>15.778066468060723</v>
+        <v>10.397141603085299</v>
       </c>
     </row>
     <row r="543" spans="11:12">
@@ -5388,7 +5391,7 @@
         <v>541</v>
       </c>
       <c r="L543">
-        <v>18.49817444527207</v>
+        <v>9.7006749043225611</v>
       </c>
     </row>
     <row r="544" spans="11:12">
@@ -5396,7 +5399,7 @@
         <v>542</v>
       </c>
       <c r="L544">
-        <v>12.105429392119488</v>
+        <v>17.872449038370902</v>
       </c>
     </row>
     <row r="545" spans="11:12">
@@ -5404,7 +5407,7 @@
         <v>543</v>
       </c>
       <c r="L545">
-        <v>17.565877411486298</v>
+        <v>14.092746274312418</v>
       </c>
     </row>
     <row r="546" spans="11:12">
@@ -5412,7 +5415,7 @@
         <v>544</v>
       </c>
       <c r="L546">
-        <v>15.637784788343321</v>
+        <v>13.878457164834128</v>
       </c>
     </row>
     <row r="547" spans="11:12">
@@ -5420,7 +5423,7 @@
         <v>545</v>
       </c>
       <c r="L547">
-        <v>18.64475959550132</v>
+        <v>13.61116751524748</v>
       </c>
     </row>
     <row r="548" spans="11:12">
@@ -5428,7 +5431,7 @@
         <v>546</v>
       </c>
       <c r="L548">
-        <v>11.791816301862397</v>
+        <v>15.822527088646876</v>
       </c>
     </row>
     <row r="549" spans="11:12">
@@ -5436,7 +5439,7 @@
         <v>547</v>
       </c>
       <c r="L549">
-        <v>14.080054811738993</v>
+        <v>12.513842467831635</v>
       </c>
     </row>
     <row r="550" spans="11:12">
@@ -5444,7 +5447,7 @@
         <v>548</v>
       </c>
       <c r="L550">
-        <v>12.408652585760805</v>
+        <v>16.588099360196207</v>
       </c>
     </row>
     <row r="551" spans="11:12">
@@ -5452,7 +5455,7 @@
         <v>549</v>
       </c>
       <c r="L551">
-        <v>15.750346129879379</v>
+        <v>18.280714483954423</v>
       </c>
     </row>
     <row r="552" spans="11:12">
@@ -5460,7 +5463,7 @@
         <v>550</v>
       </c>
       <c r="L552">
-        <v>14.89821073034361</v>
+        <v>14.361588057481733</v>
       </c>
     </row>
     <row r="553" spans="11:12">
@@ -5468,7 +5471,7 @@
         <v>551</v>
       </c>
       <c r="L553">
-        <v>15.951820707783167</v>
+        <v>17.082677168554859</v>
       </c>
     </row>
     <row r="554" spans="11:12">
@@ -5476,7 +5479,7 @@
         <v>552</v>
       </c>
       <c r="L554">
-        <v>12.138153042681783</v>
+        <v>11.354991727265293</v>
       </c>
     </row>
     <row r="555" spans="11:12">
@@ -5484,7 +5487,7 @@
         <v>553</v>
       </c>
       <c r="L555">
-        <v>11.955879451798703</v>
+        <v>16.35435844210296</v>
       </c>
     </row>
     <row r="556" spans="11:12">
@@ -5492,7 +5495,7 @@
         <v>554</v>
       </c>
       <c r="L556">
-        <v>12.818957875910469</v>
+        <v>13.377345280527845</v>
       </c>
     </row>
     <row r="557" spans="11:12">
@@ -5500,7 +5503,7 @@
         <v>555</v>
       </c>
       <c r="L557">
-        <v>13.197468828178138</v>
+        <v>13.49542603459931</v>
       </c>
     </row>
     <row r="558" spans="11:12">
@@ -5508,7 +5511,7 @@
         <v>556</v>
       </c>
       <c r="L558">
-        <v>15.18458923993431</v>
+        <v>16.165673813556729</v>
       </c>
     </row>
     <row r="559" spans="11:12">
@@ -5516,7 +5519,7 @@
         <v>557</v>
       </c>
       <c r="L559">
-        <v>12.217752759841257</v>
+        <v>15.718890966163439</v>
       </c>
     </row>
     <row r="560" spans="11:12">
@@ -5524,7 +5527,7 @@
         <v>558</v>
       </c>
       <c r="L560">
-        <v>17.474971325386566</v>
+        <v>10.901596154578128</v>
       </c>
     </row>
     <row r="561" spans="11:12">
@@ -5532,7 +5535,7 @@
         <v>559</v>
       </c>
       <c r="L561">
-        <v>15.46744974175466</v>
+        <v>11.473221680862828</v>
       </c>
     </row>
     <row r="562" spans="11:12">
@@ -5540,7 +5543,7 @@
         <v>560</v>
       </c>
       <c r="L562">
-        <v>9.9153159652488423</v>
+        <v>15.558668425267467</v>
       </c>
     </row>
     <row r="563" spans="11:12">
@@ -5548,7 +5551,7 @@
         <v>561</v>
       </c>
       <c r="L563">
-        <v>16.231219840528318</v>
+        <v>15.449693463951057</v>
       </c>
     </row>
     <row r="564" spans="11:12">
@@ -5556,7 +5559,7 @@
         <v>562</v>
       </c>
       <c r="L564">
-        <v>11.148148697500192</v>
+        <v>16.385335342604932</v>
       </c>
     </row>
     <row r="565" spans="11:12">
@@ -5564,7 +5567,7 @@
         <v>563</v>
       </c>
       <c r="L565">
-        <v>13.268377813703085</v>
+        <v>16.595298003655813</v>
       </c>
     </row>
     <row r="566" spans="11:12">
@@ -5572,7 +5575,7 @@
         <v>564</v>
       </c>
       <c r="L566">
-        <v>13.011483846644957</v>
+        <v>18.871901494397363</v>
       </c>
     </row>
     <row r="567" spans="11:12">
@@ -5580,7 +5583,7 @@
         <v>565</v>
       </c>
       <c r="L567">
-        <v>14.539085579030441</v>
+        <v>17.330629018609848</v>
       </c>
     </row>
     <row r="568" spans="11:12">
@@ -5588,7 +5591,7 @@
         <v>566</v>
       </c>
       <c r="L568">
-        <v>12.999266152374169</v>
+        <v>11.369869656581265</v>
       </c>
     </row>
     <row r="569" spans="11:12">
@@ -5596,7 +5599,7 @@
         <v>567</v>
       </c>
       <c r="L569">
-        <v>11.684803137697067</v>
+        <v>14.537815523170178</v>
       </c>
     </row>
     <row r="570" spans="11:12">
@@ -5604,7 +5607,7 @@
         <v>568</v>
       </c>
       <c r="L570">
-        <v>10.884422652119776</v>
+        <v>14.01126463090166</v>
       </c>
     </row>
     <row r="571" spans="11:12">
@@ -5612,7 +5615,7 @@
         <v>569</v>
       </c>
       <c r="L571">
-        <v>15.923072489497894</v>
+        <v>13.46344782504649</v>
       </c>
     </row>
     <row r="572" spans="11:12">
@@ -5620,7 +5623,7 @@
         <v>570</v>
       </c>
       <c r="L572">
-        <v>13.502150705525239</v>
+        <v>14.128971765076557</v>
       </c>
     </row>
     <row r="573" spans="11:12">
@@ -5628,7 +5631,7 @@
         <v>571</v>
       </c>
       <c r="L573">
-        <v>12.933417696103533</v>
+        <v>15.431022155020806</v>
       </c>
     </row>
     <row r="574" spans="11:12">
@@ -5636,7 +5639,7 @@
         <v>572</v>
       </c>
       <c r="L574">
-        <v>15.653945918786476</v>
+        <v>13.796996355288577</v>
       </c>
     </row>
     <row r="575" spans="11:12">
@@ -5644,7 +5647,7 @@
         <v>573</v>
       </c>
       <c r="L575">
-        <v>10.94217121751392</v>
+        <v>15.313017556451669</v>
       </c>
     </row>
     <row r="576" spans="11:12">
@@ -5652,7 +5655,7 @@
         <v>574</v>
       </c>
       <c r="L576">
-        <v>15.806142008590408</v>
+        <v>16.147294588662099</v>
       </c>
     </row>
     <row r="577" spans="11:12">
@@ -5660,7 +5663,7 @@
         <v>575</v>
       </c>
       <c r="L577">
-        <v>17.590933594714976</v>
+        <v>17.855464480910591</v>
       </c>
     </row>
     <row r="578" spans="11:12">
@@ -5668,7 +5671,7 @@
         <v>576</v>
       </c>
       <c r="L578">
-        <v>16.342315762615176</v>
+        <v>15.689236208565804</v>
       </c>
     </row>
     <row r="579" spans="11:12">
@@ -5676,7 +5679,7 @@
         <v>577</v>
       </c>
       <c r="L579">
-        <v>17.730847855439379</v>
+        <v>13.873616271927711</v>
       </c>
     </row>
     <row r="580" spans="11:12">
@@ -5684,7 +5687,7 @@
         <v>578</v>
       </c>
       <c r="L580">
-        <v>15.270693870589398</v>
+        <v>13.571502364835011</v>
       </c>
     </row>
     <row r="581" spans="11:12">
@@ -5692,7 +5695,7 @@
         <v>579</v>
       </c>
       <c r="L581">
-        <v>11.48057039479383</v>
+        <v>18.321996022947964</v>
       </c>
     </row>
     <row r="582" spans="11:12">
@@ -5700,7 +5703,7 @@
         <v>580</v>
       </c>
       <c r="L582">
-        <v>9.3397802680919852</v>
+        <v>14.543001727720743</v>
       </c>
     </row>
     <row r="583" spans="11:12">
@@ -5708,7 +5711,7 @@
         <v>581</v>
       </c>
       <c r="L583">
-        <v>15.170316731827427</v>
+        <v>13.982686393190104</v>
       </c>
     </row>
     <row r="584" spans="11:12">
@@ -5716,7 +5719,7 @@
         <v>582</v>
       </c>
       <c r="L584">
-        <v>12.940385936473485</v>
+        <v>13.750331304790425</v>
       </c>
     </row>
     <row r="585" spans="11:12">
@@ -5724,7 +5727,7 @@
         <v>583</v>
       </c>
       <c r="L585">
-        <v>14.119234132861168</v>
+        <v>15.042664451515222</v>
       </c>
     </row>
     <row r="586" spans="11:12">
@@ -5732,7 +5735,7 @@
         <v>584</v>
       </c>
       <c r="L586">
-        <v>11.525329305646524</v>
+        <v>14.515839641824069</v>
       </c>
     </row>
     <row r="587" spans="11:12">
@@ -5740,7 +5743,7 @@
         <v>585</v>
       </c>
       <c r="L587">
-        <v>14.544647202120748</v>
+        <v>14.877329917710002</v>
       </c>
     </row>
     <row r="588" spans="11:12">
@@ -5748,7 +5751,7 @@
         <v>586</v>
       </c>
       <c r="L588">
-        <v>12.731279986548603</v>
+        <v>14.381480584947225</v>
       </c>
     </row>
     <row r="589" spans="11:12">
@@ -5756,7 +5759,7 @@
         <v>587</v>
       </c>
       <c r="L589">
-        <v>14.112053456739906</v>
+        <v>14.358046038350691</v>
       </c>
     </row>
     <row r="590" spans="11:12">
@@ -5764,7 +5767,7 @@
         <v>588</v>
       </c>
       <c r="L590">
-        <v>12.229726854622683</v>
+        <v>14.099307019889174</v>
       </c>
     </row>
     <row r="591" spans="11:12">
@@ -5772,7 +5775,7 @@
         <v>589</v>
       </c>
       <c r="L591">
-        <v>18.373755523592717</v>
+        <v>12.100240966518047</v>
       </c>
     </row>
     <row r="592" spans="11:12">
@@ -5780,7 +5783,7 @@
         <v>590</v>
       </c>
       <c r="L592">
-        <v>14.176885330216638</v>
+        <v>14.341619157398171</v>
       </c>
     </row>
     <row r="593" spans="11:12">
@@ -5788,7 +5791,7 @@
         <v>591</v>
       </c>
       <c r="L593">
-        <v>10.144663955878928</v>
+        <v>16.490158843971141</v>
       </c>
     </row>
     <row r="594" spans="11:12">
@@ -5796,7 +5799,7 @@
         <v>592</v>
       </c>
       <c r="L594">
-        <v>15.605017862406267</v>
+        <v>14.99267009800711</v>
       </c>
     </row>
     <row r="595" spans="11:12">
@@ -5804,7 +5807,7 @@
         <v>593</v>
       </c>
       <c r="L595">
-        <v>14.443227061834619</v>
+        <v>14.95849515031829</v>
       </c>
     </row>
     <row r="596" spans="11:12">
@@ -5812,7 +5815,7 @@
         <v>594</v>
       </c>
       <c r="L596">
-        <v>13.442444864483189</v>
+        <v>14.584699011492981</v>
       </c>
     </row>
     <row r="597" spans="11:12">
@@ -5820,7 +5823,7 @@
         <v>595</v>
       </c>
       <c r="L597">
-        <v>15.905548872815281</v>
+        <v>14.619405562943067</v>
       </c>
     </row>
     <row r="598" spans="11:12">
@@ -5828,7 +5831,7 @@
         <v>596</v>
       </c>
       <c r="L598">
-        <v>12.966201483233988</v>
+        <v>17.07777996430595</v>
       </c>
     </row>
     <row r="599" spans="11:12">
@@ -5836,7 +5839,7 @@
         <v>597</v>
       </c>
       <c r="L599">
-        <v>14.425724354667388</v>
+        <v>17.750734200006388</v>
       </c>
     </row>
     <row r="600" spans="11:12">
@@ -5844,7 +5847,7 @@
         <v>598</v>
       </c>
       <c r="L600">
-        <v>10.277030588190879</v>
+        <v>12.2125391877639</v>
       </c>
     </row>
     <row r="601" spans="11:12">
@@ -5852,7 +5855,7 @@
         <v>599</v>
       </c>
       <c r="L601">
-        <v>14.07512522812269</v>
+        <v>19.904825334793554</v>
       </c>
     </row>
     <row r="602" spans="11:12">
@@ -5860,7 +5863,7 @@
         <v>600</v>
       </c>
       <c r="L602">
-        <v>17.060260985992631</v>
+        <v>12.205020553164481</v>
       </c>
     </row>
     <row r="603" spans="11:12">
@@ -5868,7 +5871,7 @@
         <v>601</v>
       </c>
       <c r="L603">
-        <v>15.824442015335418</v>
+        <v>15.664077743089567</v>
       </c>
     </row>
     <row r="604" spans="11:12">
@@ -5876,7 +5879,7 @@
         <v>602</v>
       </c>
       <c r="L604">
-        <v>15.429004012672083</v>
+        <v>15.814548795402654</v>
       </c>
     </row>
     <row r="605" spans="11:12">
@@ -5884,7 +5887,7 @@
         <v>603</v>
       </c>
       <c r="L605">
-        <v>15.839494426848002</v>
+        <v>14.662670675690428</v>
       </c>
     </row>
     <row r="606" spans="11:12">
@@ -5892,7 +5895,7 @@
         <v>604</v>
       </c>
       <c r="L606">
-        <v>17.786944681358175</v>
+        <v>13.87363403890844</v>
       </c>
     </row>
     <row r="607" spans="11:12">
@@ -5900,7 +5903,7 @@
         <v>605</v>
       </c>
       <c r="L607">
-        <v>11.708787924955269</v>
+        <v>15.348696434160082</v>
       </c>
     </row>
     <row r="608" spans="11:12">
@@ -5908,7 +5911,7 @@
         <v>606</v>
       </c>
       <c r="L608">
-        <v>13.941945359033632</v>
+        <v>14.628556214786396</v>
       </c>
     </row>
     <row r="609" spans="11:12">
@@ -5916,7 +5919,7 @@
         <v>607</v>
       </c>
       <c r="L609">
-        <v>13.131448420834367</v>
+        <v>10.298722310518396</v>
       </c>
     </row>
     <row r="610" spans="11:12">
@@ -5924,7 +5927,7 @@
         <v>608</v>
       </c>
       <c r="L610">
-        <v>12.842666003686723</v>
+        <v>16.156038384382846</v>
       </c>
     </row>
     <row r="611" spans="11:12">
@@ -5932,7 +5935,7 @@
         <v>609</v>
       </c>
       <c r="L611">
-        <v>11.883870681391537</v>
+        <v>14.498787430136469</v>
       </c>
     </row>
     <row r="612" spans="11:12">
@@ -5940,7 +5943,7 @@
         <v>610</v>
       </c>
       <c r="L612">
-        <v>16.748543255661978</v>
+        <v>13.007374940216295</v>
       </c>
     </row>
     <row r="613" spans="11:12">
@@ -5948,7 +5951,7 @@
         <v>611</v>
       </c>
       <c r="L613">
-        <v>16.81459517402358</v>
+        <v>15.60831123517011</v>
       </c>
     </row>
     <row r="614" spans="11:12">
@@ -5956,7 +5959,7 @@
         <v>612</v>
       </c>
       <c r="L614">
-        <v>12.09464275773469</v>
+        <v>18.211978044587138</v>
       </c>
     </row>
     <row r="615" spans="11:12">
@@ -5964,7 +5967,7 @@
         <v>613</v>
       </c>
       <c r="L615">
-        <v>13.923213376933102</v>
+        <v>14.144687342034356</v>
       </c>
     </row>
     <row r="616" spans="11:12">
@@ -5972,7 +5975,7 @@
         <v>614</v>
       </c>
       <c r="L616">
-        <v>16.560451652296251</v>
+        <v>17.359110684235965</v>
       </c>
     </row>
     <row r="617" spans="11:12">
@@ -5980,7 +5983,7 @@
         <v>615</v>
       </c>
       <c r="L617">
-        <v>14.43399848526542</v>
+        <v>15.01335338350966</v>
       </c>
     </row>
     <row r="618" spans="11:12">
@@ -5988,7 +5991,7 @@
         <v>616</v>
       </c>
       <c r="L618">
-        <v>11.930486035513658</v>
+        <v>15.010734339013602</v>
       </c>
     </row>
     <row r="619" spans="11:12">
@@ -5996,7 +5999,7 @@
         <v>617</v>
       </c>
       <c r="L619">
-        <v>15.427821409008295</v>
+        <v>13.448558248720065</v>
       </c>
     </row>
     <row r="620" spans="11:12">
@@ -6004,7 +6007,7 @@
         <v>618</v>
       </c>
       <c r="L620">
-        <v>16.238868113854068</v>
+        <v>15.879041562475102</v>
       </c>
     </row>
     <row r="621" spans="11:12">
@@ -6012,7 +6015,7 @@
         <v>619</v>
       </c>
       <c r="L621">
-        <v>16.334206044864445</v>
+        <v>17.390416100328967</v>
       </c>
     </row>
     <row r="622" spans="11:12">
@@ -6020,7 +6023,7 @@
         <v>620</v>
       </c>
       <c r="L622">
-        <v>17.700987799761066</v>
+        <v>15.905113884098419</v>
       </c>
     </row>
     <row r="623" spans="11:12">
@@ -6028,7 +6031,7 @@
         <v>621</v>
       </c>
       <c r="L623">
-        <v>13.257646476678977</v>
+        <v>12.519355788598464</v>
       </c>
     </row>
     <row r="624" spans="11:12">
@@ -6036,7 +6039,7 @@
         <v>622</v>
       </c>
       <c r="L624">
-        <v>15.207016226690643</v>
+        <v>10.530001179685833</v>
       </c>
     </row>
     <row r="625" spans="11:12">
@@ -6044,7 +6047,7 @@
         <v>623</v>
       </c>
       <c r="L625">
-        <v>14.151673358040398</v>
+        <v>15.477936302131813</v>
       </c>
     </row>
     <row r="626" spans="11:12">
@@ -6052,7 +6055,7 @@
         <v>624</v>
       </c>
       <c r="L626">
-        <v>15.483543544693083</v>
+        <v>14.142601836569167</v>
       </c>
     </row>
     <row r="627" spans="11:12">
@@ -6060,7 +6063,7 @@
         <v>625</v>
       </c>
       <c r="L627">
-        <v>15.503480003076174</v>
+        <v>15.621971900813836</v>
       </c>
     </row>
     <row r="628" spans="11:12">
@@ -6068,7 +6071,7 @@
         <v>626</v>
       </c>
       <c r="L628">
-        <v>11.897034171969622</v>
+        <v>11.665983163714657</v>
       </c>
     </row>
     <row r="629" spans="11:12">
@@ -6076,7 +6079,7 @@
         <v>627</v>
       </c>
       <c r="L629">
-        <v>14.438076502920751</v>
+        <v>13.589597600592688</v>
       </c>
     </row>
     <row r="630" spans="11:12">
@@ -6084,7 +6087,7 @@
         <v>628</v>
       </c>
       <c r="L630">
-        <v>17.075317493079226</v>
+        <v>15.845140064933954</v>
       </c>
     </row>
     <row r="631" spans="11:12">
@@ -6092,7 +6095,7 @@
         <v>629</v>
       </c>
       <c r="L631">
-        <v>15.325762809214098</v>
+        <v>10.418006873402463</v>
       </c>
     </row>
     <row r="632" spans="11:12">
@@ -6100,7 +6103,7 @@
         <v>630</v>
       </c>
       <c r="L632">
-        <v>11.64769288302146</v>
+        <v>17.531904575588879</v>
       </c>
     </row>
     <row r="633" spans="11:12">
@@ -6108,7 +6111,7 @@
         <v>631</v>
       </c>
       <c r="L633">
-        <v>16.076870700559191</v>
+        <v>12.266848800324317</v>
       </c>
     </row>
     <row r="634" spans="11:12">
@@ -6116,7 +6119,7 @@
         <v>632</v>
       </c>
       <c r="L634">
-        <v>16.618965385320401</v>
+        <v>15.271549573020254</v>
       </c>
     </row>
     <row r="635" spans="11:12">
@@ -6124,7 +6127,7 @@
         <v>633</v>
       </c>
       <c r="L635">
-        <v>14.635865744508731</v>
+        <v>13.631783575496376</v>
       </c>
     </row>
     <row r="636" spans="11:12">
@@ -6132,7 +6135,7 @@
         <v>634</v>
       </c>
       <c r="L636">
-        <v>15.818733742235487</v>
+        <v>15.035873954289142</v>
       </c>
     </row>
     <row r="637" spans="11:12">
@@ -6140,7 +6143,7 @@
         <v>635</v>
       </c>
       <c r="L637">
-        <v>14.63178527991572</v>
+        <v>11.214149348373713</v>
       </c>
     </row>
     <row r="638" spans="11:12">
@@ -6148,7 +6151,7 @@
         <v>636</v>
       </c>
       <c r="L638">
-        <v>18.024721319899548</v>
+        <v>14.07015570235567</v>
       </c>
     </row>
     <row r="639" spans="11:12">
@@ -6156,7 +6159,7 @@
         <v>637</v>
       </c>
       <c r="L639">
-        <v>14.269906803718083</v>
+        <v>13.895445472058773</v>
       </c>
     </row>
     <row r="640" spans="11:12">
@@ -6164,7 +6167,7 @@
         <v>638</v>
       </c>
       <c r="L640">
-        <v>11.935746747219058</v>
+        <v>16.856329719279945</v>
       </c>
     </row>
     <row r="641" spans="11:12">
@@ -6172,7 +6175,7 @@
         <v>639</v>
       </c>
       <c r="L641">
-        <v>12.458971791581725</v>
+        <v>12.800318162216202</v>
       </c>
     </row>
     <row r="642" spans="11:12">
@@ -6180,7 +6183,7 @@
         <v>640</v>
       </c>
       <c r="L642">
-        <v>17.060799994183704</v>
+        <v>15.882508562030967</v>
       </c>
     </row>
     <row r="643" spans="11:12">
@@ -6188,7 +6191,7 @@
         <v>641</v>
       </c>
       <c r="L643">
-        <v>14.215854538303706</v>
+        <v>16.177438955489773</v>
       </c>
     </row>
     <row r="644" spans="11:12">
@@ -6196,7 +6199,7 @@
         <v>642</v>
       </c>
       <c r="L644">
-        <v>10.15500767486173</v>
+        <v>16.292887149364656</v>
       </c>
     </row>
     <row r="645" spans="11:12">
@@ -6204,7 +6207,7 @@
         <v>643</v>
       </c>
       <c r="L645">
-        <v>13.494376945779962</v>
+        <v>13.962229747252163</v>
       </c>
     </row>
     <row r="646" spans="11:12">
@@ -6212,7 +6215,7 @@
         <v>644</v>
       </c>
       <c r="L646">
-        <v>14.174673209473221</v>
+        <v>15.786917649913711</v>
       </c>
     </row>
     <row r="647" spans="11:12">
@@ -6220,7 +6223,7 @@
         <v>645</v>
       </c>
       <c r="L647">
-        <v>12.19018039333354</v>
+        <v>13.437401372849106</v>
       </c>
     </row>
     <row r="648" spans="11:12">
@@ -6228,7 +6231,7 @@
         <v>646</v>
       </c>
       <c r="L648">
-        <v>15.863032104219766</v>
+        <v>9.8785179507505312</v>
       </c>
     </row>
     <row r="649" spans="11:12">
@@ -6236,7 +6239,7 @@
         <v>647</v>
       </c>
       <c r="L649">
-        <v>13.723030734127516</v>
+        <v>19.710459413002841</v>
       </c>
     </row>
     <row r="650" spans="11:12">
@@ -6244,7 +6247,7 @@
         <v>648</v>
       </c>
       <c r="L650">
-        <v>17.097404062164994</v>
+        <v>13.494649253430079</v>
       </c>
     </row>
     <row r="651" spans="11:12">
@@ -6252,7 +6255,7 @@
         <v>649</v>
       </c>
       <c r="L651">
-        <v>18.997578366302598</v>
+        <v>9.8481993875077407</v>
       </c>
     </row>
     <row r="652" spans="11:12">
@@ -6260,7 +6263,7 @@
         <v>650</v>
       </c>
       <c r="L652">
-        <v>10.866010565360344</v>
+        <v>12.316675807219678</v>
       </c>
     </row>
     <row r="653" spans="11:12">
@@ -6268,7 +6271,7 @@
         <v>651</v>
       </c>
       <c r="L653">
-        <v>15.306078670935696</v>
+        <v>12.116761216140226</v>
       </c>
     </row>
     <row r="654" spans="11:12">
@@ -6276,7 +6279,7 @@
         <v>652</v>
       </c>
       <c r="L654">
-        <v>12.715393289030583</v>
+        <v>12.924871675644452</v>
       </c>
     </row>
     <row r="655" spans="11:12">
@@ -6284,7 +6287,7 @@
         <v>653</v>
       </c>
       <c r="L655">
-        <v>14.857303727173495</v>
+        <v>17.043553103127735</v>
       </c>
     </row>
     <row r="656" spans="11:12">
@@ -6292,7 +6295,7 @@
         <v>654</v>
       </c>
       <c r="L656">
-        <v>15.076403383529549</v>
+        <v>14.000146889093365</v>
       </c>
     </row>
     <row r="657" spans="11:12">
@@ -6300,7 +6303,7 @@
         <v>655</v>
       </c>
       <c r="L657">
-        <v>16.514544712748826</v>
+        <v>18.357771310574091</v>
       </c>
     </row>
     <row r="658" spans="11:12">
@@ -6308,7 +6311,7 @@
         <v>656</v>
       </c>
       <c r="L658">
-        <v>13.913712807291875</v>
+        <v>13.774015071664262</v>
       </c>
     </row>
     <row r="659" spans="11:12">
@@ -6316,7 +6319,7 @@
         <v>657</v>
       </c>
       <c r="L659">
-        <v>14.873928175456008</v>
+        <v>15.246070176648281</v>
       </c>
     </row>
     <row r="660" spans="11:12">
@@ -6324,7 +6327,7 @@
         <v>658</v>
       </c>
       <c r="L660">
-        <v>10.52467551966536</v>
+        <v>15.926696879539973</v>
       </c>
     </row>
     <row r="661" spans="11:12">
@@ -6332,7 +6335,7 @@
         <v>659</v>
       </c>
       <c r="L661">
-        <v>13.892311324357102</v>
+        <v>16.848382700068008</v>
       </c>
     </row>
     <row r="662" spans="11:12">
@@ -6340,7 +6343,7 @@
         <v>660</v>
       </c>
       <c r="L662">
-        <v>13.833205141979043</v>
+        <v>17.944180198298373</v>
       </c>
     </row>
     <row r="663" spans="11:12">
@@ -6348,7 +6351,7 @@
         <v>661</v>
       </c>
       <c r="L663">
-        <v>16.112813199215189</v>
+        <v>12.903101371562707</v>
       </c>
     </row>
     <row r="664" spans="11:12">
@@ -6356,7 +6359,7 @@
         <v>662</v>
       </c>
       <c r="L664">
-        <v>16.703864212526543</v>
+        <v>11.920194105846644</v>
       </c>
     </row>
     <row r="665" spans="11:12">
@@ -6364,7 +6367,7 @@
         <v>663</v>
       </c>
       <c r="L665">
-        <v>16.48635114783189</v>
+        <v>14.139416727495377</v>
       </c>
     </row>
     <row r="666" spans="11:12">
@@ -6372,7 +6375,7 @@
         <v>664</v>
       </c>
       <c r="L666">
-        <v>16.915804511472047</v>
+        <v>13.839949689895368</v>
       </c>
     </row>
     <row r="667" spans="11:12">
@@ -6380,7 +6383,7 @@
         <v>665</v>
       </c>
       <c r="L667">
-        <v>17.491118800365786</v>
+        <v>15.24582968176041</v>
       </c>
     </row>
     <row r="668" spans="11:12">
@@ -6388,7 +6391,7 @@
         <v>666</v>
       </c>
       <c r="L668">
-        <v>13.990272302828027</v>
+        <v>16.695658891538972</v>
       </c>
     </row>
     <row r="669" spans="11:12">
@@ -6396,7 +6399,7 @@
         <v>667</v>
       </c>
       <c r="L669">
-        <v>16.06062842516722</v>
+        <v>17.410949368384614</v>
       </c>
     </row>
     <row r="670" spans="11:12">
@@ -6404,7 +6407,7 @@
         <v>668</v>
       </c>
       <c r="L670">
-        <v>15.780146554438232</v>
+        <v>17.503875562451292</v>
       </c>
     </row>
     <row r="671" spans="11:12">
@@ -6412,7 +6415,7 @@
         <v>669</v>
       </c>
       <c r="L671">
-        <v>13.567413242494125</v>
+        <v>15.730621621369222</v>
       </c>
     </row>
     <row r="672" spans="11:12">
@@ -6420,7 +6423,7 @@
         <v>670</v>
       </c>
       <c r="L672">
-        <v>15.408205381175708</v>
+        <v>13.941036403307411</v>
       </c>
     </row>
     <row r="673" spans="11:12">
@@ -6428,7 +6431,7 @@
         <v>671</v>
       </c>
       <c r="L673">
-        <v>17.701870052939476</v>
+        <v>12.221431806893797</v>
       </c>
     </row>
     <row r="674" spans="11:12">
@@ -6436,7 +6439,7 @@
         <v>672</v>
       </c>
       <c r="L674">
-        <v>16.661111609071707</v>
+        <v>10.946429523689627</v>
       </c>
     </row>
     <row r="675" spans="11:12">
@@ -6444,7 +6447,7 @@
         <v>673</v>
       </c>
       <c r="L675">
-        <v>15.790516594963027</v>
+        <v>12.400470232720792</v>
       </c>
     </row>
     <row r="676" spans="11:12">
@@ -6452,7 +6455,7 @@
         <v>674</v>
       </c>
       <c r="L676">
-        <v>12.136561796418427</v>
+        <v>13.410875216033597</v>
       </c>
     </row>
     <row r="677" spans="11:12">
@@ -6460,7 +6463,7 @@
         <v>675</v>
       </c>
       <c r="L677">
-        <v>14.243141879456818</v>
+        <v>16.642934870367554</v>
       </c>
     </row>
     <row r="678" spans="11:12">
@@ -6468,7 +6471,7 @@
         <v>676</v>
       </c>
       <c r="L678">
-        <v>16.987486346598807</v>
+        <v>13.827107937442108</v>
       </c>
     </row>
     <row r="679" spans="11:12">
@@ -6476,7 +6479,7 @@
         <v>677</v>
       </c>
       <c r="L679">
-        <v>9.5025575531386792</v>
+        <v>17.407292869116091</v>
       </c>
     </row>
     <row r="680" spans="11:12">
@@ -6484,7 +6487,7 @@
         <v>678</v>
       </c>
       <c r="L680">
-        <v>10.618884750829109</v>
+        <v>15.441685534874484</v>
       </c>
     </row>
     <row r="681" spans="11:12">
@@ -6492,7 +6495,7 @@
         <v>679</v>
       </c>
       <c r="L681">
-        <v>16.26451967088617</v>
+        <v>15.455351310670169</v>
       </c>
     </row>
     <row r="682" spans="11:12">
@@ -6500,7 +6503,7 @@
         <v>680</v>
       </c>
       <c r="L682">
-        <v>16.058731205128133</v>
+        <v>16.203062907746641</v>
       </c>
     </row>
     <row r="683" spans="11:12">
@@ -6508,7 +6511,7 @@
         <v>681</v>
       </c>
       <c r="L683">
-        <v>15.05605387906189</v>
+        <v>12.520453726615855</v>
       </c>
     </row>
     <row r="684" spans="11:12">
@@ -6516,7 +6519,7 @@
         <v>682</v>
       </c>
       <c r="L684">
-        <v>10.660982303021967</v>
+        <v>14.201133651299152</v>
       </c>
     </row>
     <row r="685" spans="11:12">
@@ -6524,7 +6527,7 @@
         <v>683</v>
       </c>
       <c r="L685">
-        <v>14.619169322505233</v>
+        <v>14.820427752846163</v>
       </c>
     </row>
     <row r="686" spans="11:12">
@@ -6532,7 +6535,7 @@
         <v>684</v>
       </c>
       <c r="L686">
-        <v>15.110396460076526</v>
+        <v>16.940035899698319</v>
       </c>
     </row>
     <row r="687" spans="11:12">
@@ -6540,7 +6543,7 @@
         <v>685</v>
       </c>
       <c r="L687">
-        <v>14.102237090644575</v>
+        <v>12.854706400688041</v>
       </c>
     </row>
     <row r="688" spans="11:12">
@@ -6548,7 +6551,7 @@
         <v>686</v>
       </c>
       <c r="L688">
-        <v>16.92910284263742</v>
+        <v>17.418054763461541</v>
       </c>
     </row>
     <row r="689" spans="11:12">
@@ -6556,7 +6559,7 @@
         <v>687</v>
       </c>
       <c r="L689">
-        <v>14.76253478979098</v>
+        <v>16.122297505292561</v>
       </c>
     </row>
     <row r="690" spans="11:12">
@@ -6564,7 +6567,7 @@
         <v>688</v>
       </c>
       <c r="L690">
-        <v>15.639422699177139</v>
+        <v>14.776532424365435</v>
       </c>
     </row>
     <row r="691" spans="11:12">
@@ -6572,7 +6575,7 @@
         <v>689</v>
       </c>
       <c r="L691">
-        <v>14.768097205481046</v>
+        <v>16.963836002263108</v>
       </c>
     </row>
     <row r="692" spans="11:12">
@@ -6580,7 +6583,7 @@
         <v>690</v>
       </c>
       <c r="L692">
-        <v>14.716301726272736</v>
+        <v>16.487774186056022</v>
       </c>
     </row>
     <row r="693" spans="11:12">
@@ -6588,7 +6591,7 @@
         <v>691</v>
       </c>
       <c r="L693">
-        <v>15.801417458742332</v>
+        <v>13.881970278492052</v>
       </c>
     </row>
     <row r="694" spans="11:12">
@@ -6596,7 +6599,7 @@
         <v>692</v>
       </c>
       <c r="L694">
-        <v>15.843318304103505</v>
+        <v>14.061291837480177</v>
       </c>
     </row>
     <row r="695" spans="11:12">
@@ -6604,7 +6607,7 @@
         <v>693</v>
       </c>
       <c r="L695">
-        <v>12.301257358026586</v>
+        <v>15.606813768666349</v>
       </c>
     </row>
     <row r="696" spans="11:12">
@@ -6612,7 +6615,7 @@
         <v>694</v>
       </c>
       <c r="L696">
-        <v>15.641744101054252</v>
+        <v>13.536599141679648</v>
       </c>
     </row>
     <row r="697" spans="11:12">
@@ -6620,7 +6623,7 @@
         <v>695</v>
       </c>
       <c r="L697">
-        <v>16.655149554695782</v>
+        <v>11.490835138089116</v>
       </c>
     </row>
     <row r="698" spans="11:12">
@@ -6628,7 +6631,7 @@
         <v>696</v>
       </c>
       <c r="L698">
-        <v>12.261052374413252</v>
+        <v>12.027545098465826</v>
       </c>
     </row>
     <row r="699" spans="11:12">
@@ -6636,7 +6639,7 @@
         <v>697</v>
       </c>
       <c r="L699">
-        <v>16.279001457610505</v>
+        <v>13.584247135958773</v>
       </c>
     </row>
     <row r="700" spans="11:12">
@@ -6644,7 +6647,7 @@
         <v>698</v>
       </c>
       <c r="L700">
-        <v>16.802594587525455</v>
+        <v>16.056993412469211</v>
       </c>
     </row>
     <row r="701" spans="11:12">
@@ -6652,7 +6655,7 @@
         <v>699</v>
       </c>
       <c r="L701">
-        <v>13.542518369020392</v>
+        <v>15.301193545208211</v>
       </c>
     </row>
     <row r="702" spans="11:12">
@@ -6660,7 +6663,7 @@
         <v>700</v>
       </c>
       <c r="L702">
-        <v>14.81126073187286</v>
+        <v>15.348646925881482</v>
       </c>
     </row>
     <row r="703" spans="11:12">
@@ -6668,7 +6671,7 @@
         <v>701</v>
       </c>
       <c r="L703">
-        <v>11.885936719007155</v>
+        <v>14.97612174422764</v>
       </c>
     </row>
     <row r="704" spans="11:12">
@@ -6676,7 +6679,7 @@
         <v>702</v>
       </c>
       <c r="L704">
-        <v>12.436507358921414</v>
+        <v>12.957003979432328</v>
       </c>
     </row>
     <row r="705" spans="11:12">
@@ -6684,7 +6687,7 @@
         <v>703</v>
       </c>
       <c r="L705">
-        <v>13.347074515419614</v>
+        <v>12.503068218927282</v>
       </c>
     </row>
     <row r="706" spans="11:12">
@@ -6692,7 +6695,7 @@
         <v>704</v>
       </c>
       <c r="L706">
-        <v>12.733233244168501</v>
+        <v>14.005007313356732</v>
       </c>
     </row>
     <row r="707" spans="11:12">
@@ -6700,7 +6703,7 @@
         <v>705</v>
       </c>
       <c r="L707">
-        <v>14.195061106137755</v>
+        <v>14.243820645809528</v>
       </c>
     </row>
     <row r="708" spans="11:12">
@@ -6708,7 +6711,7 @@
         <v>706</v>
       </c>
       <c r="L708">
-        <v>14.62917073571103</v>
+        <v>15.008434972256394</v>
       </c>
     </row>
     <row r="709" spans="11:12">
@@ -6716,7 +6719,7 @@
         <v>707</v>
       </c>
       <c r="L709">
-        <v>13.018965465241941</v>
+        <v>16.137012022429733</v>
       </c>
     </row>
     <row r="710" spans="11:12">
@@ -6724,7 +6727,7 @@
         <v>708</v>
       </c>
       <c r="L710">
-        <v>13.908088932066953</v>
+        <v>11.064330621504674</v>
       </c>
     </row>
     <row r="711" spans="11:12">
@@ -6732,7 +6735,7 @@
         <v>709</v>
       </c>
       <c r="L711">
-        <v>15.520105471283854</v>
+        <v>15.059674536346298</v>
       </c>
     </row>
     <row r="712" spans="11:12">
@@ -6740,7 +6743,7 @@
         <v>710</v>
       </c>
       <c r="L712">
-        <v>14.729362627938443</v>
+        <v>14.447362836537847</v>
       </c>
     </row>
     <row r="713" spans="11:12">
@@ -6748,7 +6751,7 @@
         <v>711</v>
       </c>
       <c r="L713">
-        <v>16.219853186265617</v>
+        <v>10.488516166853948</v>
       </c>
     </row>
     <row r="714" spans="11:12">
@@ -6756,7 +6759,7 @@
         <v>712</v>
       </c>
       <c r="L714">
-        <v>9.8495231325932604</v>
+        <v>12.842144885812054</v>
       </c>
     </row>
     <row r="715" spans="11:12">
@@ -6764,7 +6767,7 @@
         <v>713</v>
       </c>
       <c r="L715">
-        <v>10.506801251075778</v>
+        <v>15.208120752054285</v>
       </c>
     </row>
     <row r="716" spans="11:12">
@@ -6772,7 +6775,7 @@
         <v>714</v>
       </c>
       <c r="L716">
-        <v>14.145094692822312</v>
+        <v>16.60360011927078</v>
       </c>
     </row>
     <row r="717" spans="11:12">
@@ -6780,7 +6783,7 @@
         <v>715</v>
       </c>
       <c r="L717">
-        <v>13.864780125319637</v>
+        <v>11.956076751634779</v>
       </c>
     </row>
     <row r="718" spans="11:12">
@@ -6788,7 +6791,7 @@
         <v>716</v>
       </c>
       <c r="L718">
-        <v>10.649679228050175</v>
+        <v>14.012378519815115</v>
       </c>
     </row>
     <row r="719" spans="11:12">
@@ -6796,7 +6799,7 @@
         <v>717</v>
       </c>
       <c r="L719">
-        <v>13.838984478575703</v>
+        <v>15.590371555509446</v>
       </c>
     </row>
     <row r="720" spans="11:12">
@@ -6804,7 +6807,7 @@
         <v>718</v>
       </c>
       <c r="L720">
-        <v>16.106314580243886</v>
+        <v>11.003750299275303</v>
       </c>
     </row>
     <row r="721" spans="11:12">
@@ -6812,7 +6815,7 @@
         <v>719</v>
       </c>
       <c r="L721">
-        <v>16.106444806460125</v>
+        <v>15.236985362979544</v>
       </c>
     </row>
     <row r="722" spans="11:12">
@@ -6820,7 +6823,7 @@
         <v>720</v>
       </c>
       <c r="L722">
-        <v>13.956219537877075</v>
+        <v>14.859491634932871</v>
       </c>
     </row>
     <row r="723" spans="11:12">
@@ -6828,7 +6831,7 @@
         <v>721</v>
       </c>
       <c r="L723">
-        <v>16.528327119006086</v>
+        <v>16.967868674062888</v>
       </c>
     </row>
     <row r="724" spans="11:12">
@@ -6836,7 +6839,7 @@
         <v>722</v>
       </c>
       <c r="L724">
-        <v>16.364236337987787</v>
+        <v>12.854893097414884</v>
       </c>
     </row>
     <row r="725" spans="11:12">
@@ -6844,7 +6847,7 @@
         <v>723</v>
       </c>
       <c r="L725">
-        <v>18.288244829861448</v>
+        <v>11.897328728726471</v>
       </c>
     </row>
     <row r="726" spans="11:12">
@@ -6852,7 +6855,7 @@
         <v>724</v>
       </c>
       <c r="L726">
-        <v>12.375478920591053</v>
+        <v>14.518727750565176</v>
       </c>
     </row>
     <row r="727" spans="11:12">
@@ -6860,7 +6863,7 @@
         <v>725</v>
       </c>
       <c r="L727">
-        <v>15.256189215415443</v>
+        <v>16.229514636438612</v>
       </c>
     </row>
     <row r="728" spans="11:12">
@@ -6868,7 +6871,7 @@
         <v>726</v>
       </c>
       <c r="L728">
-        <v>15.17538901626709</v>
+        <v>14.399105008842067</v>
       </c>
     </row>
     <row r="729" spans="11:12">
@@ -6876,7 +6879,7 @@
         <v>727</v>
       </c>
       <c r="L729">
-        <v>14.021232027192992</v>
+        <v>17.125468205458439</v>
       </c>
     </row>
     <row r="730" spans="11:12">
@@ -6884,7 +6887,7 @@
         <v>728</v>
       </c>
       <c r="L730">
-        <v>18.448060873350961</v>
+        <v>18.889312270163913</v>
       </c>
     </row>
     <row r="731" spans="11:12">
@@ -6892,7 +6895,7 @@
         <v>729</v>
       </c>
       <c r="L731">
-        <v>16.503076883934614</v>
+        <v>14.758204043644724</v>
       </c>
     </row>
     <row r="732" spans="11:12">
@@ -6900,7 +6903,7 @@
         <v>730</v>
       </c>
       <c r="L732">
-        <v>17.619571293517357</v>
+        <v>17.054191421592808</v>
       </c>
     </row>
     <row r="733" spans="11:12">
@@ -6908,7 +6911,7 @@
         <v>731</v>
       </c>
       <c r="L733">
-        <v>13.873501981066539</v>
+        <v>15.963741107259279</v>
       </c>
     </row>
     <row r="734" spans="11:12">
@@ -6916,7 +6919,7 @@
         <v>732</v>
       </c>
       <c r="L734">
-        <v>14.667060236088878</v>
+        <v>12.761889547755359</v>
       </c>
     </row>
     <row r="735" spans="11:12">
@@ -6924,7 +6927,7 @@
         <v>733</v>
       </c>
       <c r="L735">
-        <v>16.088366975166835</v>
+        <v>10.909873666568277</v>
       </c>
     </row>
     <row r="736" spans="11:12">
@@ -6932,7 +6935,7 @@
         <v>734</v>
       </c>
       <c r="L736">
-        <v>14.674831520496626</v>
+        <v>7.8722343617103796</v>
       </c>
     </row>
     <row r="737" spans="11:12">
@@ -6940,7 +6943,7 @@
         <v>735</v>
       </c>
       <c r="L737">
-        <v>13.664492696396938</v>
+        <v>15.866002796253616</v>
       </c>
     </row>
     <row r="738" spans="11:12">
@@ -6948,7 +6951,7 @@
         <v>736</v>
       </c>
       <c r="L738">
-        <v>15.893135074694133</v>
+        <v>14.095553999430557</v>
       </c>
     </row>
     <row r="739" spans="11:12">
@@ -6956,7 +6959,7 @@
         <v>737</v>
       </c>
       <c r="L739">
-        <v>16.721844745800897</v>
+        <v>15.61999617104321</v>
       </c>
     </row>
     <row r="740" spans="11:12">
@@ -6964,7 +6967,7 @@
         <v>738</v>
       </c>
       <c r="L740">
-        <v>16.590523396708171</v>
+        <v>12.723106101887819</v>
       </c>
     </row>
     <row r="741" spans="11:12">
@@ -6972,7 +6975,7 @@
         <v>739</v>
       </c>
       <c r="L741">
-        <v>11.197407436218908</v>
+        <v>11.851695660316333</v>
       </c>
     </row>
     <row r="742" spans="11:12">
@@ -6980,7 +6983,7 @@
         <v>740</v>
       </c>
       <c r="L742">
-        <v>13.668543746559935</v>
+        <v>14.210788634160458</v>
       </c>
     </row>
     <row r="743" spans="11:12">
@@ -6988,7 +6991,7 @@
         <v>741</v>
       </c>
       <c r="L743">
-        <v>15.884828060023706</v>
+        <v>14.590976468511142</v>
       </c>
     </row>
     <row r="744" spans="11:12">
@@ -6996,7 +6999,7 @@
         <v>742</v>
       </c>
       <c r="L744">
-        <v>12.674576731214856</v>
+        <v>13.370273978379128</v>
       </c>
     </row>
     <row r="745" spans="11:12">
@@ -7004,7 +7007,7 @@
         <v>743</v>
       </c>
       <c r="L745">
-        <v>7.4591034379005654</v>
+        <v>14.505934291158006</v>
       </c>
     </row>
     <row r="746" spans="11:12">
@@ -7012,7 +7015,7 @@
         <v>744</v>
       </c>
       <c r="L746">
-        <v>16.418335147592131</v>
+        <v>17.630166861128572</v>
       </c>
     </row>
     <row r="747" spans="11:12">
@@ -7020,7 +7023,7 @@
         <v>745</v>
       </c>
       <c r="L747">
-        <v>15.008308574130925</v>
+        <v>9.1865163125172007</v>
       </c>
     </row>
     <row r="748" spans="11:12">
@@ -7028,7 +7031,7 @@
         <v>746</v>
       </c>
       <c r="L748">
-        <v>15.446612237265089</v>
+        <v>11.62033095468084</v>
       </c>
     </row>
     <row r="749" spans="11:12">
@@ -7036,7 +7039,7 @@
         <v>747</v>
       </c>
       <c r="L749">
-        <v>13.77359539554225</v>
+        <v>13.738711640017403</v>
       </c>
     </row>
     <row r="750" spans="11:12">
@@ -7044,7 +7047,7 @@
         <v>748</v>
       </c>
       <c r="L750">
-        <v>13.656065713610825</v>
+        <v>14.244753081033167</v>
       </c>
     </row>
     <row r="751" spans="11:12">
@@ -7052,7 +7055,7 @@
         <v>749</v>
       </c>
       <c r="L751">
-        <v>11.491321489753428</v>
+        <v>17.473033418625032</v>
       </c>
     </row>
     <row r="752" spans="11:12">
@@ -7060,7 +7063,7 @@
         <v>750</v>
       </c>
       <c r="L752">
-        <v>13.622991864452532</v>
+        <v>17.802967249070537</v>
       </c>
     </row>
     <row r="753" spans="11:12">
@@ -7068,7 +7071,7 @@
         <v>751</v>
       </c>
       <c r="L753">
-        <v>13.544715399405376</v>
+        <v>12.753305742356057</v>
       </c>
     </row>
     <row r="754" spans="11:12">
@@ -7076,7 +7079,7 @@
         <v>752</v>
       </c>
       <c r="L754">
-        <v>12.174304660159921</v>
+        <v>11.275878112518441</v>
       </c>
     </row>
     <row r="755" spans="11:12">
@@ -7084,7 +7087,7 @@
         <v>753</v>
       </c>
       <c r="L755">
-        <v>14.421626851334107</v>
+        <v>12.148390471002305</v>
       </c>
     </row>
     <row r="756" spans="11:12">
@@ -7092,7 +7095,7 @@
         <v>754</v>
       </c>
       <c r="L756">
-        <v>15.939905152537374</v>
+        <v>15.082693963642782</v>
       </c>
     </row>
     <row r="757" spans="11:12">
@@ -7100,7 +7103,7 @@
         <v>755</v>
       </c>
       <c r="L757">
-        <v>15.835701731888946</v>
+        <v>12.779093715841878</v>
       </c>
     </row>
     <row r="758" spans="11:12">
@@ -7108,7 +7111,7 @@
         <v>756</v>
       </c>
       <c r="L758">
-        <v>15.936589132400089</v>
+        <v>12.018738359442086</v>
       </c>
     </row>
     <row r="759" spans="11:12">
@@ -7116,7 +7119,7 @@
         <v>757</v>
       </c>
       <c r="L759">
-        <v>14.336823647082948</v>
+        <v>15.131643157734418</v>
       </c>
     </row>
     <row r="760" spans="11:12">
@@ -7124,7 +7127,7 @@
         <v>758</v>
       </c>
       <c r="L760">
-        <v>12.846479329605799</v>
+        <v>15.306806455805376</v>
       </c>
     </row>
     <row r="761" spans="11:12">
@@ -7132,7 +7135,7 @@
         <v>759</v>
       </c>
       <c r="L761">
-        <v>15.457380516187373</v>
+        <v>11.921868288456746</v>
       </c>
     </row>
     <row r="762" spans="11:12">
@@ -7140,7 +7143,7 @@
         <v>760</v>
       </c>
       <c r="L762">
-        <v>13.576727993483569</v>
+        <v>12.201456736500896</v>
       </c>
     </row>
     <row r="763" spans="11:12">
@@ -7148,7 +7151,7 @@
         <v>761</v>
       </c>
       <c r="L763">
-        <v>16.533890003302986</v>
+        <v>16.731803083560095</v>
       </c>
     </row>
     <row r="764" spans="11:12">
@@ -7156,7 +7159,7 @@
         <v>762</v>
       </c>
       <c r="L764">
-        <v>18.471105464132229</v>
+        <v>13.657168755550561</v>
       </c>
     </row>
     <row r="765" spans="11:12">
@@ -7164,7 +7167,7 @@
         <v>763</v>
       </c>
       <c r="L765">
-        <v>14.348856155881915</v>
+        <v>15.692328475601348</v>
       </c>
     </row>
     <row r="766" spans="11:12">
@@ -7172,7 +7175,7 @@
         <v>764</v>
       </c>
       <c r="L766">
-        <v>13.580569037848177</v>
+        <v>13.222040735498652</v>
       </c>
     </row>
     <row r="767" spans="11:12">
@@ -7180,7 +7183,7 @@
         <v>765</v>
       </c>
       <c r="L767">
-        <v>15.312768614004355</v>
+        <v>15.627878458790436</v>
       </c>
     </row>
     <row r="768" spans="11:12">
@@ -7188,7 +7191,7 @@
         <v>766</v>
       </c>
       <c r="L768">
-        <v>14.167882211424008</v>
+        <v>12.39165538237285</v>
       </c>
     </row>
     <row r="769" spans="11:12">
@@ -7196,7 +7199,7 @@
         <v>767</v>
       </c>
       <c r="L769">
-        <v>17.361389967248112</v>
+        <v>15.218753547286745</v>
       </c>
     </row>
     <row r="770" spans="11:12">
@@ -7204,7 +7207,7 @@
         <v>768</v>
       </c>
       <c r="L770">
-        <v>11.572205118482565</v>
+        <v>12.07228741853441</v>
       </c>
     </row>
     <row r="771" spans="11:12">
@@ -7212,7 +7215,7 @@
         <v>769</v>
       </c>
       <c r="L771">
-        <v>12.870701619279906</v>
+        <v>14.909141539611365</v>
       </c>
     </row>
     <row r="772" spans="11:12">
@@ -7220,7 +7223,7 @@
         <v>770</v>
       </c>
       <c r="L772">
-        <v>9.198515639854266</v>
+        <v>16.700314511416583</v>
       </c>
     </row>
     <row r="773" spans="11:12">
@@ -7228,7 +7231,7 @@
         <v>771</v>
       </c>
       <c r="L773">
-        <v>11.894851411231055</v>
+        <v>14.628991988715278</v>
       </c>
     </row>
     <row r="774" spans="11:12">
@@ -7236,7 +7239,7 @@
         <v>772</v>
       </c>
       <c r="L774">
-        <v>15.529850052942084</v>
+        <v>15.157617061847228</v>
       </c>
     </row>
     <row r="775" spans="11:12">
@@ -7244,7 +7247,7 @@
         <v>773</v>
       </c>
       <c r="L775">
-        <v>15.008200298621993</v>
+        <v>12.956959563459153</v>
       </c>
     </row>
     <row r="776" spans="11:12">
@@ -7252,7 +7255,7 @@
         <v>774</v>
       </c>
       <c r="L776">
-        <v>16.240153715876453</v>
+        <v>10.717895823176015</v>
       </c>
     </row>
     <row r="777" spans="11:12">
@@ -7260,7 +7263,7 @@
         <v>775</v>
       </c>
       <c r="L777">
-        <v>16.006084069296634</v>
+        <v>13.809054069799808</v>
       </c>
     </row>
     <row r="778" spans="11:12">
@@ -7268,7 +7271,7 @@
         <v>776</v>
       </c>
       <c r="L778">
-        <v>14.927687192430671</v>
+        <v>15.555443557172238</v>
       </c>
     </row>
     <row r="779" spans="11:12">
@@ -7276,7 +7279,7 @@
         <v>777</v>
       </c>
       <c r="L779">
-        <v>11.666300874243502</v>
+        <v>12.935598592284965</v>
       </c>
     </row>
     <row r="780" spans="11:12">
@@ -7284,7 +7287,7 @@
         <v>778</v>
       </c>
       <c r="L780">
-        <v>15.73289656821601</v>
+        <v>13.799108939616591</v>
       </c>
     </row>
     <row r="781" spans="11:12">
@@ -7292,7 +7295,7 @@
         <v>779</v>
       </c>
       <c r="L781">
-        <v>15.040846341415181</v>
+        <v>20.289005011219398</v>
       </c>
     </row>
     <row r="782" spans="11:12">
@@ -7300,7 +7303,7 @@
         <v>780</v>
       </c>
       <c r="L782">
-        <v>14.945955879298383</v>
+        <v>11.914390319743138</v>
       </c>
     </row>
     <row r="783" spans="11:12">
@@ -7308,7 +7311,7 @@
         <v>781</v>
       </c>
       <c r="L783">
-        <v>11.867584931123977</v>
+        <v>14.518148695785428</v>
       </c>
     </row>
     <row r="784" spans="11:12">
@@ -7316,7 +7319,7 @@
         <v>782</v>
       </c>
       <c r="L784">
-        <v>13.282357828343503</v>
+        <v>14.423469814310463</v>
       </c>
     </row>
     <row r="785" spans="11:12">
@@ -7324,7 +7327,7 @@
         <v>783</v>
       </c>
       <c r="L785">
-        <v>14.673390922591487</v>
+        <v>14.879396339115083</v>
       </c>
     </row>
     <row r="786" spans="11:12">
@@ -7332,7 +7335,7 @@
         <v>784</v>
       </c>
       <c r="L786">
-        <v>10.121298590486935</v>
+        <v>13.040556057487947</v>
       </c>
     </row>
     <row r="787" spans="11:12">
@@ -7340,7 +7343,7 @@
         <v>785</v>
       </c>
       <c r="L787">
-        <v>16.430151395619866</v>
+        <v>14.443110329640483</v>
       </c>
     </row>
     <row r="788" spans="11:12">
@@ -7348,7 +7351,7 @@
         <v>786</v>
       </c>
       <c r="L788">
-        <v>15.954125273978244</v>
+        <v>15.965870487411536</v>
       </c>
     </row>
     <row r="789" spans="11:12">
@@ -7356,7 +7359,7 @@
         <v>787</v>
       </c>
       <c r="L789">
-        <v>14.919123400614142</v>
+        <v>16.694196920282877</v>
       </c>
     </row>
     <row r="790" spans="11:12">
@@ -7364,7 +7367,7 @@
         <v>788</v>
       </c>
       <c r="L790">
-        <v>11.314468696414032</v>
+        <v>20.176795083760233</v>
       </c>
     </row>
     <row r="791" spans="11:12">
@@ -7372,7 +7375,7 @@
         <v>789</v>
       </c>
       <c r="L791">
-        <v>14.943471926046673</v>
+        <v>16.065659187857058</v>
       </c>
     </row>
     <row r="792" spans="11:12">
@@ -7380,7 +7383,7 @@
         <v>790</v>
       </c>
       <c r="L792">
-        <v>14.745876647260577</v>
+        <v>16.614011944286055</v>
       </c>
     </row>
     <row r="793" spans="11:12">
@@ -7388,7 +7391,7 @@
         <v>791</v>
       </c>
       <c r="L793">
-        <v>14.679552138033394</v>
+        <v>10.705339198143214</v>
       </c>
     </row>
     <row r="794" spans="11:12">
@@ -7396,7 +7399,7 @@
         <v>792</v>
       </c>
       <c r="L794">
-        <v>12.505087123126124</v>
+        <v>12.187672483034623</v>
       </c>
     </row>
     <row r="795" spans="11:12">
@@ -7404,7 +7407,7 @@
         <v>793</v>
       </c>
       <c r="L795">
-        <v>12.970300885725496</v>
+        <v>13.716473960133687</v>
       </c>
     </row>
     <row r="796" spans="11:12">
@@ -7412,7 +7415,7 @@
         <v>794</v>
       </c>
       <c r="L796">
-        <v>12.439025921788764</v>
+        <v>16.360437298853995</v>
       </c>
     </row>
     <row r="797" spans="11:12">
@@ -7420,7 +7423,7 @@
         <v>795</v>
       </c>
       <c r="L797">
-        <v>13.904107803447808</v>
+        <v>14.664584397481136</v>
       </c>
     </row>
     <row r="798" spans="11:12">
@@ -7428,7 +7431,7 @@
         <v>796</v>
       </c>
       <c r="L798">
-        <v>13.373178294127698</v>
+        <v>14.651399243147539</v>
       </c>
     </row>
     <row r="799" spans="11:12">
@@ -7436,7 +7439,7 @@
         <v>797</v>
       </c>
       <c r="L799">
-        <v>16.171569796171102</v>
+        <v>13.498789875540906</v>
       </c>
     </row>
     <row r="800" spans="11:12">
@@ -7444,7 +7447,7 @@
         <v>798</v>
       </c>
       <c r="L800">
-        <v>12.498242254625143</v>
+        <v>14.723469003275191</v>
       </c>
     </row>
     <row r="801" spans="11:12">
@@ -7452,7 +7455,7 @@
         <v>799</v>
       </c>
       <c r="L801">
-        <v>13.51441572249078</v>
+        <v>10.122484668833136</v>
       </c>
     </row>
     <row r="802" spans="11:12">
@@ -7460,7 +7463,7 @@
         <v>800</v>
       </c>
       <c r="L802">
-        <v>13.33595755494682</v>
+        <v>16.506859486397467</v>
       </c>
     </row>
     <row r="803" spans="11:12">
@@ -7468,7 +7471,7 @@
         <v>801</v>
       </c>
       <c r="L803">
-        <v>13.335509048521597</v>
+        <v>13.927142901456918</v>
       </c>
     </row>
     <row r="804" spans="11:12">
@@ -7476,7 +7479,7 @@
         <v>802</v>
       </c>
       <c r="L804">
-        <v>15.252875578595095</v>
+        <v>15.336490612651581</v>
       </c>
     </row>
     <row r="805" spans="11:12">
@@ -7484,7 +7487,7 @@
         <v>803</v>
       </c>
       <c r="L805">
-        <v>13.836708813703261</v>
+        <v>14.318799124297199</v>
       </c>
     </row>
     <row r="806" spans="11:12">
@@ -7492,7 +7495,7 @@
         <v>804</v>
       </c>
       <c r="L806">
-        <v>14.850714906707468</v>
+        <v>12.322424808768314</v>
       </c>
     </row>
     <row r="807" spans="11:12">
@@ -7500,7 +7503,7 @@
         <v>805</v>
       </c>
       <c r="L807">
-        <v>14.85303471847584</v>
+        <v>13.425607403781552</v>
       </c>
     </row>
     <row r="808" spans="11:12">
@@ -7508,7 +7511,7 @@
         <v>806</v>
       </c>
       <c r="L808">
-        <v>16.246082536364973</v>
+        <v>18.379670886498694</v>
       </c>
     </row>
     <row r="809" spans="11:12">
@@ -7516,7 +7519,7 @@
         <v>807</v>
       </c>
       <c r="L809">
-        <v>13.710063008031947</v>
+        <v>15.257965260195705</v>
       </c>
     </row>
     <row r="810" spans="11:12">
@@ -7524,7 +7527,7 @@
         <v>808</v>
       </c>
       <c r="L810">
-        <v>13.974351156082953</v>
+        <v>16.280208944265006</v>
       </c>
     </row>
     <row r="811" spans="11:12">
@@ -7532,7 +7535,7 @@
         <v>809</v>
       </c>
       <c r="L811">
-        <v>14.622655144591775</v>
+        <v>16.478917396263959</v>
       </c>
     </row>
     <row r="812" spans="11:12">
@@ -7540,7 +7543,7 @@
         <v>810</v>
       </c>
       <c r="L812">
-        <v>15.575576185850124</v>
+        <v>13.776227585748396</v>
       </c>
     </row>
     <row r="813" spans="11:12">
@@ -7548,7 +7551,7 @@
         <v>811</v>
       </c>
       <c r="L813">
-        <v>11.158338717837099</v>
+        <v>15.75506111658016</v>
       </c>
     </row>
     <row r="814" spans="11:12">
@@ -7556,7 +7559,7 @@
         <v>812</v>
       </c>
       <c r="L814">
-        <v>12.942789337278654</v>
+        <v>11.722250608626629</v>
       </c>
     </row>
     <row r="815" spans="11:12">
@@ -7564,7 +7567,7 @@
         <v>813</v>
       </c>
       <c r="L815">
-        <v>15.92751478329917</v>
+        <v>9.0060233997608528</v>
       </c>
     </row>
     <row r="816" spans="11:12">
@@ -7572,7 +7575,7 @@
         <v>814</v>
       </c>
       <c r="L816">
-        <v>9.8440238868153465</v>
+        <v>14.94769821272423</v>
       </c>
     </row>
     <row r="817" spans="11:12">
@@ -7580,7 +7583,7 @@
         <v>815</v>
       </c>
       <c r="L817">
-        <v>15.156964034346368</v>
+        <v>12.547248845250035</v>
       </c>
     </row>
     <row r="818" spans="11:12">
@@ -7588,7 +7591,7 @@
         <v>816</v>
       </c>
       <c r="L818">
-        <v>13.694737727738831</v>
+        <v>14.492604919267158</v>
       </c>
     </row>
     <row r="819" spans="11:12">
@@ -7596,7 +7599,7 @@
         <v>817</v>
       </c>
       <c r="L819">
-        <v>13.934628379967286</v>
+        <v>15.588958049725559</v>
       </c>
     </row>
     <row r="820" spans="11:12">
@@ -7604,7 +7607,7 @@
         <v>818</v>
       </c>
       <c r="L820">
-        <v>12.890821557239772</v>
+        <v>15.020565122070899</v>
       </c>
     </row>
     <row r="821" spans="11:12">
@@ -7612,7 +7615,7 @@
         <v>819</v>
       </c>
       <c r="L821">
-        <v>15.540843829912413</v>
+        <v>13.953274016117849</v>
       </c>
     </row>
     <row r="822" spans="11:12">
@@ -7620,7 +7623,7 @@
         <v>820</v>
       </c>
       <c r="L822">
-        <v>16.113132128874678</v>
+        <v>12.802616995233979</v>
       </c>
     </row>
     <row r="823" spans="11:12">
@@ -7628,7 +7631,7 @@
         <v>821</v>
       </c>
       <c r="L823">
-        <v>14.059742699965449</v>
+        <v>14.962775171456524</v>
       </c>
     </row>
     <row r="824" spans="11:12">
@@ -7636,7 +7639,7 @@
         <v>822</v>
       </c>
       <c r="L824">
-        <v>13.68027316476693</v>
+        <v>17.57946071574224</v>
       </c>
     </row>
     <row r="825" spans="11:12">
@@ -7644,7 +7647,7 @@
         <v>823</v>
       </c>
       <c r="L825">
-        <v>13.218567891371997</v>
+        <v>16.854658520422404</v>
       </c>
     </row>
     <row r="826" spans="11:12">
@@ -7652,7 +7655,7 @@
         <v>824</v>
       </c>
       <c r="L826">
-        <v>14.161194860342277</v>
+        <v>15.230942724015765</v>
       </c>
     </row>
     <row r="827" spans="11:12">
@@ -7660,7 +7663,7 @@
         <v>825</v>
       </c>
       <c r="L827">
-        <v>15.41205458411617</v>
+        <v>15.664170196135341</v>
       </c>
     </row>
     <row r="828" spans="11:12">
@@ -7668,7 +7671,7 @@
         <v>826</v>
       </c>
       <c r="L828">
-        <v>15.392817457476626</v>
+        <v>14.012524506606155</v>
       </c>
     </row>
     <row r="829" spans="11:12">
@@ -7676,7 +7679,7 @@
         <v>827</v>
       </c>
       <c r="L829">
-        <v>13.437790324506798</v>
+        <v>13.371655697990258</v>
       </c>
     </row>
     <row r="830" spans="11:12">
@@ -7684,7 +7687,7 @@
         <v>828</v>
       </c>
       <c r="L830">
-        <v>11.615325423218229</v>
+        <v>12.163722590664735</v>
       </c>
     </row>
     <row r="831" spans="11:12">
@@ -7692,7 +7695,7 @@
         <v>829</v>
       </c>
       <c r="L831">
-        <v>19.912001586094924</v>
+        <v>17.487913769215471</v>
       </c>
     </row>
     <row r="832" spans="11:12">
@@ -7700,7 +7703,7 @@
         <v>830</v>
       </c>
       <c r="L832">
-        <v>16.26597901120757</v>
+        <v>15.049760870479615</v>
       </c>
     </row>
     <row r="833" spans="11:12">
@@ -7708,7 +7711,7 @@
         <v>831</v>
       </c>
       <c r="L833">
-        <v>13.118247341210175</v>
+        <v>16.54449676387798</v>
       </c>
     </row>
     <row r="834" spans="11:12">
@@ -7716,7 +7719,7 @@
         <v>832</v>
       </c>
       <c r="L834">
-        <v>16.947124592826633</v>
+        <v>15.604250581424955</v>
       </c>
     </row>
     <row r="835" spans="11:12">
@@ -7724,7 +7727,7 @@
         <v>833</v>
       </c>
       <c r="L835">
-        <v>16.772813276628348</v>
+        <v>17.387260474699627</v>
       </c>
     </row>
     <row r="836" spans="11:12">
@@ -7732,7 +7735,7 @@
         <v>834</v>
       </c>
       <c r="L836">
-        <v>12.981149198665083</v>
+        <v>13.615351463863735</v>
       </c>
     </row>
     <row r="837" spans="11:12">
@@ -7740,7 +7743,7 @@
         <v>835</v>
       </c>
       <c r="L837">
-        <v>16.806564452399957</v>
+        <v>10.757213285449691</v>
       </c>
     </row>
     <row r="838" spans="11:12">
@@ -7748,7 +7751,7 @@
         <v>836</v>
       </c>
       <c r="L838">
-        <v>16.638457938904665</v>
+        <v>12.40383821979168</v>
       </c>
     </row>
     <row r="839" spans="11:12">
@@ -7756,7 +7759,7 @@
         <v>837</v>
       </c>
       <c r="L839">
-        <v>13.244935253954409</v>
+        <v>17.040349756883288</v>
       </c>
     </row>
     <row r="840" spans="11:12">
@@ -7764,7 +7767,7 @@
         <v>838</v>
       </c>
       <c r="L840">
-        <v>16.631571348418795</v>
+        <v>15.029345047181678</v>
       </c>
     </row>
     <row r="841" spans="11:12">
@@ -7772,7 +7775,7 @@
         <v>839</v>
       </c>
       <c r="L841">
-        <v>15.989956908375685</v>
+        <v>9.2405258596071906</v>
       </c>
     </row>
     <row r="842" spans="11:12">
@@ -7780,7 +7783,7 @@
         <v>840</v>
       </c>
       <c r="L842">
-        <v>19.551068209628408</v>
+        <v>17.968908646528497</v>
       </c>
     </row>
     <row r="843" spans="11:12">
@@ -7788,7 +7791,7 @@
         <v>841</v>
       </c>
       <c r="L843">
-        <v>15.576315282991501</v>
+        <v>16.948474573244717</v>
       </c>
     </row>
     <row r="844" spans="11:12">
@@ -7796,7 +7799,7 @@
         <v>842</v>
       </c>
       <c r="L844">
-        <v>15.171976445356256</v>
+        <v>13.681707944598937</v>
       </c>
     </row>
     <row r="845" spans="11:12">
@@ -7804,7 +7807,7 @@
         <v>843</v>
       </c>
       <c r="L845">
-        <v>15.680344808235452</v>
+        <v>13.371221520150348</v>
       </c>
     </row>
     <row r="846" spans="11:12">
@@ -7812,7 +7815,7 @@
         <v>844</v>
       </c>
       <c r="L846">
-        <v>14.629754819874508</v>
+        <v>16.440057613191684</v>
       </c>
     </row>
     <row r="847" spans="11:12">
@@ -7820,7 +7823,7 @@
         <v>845</v>
       </c>
       <c r="L847">
-        <v>12.736075660169943</v>
+        <v>12.601429496790308</v>
       </c>
     </row>
     <row r="848" spans="11:12">
@@ -7828,7 +7831,7 @@
         <v>846</v>
       </c>
       <c r="L848">
-        <v>12.860229529748985</v>
+        <v>17.643151892092799</v>
       </c>
     </row>
     <row r="849" spans="11:12">
@@ -7836,7 +7839,7 @@
         <v>847</v>
       </c>
       <c r="L849">
-        <v>14.225764931750575</v>
+        <v>15.026825931067231</v>
       </c>
     </row>
     <row r="850" spans="11:12">
@@ -7844,7 +7847,7 @@
         <v>848</v>
       </c>
       <c r="L850">
-        <v>13.035835995818676</v>
+        <v>11.306025832698424</v>
       </c>
     </row>
     <row r="851" spans="11:12">
@@ -7852,7 +7855,7 @@
         <v>849</v>
       </c>
       <c r="L851">
-        <v>16.597220122045172</v>
+        <v>14.439277524746814</v>
       </c>
     </row>
     <row r="852" spans="11:12">
@@ -7860,7 +7863,7 @@
         <v>850</v>
       </c>
       <c r="L852">
-        <v>9.503717316053276</v>
+        <v>16.148610898657505</v>
       </c>
     </row>
     <row r="853" spans="11:12">
@@ -7868,7 +7871,7 @@
         <v>851</v>
       </c>
       <c r="L853">
-        <v>16.502856723611274</v>
+        <v>14.69267807516021</v>
       </c>
     </row>
     <row r="854" spans="11:12">
@@ -7876,7 +7879,7 @@
         <v>852</v>
       </c>
       <c r="L854">
-        <v>16.402107252029857</v>
+        <v>14.646299252072208</v>
       </c>
     </row>
     <row r="855" spans="11:12">
@@ -7884,7 +7887,7 @@
         <v>853</v>
       </c>
       <c r="L855">
-        <v>15.996618433285578</v>
+        <v>16.710831419841632</v>
       </c>
     </row>
     <row r="856" spans="11:12">
@@ -7892,7 +7895,7 @@
         <v>854</v>
       </c>
       <c r="L856">
-        <v>10.779604064840472</v>
+        <v>14.947215658404966</v>
       </c>
     </row>
     <row r="857" spans="11:12">
@@ -7900,7 +7903,7 @@
         <v>855</v>
       </c>
       <c r="L857">
-        <v>14.397695746760435</v>
+        <v>14.677368596878962</v>
       </c>
     </row>
     <row r="858" spans="11:12">
@@ -7908,7 +7911,7 @@
         <v>856</v>
       </c>
       <c r="L858">
-        <v>10.534868960958882</v>
+        <v>14.058426227106732</v>
       </c>
     </row>
     <row r="859" spans="11:12">
@@ -7916,7 +7919,7 @@
         <v>857</v>
       </c>
       <c r="L859">
-        <v>13.247459458923107</v>
+        <v>11.786620800617998</v>
       </c>
     </row>
     <row r="860" spans="11:12">
@@ -7924,7 +7927,7 @@
         <v>858</v>
       </c>
       <c r="L860">
-        <v>14.785119801023871</v>
+        <v>14.467292129720242</v>
       </c>
     </row>
     <row r="861" spans="11:12">
@@ -7932,7 +7935,7 @@
         <v>859</v>
       </c>
       <c r="L861">
-        <v>9.0686344792221103</v>
+        <v>13.97156110790274</v>
       </c>
     </row>
     <row r="862" spans="11:12">
@@ -7940,7 +7943,7 @@
         <v>860</v>
       </c>
       <c r="L862">
-        <v>14.478475905849564</v>
+        <v>15.2886348200004</v>
       </c>
     </row>
     <row r="863" spans="11:12">
@@ -7948,7 +7951,7 @@
         <v>861</v>
       </c>
       <c r="L863">
-        <v>13.592624421152319</v>
+        <v>10.558279807422014</v>
       </c>
     </row>
     <row r="864" spans="11:12">
@@ -7956,7 +7959,7 @@
         <v>862</v>
       </c>
       <c r="L864">
-        <v>14.720820308461892</v>
+        <v>11.502741401929606</v>
       </c>
     </row>
     <row r="865" spans="11:12">
@@ -7964,7 +7967,7 @@
         <v>863</v>
       </c>
       <c r="L865">
-        <v>14.961815535993789</v>
+        <v>10.955693249693388</v>
       </c>
     </row>
     <row r="866" spans="11:12">
@@ -7972,7 +7975,7 @@
         <v>864</v>
       </c>
       <c r="L866">
-        <v>15.61742532575775</v>
+        <v>13.601427093756463</v>
       </c>
     </row>
     <row r="867" spans="11:12">
@@ -7980,7 +7983,7 @@
         <v>865</v>
       </c>
       <c r="L867">
-        <v>18.340803581426016</v>
+        <v>14.571677306834436</v>
       </c>
     </row>
     <row r="868" spans="11:12">
@@ -7988,7 +7991,7 @@
         <v>866</v>
       </c>
       <c r="L868">
-        <v>17.73028149063337</v>
+        <v>13.706755055606591</v>
       </c>
     </row>
     <row r="869" spans="11:12">
@@ -7996,7 +7999,7 @@
         <v>867</v>
       </c>
       <c r="L869">
-        <v>17.581132684613973</v>
+        <v>16.432195560478437</v>
       </c>
     </row>
     <row r="870" spans="11:12">
@@ -8004,7 +8007,7 @@
         <v>868</v>
       </c>
       <c r="L870">
-        <v>13.255985378840521</v>
+        <v>12.291353407385788</v>
       </c>
     </row>
     <row r="871" spans="11:12">
@@ -8012,7 +8015,7 @@
         <v>869</v>
       </c>
       <c r="L871">
-        <v>13.539918711230346</v>
+        <v>17.30495806739183</v>
       </c>
     </row>
     <row r="872" spans="11:12">
@@ -8020,7 +8023,7 @@
         <v>870</v>
       </c>
       <c r="L872">
-        <v>15.440749488631131</v>
+        <v>13.968843484553908</v>
       </c>
     </row>
     <row r="873" spans="11:12">
@@ -8028,7 +8031,7 @@
         <v>871</v>
       </c>
       <c r="L873">
-        <v>14.032471784803995</v>
+        <v>12.886770469658929</v>
       </c>
     </row>
     <row r="874" spans="11:12">
@@ -8036,7 +8039,7 @@
         <v>872</v>
       </c>
       <c r="L874">
-        <v>9.7037106899576031</v>
+        <v>14.49103419418315</v>
       </c>
     </row>
     <row r="875" spans="11:12">
@@ -8044,7 +8047,7 @@
         <v>873</v>
       </c>
       <c r="L875">
-        <v>17.089730077265976</v>
+        <v>17.791218743821993</v>
       </c>
     </row>
     <row r="876" spans="11:12">
@@ -8052,7 +8055,7 @@
         <v>874</v>
       </c>
       <c r="L876">
-        <v>13.715096189042661</v>
+        <v>15.233107946970653</v>
       </c>
     </row>
     <row r="877" spans="11:12">
@@ -8060,7 +8063,7 @@
         <v>875</v>
       </c>
       <c r="L877">
-        <v>11.387274700935482</v>
+        <v>14.584692866796287</v>
       </c>
     </row>
     <row r="878" spans="11:12">
@@ -8068,7 +8071,7 @@
         <v>876</v>
       </c>
       <c r="L878">
-        <v>14.757793768276702</v>
+        <v>13.788234875981761</v>
       </c>
     </row>
     <row r="879" spans="11:12">
@@ -8076,7 +8079,7 @@
         <v>877</v>
       </c>
       <c r="L879">
-        <v>13.932639574687428</v>
+        <v>15.614772620013118</v>
       </c>
     </row>
     <row r="880" spans="11:12">
@@ -8084,7 +8087,7 @@
         <v>878</v>
       </c>
       <c r="L880">
-        <v>17.488922830891966</v>
+        <v>14.108499856215619</v>
       </c>
     </row>
     <row r="881" spans="11:12">
@@ -8092,7 +8095,7 @@
         <v>879</v>
       </c>
       <c r="L881">
-        <v>16.507668881717848</v>
+        <v>14.122771057649093</v>
       </c>
     </row>
     <row r="882" spans="11:12">
@@ -8100,7 +8103,7 @@
         <v>880</v>
       </c>
       <c r="L882">
-        <v>15.178697289153419</v>
+        <v>14.92682135719706</v>
       </c>
     </row>
     <row r="883" spans="11:12">
@@ -8108,7 +8111,7 @@
         <v>881</v>
       </c>
       <c r="L883">
-        <v>11.971751270880286</v>
+        <v>13.645590899031436</v>
       </c>
     </row>
     <row r="884" spans="11:12">
@@ -8116,7 +8119,7 @@
         <v>882</v>
       </c>
       <c r="L884">
-        <v>14.648244822575686</v>
+        <v>13.947652500291417</v>
       </c>
     </row>
     <row r="885" spans="11:12">
@@ -8124,7 +8127,7 @@
         <v>883</v>
       </c>
       <c r="L885">
-        <v>13.70052775749269</v>
+        <v>13.769490955782931</v>
       </c>
     </row>
     <row r="886" spans="11:12">
@@ -8132,7 +8135,7 @@
         <v>884</v>
       </c>
       <c r="L886">
-        <v>10.735371355280456</v>
+        <v>16.039991089292815</v>
       </c>
     </row>
     <row r="887" spans="11:12">
@@ -8140,7 +8143,7 @@
         <v>885</v>
       </c>
       <c r="L887">
-        <v>13.032567025063567</v>
+        <v>12.239598359149548</v>
       </c>
     </row>
     <row r="888" spans="11:12">
@@ -8148,7 +8151,7 @@
         <v>886</v>
       </c>
       <c r="L888">
-        <v>13.311865621278587</v>
+        <v>15.919369860810507</v>
       </c>
     </row>
     <row r="889" spans="11:12">
@@ -8156,7 +8159,7 @@
         <v>887</v>
       </c>
       <c r="L889">
-        <v>19.455945324253868</v>
+        <v>16.459180638498502</v>
       </c>
     </row>
     <row r="890" spans="11:12">
@@ -8164,7 +8167,7 @@
         <v>888</v>
       </c>
       <c r="L890">
-        <v>13.913164508203153</v>
+        <v>14.741896710048621</v>
       </c>
     </row>
     <row r="891" spans="11:12">
@@ -8172,7 +8175,7 @@
         <v>889</v>
       </c>
       <c r="L891">
-        <v>14.563362798130862</v>
+        <v>10.923218992618628</v>
       </c>
     </row>
     <row r="892" spans="11:12">
@@ -8180,7 +8183,7 @@
         <v>890</v>
       </c>
       <c r="L892">
-        <v>16.351819576005983</v>
+        <v>12.724961508481561</v>
       </c>
     </row>
     <row r="893" spans="11:12">
@@ -8188,7 +8191,7 @@
         <v>891</v>
       </c>
       <c r="L893">
-        <v>16.367454818166308</v>
+        <v>13.294916229751454</v>
       </c>
     </row>
     <row r="894" spans="11:12">
@@ -8196,7 +8199,7 @@
         <v>892</v>
       </c>
       <c r="L894">
-        <v>17.297854931743426</v>
+        <v>14.316714097017467</v>
       </c>
     </row>
     <row r="895" spans="11:12">
@@ -8204,7 +8207,7 @@
         <v>893</v>
       </c>
       <c r="L895">
-        <v>14.635180843248415</v>
+        <v>8.7407793841293184</v>
       </c>
     </row>
     <row r="896" spans="11:12">
@@ -8212,7 +8215,7 @@
         <v>894</v>
       </c>
       <c r="L896">
-        <v>12.419561257677898</v>
+        <v>13.52443973782373</v>
       </c>
     </row>
     <row r="897" spans="11:12">
@@ -8220,7 +8223,7 @@
         <v>895</v>
       </c>
       <c r="L897">
-        <v>15.061285799628219</v>
+        <v>16.490214608686649</v>
       </c>
     </row>
     <row r="898" spans="11:12">
@@ -8228,7 +8231,7 @@
         <v>896</v>
       </c>
       <c r="L898">
-        <v>11.727163239687554</v>
+        <v>14.32661981498411</v>
       </c>
     </row>
     <row r="899" spans="11:12">
@@ -8236,7 +8239,7 @@
         <v>897</v>
       </c>
       <c r="L899">
-        <v>12.760945961236672</v>
+        <v>17.828074135265783</v>
       </c>
     </row>
     <row r="900" spans="11:12">
@@ -8244,7 +8247,7 @@
         <v>898</v>
       </c>
       <c r="L900">
-        <v>15.150662595955358</v>
+        <v>12.096509980792653</v>
       </c>
     </row>
     <row r="901" spans="11:12">
@@ -8252,7 +8255,7 @@
         <v>899</v>
       </c>
       <c r="L901">
-        <v>14.170071574795553</v>
+        <v>15.114271970538461</v>
       </c>
     </row>
     <row r="902" spans="11:12">
@@ -8260,7 +8263,7 @@
         <v>900</v>
       </c>
       <c r="L902">
-        <v>18.015734473805587</v>
+        <v>11.263373828380914</v>
       </c>
     </row>
     <row r="903" spans="11:12">
@@ -8268,7 +8271,7 @@
         <v>901</v>
       </c>
       <c r="L903">
-        <v>17.837565852227819</v>
+        <v>15.681618807730572</v>
       </c>
     </row>
     <row r="904" spans="11:12">
@@ -8276,7 +8279,7 @@
         <v>902</v>
       </c>
       <c r="L904">
-        <v>10.998362048743584</v>
+        <v>18.562147058907009</v>
       </c>
     </row>
     <row r="905" spans="11:12">
@@ -8284,7 +8287,7 @@
         <v>903</v>
       </c>
       <c r="L905">
-        <v>16.412241015597111</v>
+        <v>10.773909586855275</v>
       </c>
     </row>
     <row r="906" spans="11:12">
@@ -8292,7 +8295,7 @@
         <v>904</v>
       </c>
       <c r="L906">
-        <v>11.936201946536196</v>
+        <v>15.959975141608245</v>
       </c>
     </row>
     <row r="907" spans="11:12">
@@ -8300,7 +8303,7 @@
         <v>905</v>
       </c>
       <c r="L907">
-        <v>13.871969299715603</v>
+        <v>14.031060257322705</v>
       </c>
     </row>
     <row r="908" spans="11:12">
@@ -8308,7 +8311,7 @@
         <v>906</v>
       </c>
       <c r="L908">
-        <v>15.82325110915513</v>
+        <v>16.93720907818064</v>
       </c>
     </row>
     <row r="909" spans="11:12">
@@ -8316,7 +8319,7 @@
         <v>907</v>
       </c>
       <c r="L909">
-        <v>14.374174853125766</v>
+        <v>16.449694747752559</v>
       </c>
     </row>
     <row r="910" spans="11:12">
@@ -8324,7 +8327,7 @@
         <v>908</v>
       </c>
       <c r="L910">
-        <v>16.72633887087542</v>
+        <v>11.31491718810695</v>
       </c>
     </row>
     <row r="911" spans="11:12">
@@ -8332,7 +8335,7 @@
         <v>909</v>
       </c>
       <c r="L911">
-        <v>16.934310025250262</v>
+        <v>13.445626213998711</v>
       </c>
     </row>
     <row r="912" spans="11:12">
@@ -8340,7 +8343,7 @@
         <v>910</v>
       </c>
       <c r="L912">
-        <v>14.248838628760403</v>
+        <v>15.529311877489294</v>
       </c>
     </row>
     <row r="913" spans="11:12">
@@ -8348,7 +8351,7 @@
         <v>911</v>
       </c>
       <c r="L913">
-        <v>18.648428706334741</v>
+        <v>16.325529796772472</v>
       </c>
     </row>
     <row r="914" spans="11:12">
@@ -8356,7 +8359,7 @@
         <v>912</v>
       </c>
       <c r="L914">
-        <v>13.125976208144511</v>
+        <v>13.774634236663587</v>
       </c>
     </row>
     <row r="915" spans="11:12">
@@ -8364,7 +8367,7 @@
         <v>913</v>
       </c>
       <c r="L915">
-        <v>10.334577202966347</v>
+        <v>14.141812920786229</v>
       </c>
     </row>
     <row r="916" spans="11:12">
@@ -8372,7 +8375,7 @@
         <v>914</v>
       </c>
       <c r="L916">
-        <v>15.104884185614134</v>
+        <v>10.20469528993838</v>
       </c>
     </row>
     <row r="917" spans="11:12">
@@ -8380,7 +8383,7 @@
         <v>915</v>
       </c>
       <c r="L917">
-        <v>16.797232261113844</v>
+        <v>17.529031072119835</v>
       </c>
     </row>
     <row r="918" spans="11:12">
@@ -8388,7 +8391,7 @@
         <v>916</v>
       </c>
       <c r="L918">
-        <v>12.697776578551961</v>
+        <v>18.00420075887812</v>
       </c>
     </row>
     <row r="919" spans="11:12">
@@ -8396,7 +8399,7 @@
         <v>917</v>
       </c>
       <c r="L919">
-        <v>13.321297954569008</v>
+        <v>12.46569714692685</v>
       </c>
     </row>
     <row r="920" spans="11:12">
@@ -8404,7 +8407,7 @@
         <v>918</v>
       </c>
       <c r="L920">
-        <v>8.9101295395180014</v>
+        <v>18.242169792867845</v>
       </c>
     </row>
     <row r="921" spans="11:12">
@@ -8412,7 +8415,7 @@
         <v>919</v>
       </c>
       <c r="L921">
-        <v>14.601110250793777</v>
+        <v>12.642844387936774</v>
       </c>
     </row>
     <row r="922" spans="11:12">
@@ -8420,7 +8423,7 @@
         <v>920</v>
       </c>
       <c r="L922">
-        <v>16.164002386334133</v>
+        <v>11.765764003996878</v>
       </c>
     </row>
     <row r="923" spans="11:12">
@@ -8428,7 +8431,7 @@
         <v>921</v>
       </c>
       <c r="L923">
-        <v>16.78293243598992</v>
+        <v>14.870925834821595</v>
       </c>
     </row>
     <row r="924" spans="11:12">
@@ -8436,7 +8439,7 @@
         <v>922</v>
       </c>
       <c r="L924">
-        <v>15.374718583972564</v>
+        <v>12.693063329558816</v>
       </c>
     </row>
     <row r="925" spans="11:12">
@@ -8444,7 +8447,7 @@
         <v>923</v>
       </c>
       <c r="L925">
-        <v>15.273898612502126</v>
+        <v>16.922725798189379</v>
       </c>
     </row>
     <row r="926" spans="11:12">
@@ -8452,7 +8455,7 @@
         <v>924</v>
       </c>
       <c r="L926">
-        <v>16.98145474576895</v>
+        <v>14.048952044755772</v>
       </c>
     </row>
     <row r="927" spans="11:12">
@@ -8460,7 +8463,7 @@
         <v>925</v>
       </c>
       <c r="L927">
-        <v>16.030968825467792</v>
+        <v>14.696304705444533</v>
       </c>
     </row>
     <row r="928" spans="11:12">
@@ -8468,7 +8471,7 @@
         <v>926</v>
       </c>
       <c r="L928">
-        <v>16.100747278988209</v>
+        <v>16.941423183122254</v>
       </c>
     </row>
     <row r="929" spans="11:12">
@@ -8476,7 +8479,7 @@
         <v>927</v>
       </c>
       <c r="L929">
-        <v>12.06404037436257</v>
+        <v>14.488809747566552</v>
       </c>
     </row>
     <row r="930" spans="11:12">
@@ -8484,7 +8487,7 @@
         <v>928</v>
       </c>
       <c r="L930">
-        <v>10.945095430677876</v>
+        <v>13.602441158796395</v>
       </c>
     </row>
     <row r="931" spans="11:12">
@@ -8492,7 +8495,7 @@
         <v>929</v>
       </c>
       <c r="L931">
-        <v>19.250509534051474</v>
+        <v>11.428422823519947</v>
       </c>
     </row>
     <row r="932" spans="11:12">
@@ -8500,7 +8503,7 @@
         <v>930</v>
       </c>
       <c r="L932">
-        <v>15.786592460871201</v>
+        <v>12.736331940565192</v>
       </c>
     </row>
     <row r="933" spans="11:12">
@@ -8508,7 +8511,7 @@
         <v>931</v>
       </c>
       <c r="L933">
-        <v>15.507037151174179</v>
+        <v>17.550055904649248</v>
       </c>
     </row>
     <row r="934" spans="11:12">
@@ -8516,7 +8519,7 @@
         <v>932</v>
       </c>
       <c r="L934">
-        <v>12.694570137618854</v>
+        <v>13.940690213437289</v>
       </c>
     </row>
     <row r="935" spans="11:12">
@@ -8524,7 +8527,7 @@
         <v>933</v>
       </c>
       <c r="L935">
-        <v>8.6024150096343472</v>
+        <v>11.911362645165891</v>
       </c>
     </row>
     <row r="936" spans="11:12">
@@ -8532,7 +8535,7 @@
         <v>934</v>
       </c>
       <c r="L936">
-        <v>11.364733283857934</v>
+        <v>15.590929491321042</v>
       </c>
     </row>
     <row r="937" spans="11:12">
@@ -8540,7 +8543,7 @@
         <v>935</v>
       </c>
       <c r="L937">
-        <v>15.69858742500065</v>
+        <v>13.283491412418767</v>
       </c>
     </row>
     <row r="938" spans="11:12">
@@ -8548,7 +8551,7 @@
         <v>936</v>
       </c>
       <c r="L938">
-        <v>11.449158062132732</v>
+        <v>13.154727239060541</v>
       </c>
     </row>
     <row r="939" spans="11:12">
@@ -8556,7 +8559,7 @@
         <v>937</v>
       </c>
       <c r="L939">
-        <v>15.561835191039272</v>
+        <v>13.044863431937562</v>
       </c>
     </row>
     <row r="940" spans="11:12">
@@ -8564,7 +8567,7 @@
         <v>938</v>
       </c>
       <c r="L940">
-        <v>16.423686380843403</v>
+        <v>15.074958310439756</v>
       </c>
     </row>
     <row r="941" spans="11:12">
@@ -8572,7 +8575,7 @@
         <v>939</v>
       </c>
       <c r="L941">
-        <v>12.731882303353435</v>
+        <v>12.153944236851522</v>
       </c>
     </row>
     <row r="942" spans="11:12">
@@ -8580,7 +8583,7 @@
         <v>940</v>
       </c>
       <c r="L942">
-        <v>14.621657363753545</v>
+        <v>13.734289605199569</v>
       </c>
     </row>
     <row r="943" spans="11:12">
@@ -8588,7 +8591,7 @@
         <v>941</v>
       </c>
       <c r="L943">
-        <v>13.462120119747734</v>
+        <v>12.663725080967724</v>
       </c>
     </row>
     <row r="944" spans="11:12">
@@ -8596,7 +8599,7 @@
         <v>942</v>
       </c>
       <c r="L944">
-        <v>13.894249531633978</v>
+        <v>15.973830438009035</v>
       </c>
     </row>
     <row r="945" spans="11:12">
@@ -8604,7 +8607,7 @@
         <v>943</v>
       </c>
       <c r="L945">
-        <v>14.493702330349683</v>
+        <v>14.347699857105269</v>
       </c>
     </row>
     <row r="946" spans="11:12">
@@ -8612,7 +8615,7 @@
         <v>944</v>
       </c>
       <c r="L946">
-        <v>14.064168585911906</v>
+        <v>14.807120753016493</v>
       </c>
     </row>
     <row r="947" spans="11:12">
@@ -8620,7 +8623,7 @@
         <v>945</v>
       </c>
       <c r="L947">
-        <v>15.206333078160046</v>
+        <v>13.346425929166312</v>
       </c>
     </row>
     <row r="948" spans="11:12">
@@ -8628,7 +8631,7 @@
         <v>946</v>
       </c>
       <c r="L948">
-        <v>12.12105165278567</v>
+        <v>15.975326997553292</v>
       </c>
     </row>
     <row r="949" spans="11:12">
@@ -8636,7 +8639,7 @@
         <v>947</v>
       </c>
       <c r="L949">
-        <v>18.791214762481573</v>
+        <v>14.477094682459262</v>
       </c>
     </row>
     <row r="950" spans="11:12">
@@ -8644,7 +8647,7 @@
         <v>948</v>
       </c>
       <c r="L950">
-        <v>13.768411729159554</v>
+        <v>12.356593482926609</v>
       </c>
     </row>
     <row r="951" spans="11:12">
@@ -8652,7 +8655,7 @@
         <v>949</v>
       </c>
       <c r="L951">
-        <v>15.510606303323456</v>
+        <v>9.2608023243169182</v>
       </c>
     </row>
     <row r="952" spans="11:12">
@@ -8660,7 +8663,7 @@
         <v>950</v>
       </c>
       <c r="L952">
-        <v>13.800502562508029</v>
+        <v>15.75443359545206</v>
       </c>
     </row>
     <row r="953" spans="11:12">
@@ -8668,7 +8671,7 @@
         <v>951</v>
       </c>
       <c r="L953">
-        <v>12.70030106990305</v>
+        <v>15.815930189490089</v>
       </c>
     </row>
     <row r="954" spans="11:12">
@@ -8676,7 +8679,7 @@
         <v>952</v>
       </c>
       <c r="L954">
-        <v>14.251373893651175</v>
+        <v>11.53546323394934</v>
       </c>
     </row>
     <row r="955" spans="11:12">
@@ -8684,7 +8687,7 @@
         <v>953</v>
       </c>
       <c r="L955">
-        <v>11.580919336223415</v>
+        <v>14.874254261056409</v>
       </c>
     </row>
     <row r="956" spans="11:12">
@@ -8692,7 +8695,7 @@
         <v>954</v>
       </c>
       <c r="L956">
-        <v>13.799874138912205</v>
+        <v>15.840171160178288</v>
       </c>
     </row>
     <row r="957" spans="11:12">
@@ -8700,7 +8703,7 @@
         <v>955</v>
       </c>
       <c r="L957">
-        <v>15.849614019774529</v>
+        <v>11.374512602183126</v>
       </c>
     </row>
     <row r="958" spans="11:12">
@@ -8708,7 +8711,7 @@
         <v>956</v>
       </c>
       <c r="L958">
-        <v>11.315575159173415</v>
+        <v>12.839532418912645</v>
       </c>
     </row>
     <row r="959" spans="11:12">
@@ -8716,7 +8719,7 @@
         <v>957</v>
       </c>
       <c r="L959">
-        <v>16.404407630287054</v>
+        <v>10.705163834527394</v>
       </c>
     </row>
     <row r="960" spans="11:12">
@@ -8724,7 +8727,7 @@
         <v>958</v>
       </c>
       <c r="L960">
-        <v>11.49170020138035</v>
+        <v>14.259663627522308</v>
       </c>
     </row>
     <row r="961" spans="11:12">
@@ -8732,7 +8735,7 @@
         <v>959</v>
       </c>
       <c r="L961">
-        <v>15.043925553169156</v>
+        <v>9.5454175233802907</v>
       </c>
     </row>
     <row r="962" spans="11:12">
@@ -8740,7 +8743,7 @@
         <v>960</v>
       </c>
       <c r="L962">
-        <v>11.430626507714274</v>
+        <v>14.939466586394683</v>
       </c>
     </row>
     <row r="963" spans="11:12">
@@ -8748,7 +8751,7 @@
         <v>961</v>
       </c>
       <c r="L963">
-        <v>16.864150933700152</v>
+        <v>16.589817383601211</v>
       </c>
     </row>
     <row r="964" spans="11:12">
@@ -8756,7 +8759,7 @@
         <v>962</v>
       </c>
       <c r="L964">
-        <v>12.548131334948842</v>
+        <v>12.575221822328473</v>
       </c>
     </row>
     <row r="965" spans="11:12">
@@ -8764,7 +8767,7 @@
         <v>963</v>
       </c>
       <c r="L965">
-        <v>13.342520097364524</v>
+        <v>16.131338927243558</v>
       </c>
     </row>
     <row r="966" spans="11:12">
@@ -8772,7 +8775,7 @@
         <v>964</v>
       </c>
       <c r="L966">
-        <v>10.663857033127453</v>
+        <v>16.108189703083401</v>
       </c>
     </row>
     <row r="967" spans="11:12">
@@ -8780,7 +8783,7 @@
         <v>965</v>
       </c>
       <c r="L967">
-        <v>15.496257263645031</v>
+        <v>17.671059088253681</v>
       </c>
     </row>
     <row r="968" spans="11:12">
@@ -8788,7 +8791,7 @@
         <v>966</v>
       </c>
       <c r="L968">
-        <v>13.801132924610265</v>
+        <v>10.352546226030491</v>
       </c>
     </row>
     <row r="969" spans="11:12">
@@ -8796,7 +8799,7 @@
         <v>967</v>
       </c>
       <c r="L969">
-        <v>11.709925434300857</v>
+        <v>19.022874558883355</v>
       </c>
     </row>
     <row r="970" spans="11:12">
@@ -8804,7 +8807,7 @@
         <v>968</v>
       </c>
       <c r="L970">
-        <v>13.785509242645489</v>
+        <v>12.24656013045092</v>
       </c>
     </row>
     <row r="971" spans="11:12">
@@ -8812,7 +8815,7 @@
         <v>969</v>
       </c>
       <c r="L971">
-        <v>17.1583885854686</v>
+        <v>14.051629792098321</v>
       </c>
     </row>
     <row r="972" spans="11:12">
@@ -8820,7 +8823,7 @@
         <v>970</v>
       </c>
       <c r="L972">
-        <v>17.061905300431487</v>
+        <v>13.691485255353065</v>
       </c>
     </row>
     <row r="973" spans="11:12">
@@ -8828,7 +8831,7 @@
         <v>971</v>
       </c>
       <c r="L973">
-        <v>15.053052715017261</v>
+        <v>8.6767662956372664</v>
       </c>
     </row>
     <row r="974" spans="11:12">
@@ -8836,7 +8839,7 @@
         <v>972</v>
       </c>
       <c r="L974">
-        <v>17.162145346166504</v>
+        <v>13.241137686325024</v>
       </c>
     </row>
     <row r="975" spans="11:12">
@@ -8844,7 +8847,7 @@
         <v>973</v>
       </c>
       <c r="L975">
-        <v>11.635605526867108</v>
+        <v>13.413422145616146</v>
       </c>
     </row>
     <row r="976" spans="11:12">
@@ -8852,7 +8855,7 @@
         <v>974</v>
       </c>
       <c r="L976">
-        <v>13.740464831363356</v>
+        <v>16.577500319168124</v>
       </c>
     </row>
     <row r="977" spans="11:12">
@@ -8860,7 +8863,7 @@
         <v>975</v>
       </c>
       <c r="L977">
-        <v>14.514659275296733</v>
+        <v>17.589191083599545</v>
       </c>
     </row>
     <row r="978" spans="11:12">
@@ -8868,7 +8871,7 @@
         <v>976</v>
       </c>
       <c r="L978">
-        <v>13.373793376742729</v>
+        <v>17.197923925258248</v>
       </c>
     </row>
     <row r="979" spans="11:12">
@@ -8876,7 +8879,7 @@
         <v>977</v>
       </c>
       <c r="L979">
-        <v>17.304066721720417</v>
+        <v>18.504418004276999</v>
       </c>
     </row>
     <row r="980" spans="11:12">
@@ -8884,7 +8887,7 @@
         <v>978</v>
       </c>
       <c r="L980">
-        <v>17.265622890617649</v>
+        <v>13.921003681215407</v>
       </c>
     </row>
     <row r="981" spans="11:12">
@@ -8892,7 +8895,7 @@
         <v>979</v>
       </c>
       <c r="L981">
-        <v>16.689010399463061</v>
+        <v>14.8744098170857</v>
       </c>
     </row>
     <row r="982" spans="11:12">
@@ -8900,7 +8903,7 @@
         <v>980</v>
       </c>
       <c r="L982">
-        <v>14.740534569215921</v>
+        <v>12.586909804740154</v>
       </c>
     </row>
     <row r="983" spans="11:12">
@@ -8908,7 +8911,7 @@
         <v>981</v>
       </c>
       <c r="L983">
-        <v>10.172874197580409</v>
+        <v>13.087097473828742</v>
       </c>
     </row>
     <row r="984" spans="11:12">
@@ -8916,7 +8919,7 @@
         <v>982</v>
       </c>
       <c r="L984">
-        <v>16.1425738414584</v>
+        <v>16.759919317708473</v>
       </c>
     </row>
     <row r="985" spans="11:12">
@@ -8924,7 +8927,7 @@
         <v>983</v>
       </c>
       <c r="L985">
-        <v>17.719383478652318</v>
+        <v>12.619976512144536</v>
       </c>
     </row>
     <row r="986" spans="11:12">
@@ -8932,7 +8935,7 @@
         <v>984</v>
       </c>
       <c r="L986">
-        <v>11.531639428869157</v>
+        <v>15.677552994244536</v>
       </c>
     </row>
     <row r="987" spans="11:12">
@@ -8940,7 +8943,7 @@
         <v>985</v>
       </c>
       <c r="L987">
-        <v>14.859779001376925</v>
+        <v>19.898887983327882</v>
       </c>
     </row>
     <row r="988" spans="11:12">
@@ -8948,7 +8951,7 @@
         <v>986</v>
       </c>
       <c r="L988">
-        <v>15.286624911789398</v>
+        <v>15.936918080915342</v>
       </c>
     </row>
     <row r="989" spans="11:12">
@@ -8956,7 +8959,7 @@
         <v>987</v>
       </c>
       <c r="L989">
-        <v>14.399098347212133</v>
+        <v>13.495962360830969</v>
       </c>
     </row>
     <row r="990" spans="11:12">
@@ -8964,7 +8967,7 @@
         <v>988</v>
       </c>
       <c r="L990">
-        <v>12.788093271049892</v>
+        <v>17.83598347264131</v>
       </c>
     </row>
     <row r="991" spans="11:12">
@@ -8972,7 +8975,7 @@
         <v>989</v>
       </c>
       <c r="L991">
-        <v>14.536174352770631</v>
+        <v>16.418065771652145</v>
       </c>
     </row>
     <row r="992" spans="11:12">
@@ -8980,7 +8983,7 @@
         <v>990</v>
       </c>
       <c r="L992">
-        <v>19.524434789081667</v>
+        <v>14.973877950532902</v>
       </c>
     </row>
     <row r="993" spans="11:12">
@@ -8988,7 +8991,7 @@
         <v>991</v>
       </c>
       <c r="L993">
-        <v>13.718401008385307</v>
+        <v>15.994794282248334</v>
       </c>
     </row>
     <row r="994" spans="11:12">
@@ -8996,7 +8999,7 @@
         <v>992</v>
       </c>
       <c r="L994">
-        <v>12.351139140566463</v>
+        <v>14.479657143197443</v>
       </c>
     </row>
     <row r="995" spans="11:12">
@@ -9004,7 +9007,7 @@
         <v>993</v>
       </c>
       <c r="L995">
-        <v>17.772178512878856</v>
+        <v>16.237777521151845</v>
       </c>
     </row>
     <row r="996" spans="11:12">
@@ -9012,7 +9015,7 @@
         <v>994</v>
       </c>
       <c r="L996">
-        <v>13.827668678659006</v>
+        <v>15.119187378587634</v>
       </c>
     </row>
     <row r="997" spans="11:12">
@@ -9020,7 +9023,7 @@
         <v>995</v>
       </c>
       <c r="L997">
-        <v>13.596849884893846</v>
+        <v>11.51731618718372</v>
       </c>
     </row>
     <row r="998" spans="11:12">
@@ -9028,7 +9031,7 @@
         <v>996</v>
       </c>
       <c r="L998">
-        <v>10.691703427758398</v>
+        <v>18.071377453198636</v>
       </c>
     </row>
     <row r="999" spans="11:12">
@@ -9036,7 +9039,7 @@
         <v>997</v>
       </c>
       <c r="L999">
-        <v>11.642684855324843</v>
+        <v>14.275109434335473</v>
       </c>
     </row>
     <row r="1000" spans="11:12">
@@ -9044,7 +9047,7 @@
         <v>998</v>
       </c>
       <c r="L1000">
-        <v>11.230890796305099</v>
+        <v>14.794010647887642</v>
       </c>
     </row>
     <row r="1001" spans="11:12">
@@ -9052,7 +9055,7 @@
         <v>999</v>
       </c>
       <c r="L1001">
-        <v>14.958019908326939</v>
+        <v>15.214489039510447</v>
       </c>
     </row>
     <row r="1002" spans="11:12">
@@ -9060,7 +9063,7 @@
         <v>1000</v>
       </c>
       <c r="L1002">
-        <v>10.780882939796811</v>
+        <v>16.019668910775046</v>
       </c>
     </row>
   </sheetData>
@@ -9082,10 +9085,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9242,7 +9245,7 @@
     </row>
     <row r="21" spans="1:2" ht="17" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
